--- a/1 YA/2 Analyses/1 ANOVAs/YA Output 10_14.xlsx
+++ b/1 YA/2 Analyses/1 ANOVAs/YA Output 10_14.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\Spring-2019-Projects\CVOE\5 Manuscript\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\CVOE-2021\1 YA\2 Analyses\1 ANOVAs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF559639-04C3-4904-AAE4-972E7249D542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE6B654-F52F-4E4C-9144-3A936E7BF07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -998,11 +998,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3909,486 +3909,866 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77">
+        <v>2.0833333333333402E-2</v>
+      </c>
+      <c r="C77">
+        <v>2.1052631578947299E-2</v>
+      </c>
+      <c r="D77">
+        <v>2.0942982456140301E-2</v>
+      </c>
+      <c r="E77">
+        <v>1.6949152542372801E-2</v>
+      </c>
+      <c r="F77">
+        <v>1.75438596491229E-2</v>
+      </c>
+      <c r="G77">
+        <v>1.72413793103449E-2</v>
+      </c>
+      <c r="H77">
         <v>0</v>
       </c>
-      <c r="C77">
-        <v>3.1578947368420998E-2</v>
-      </c>
-      <c r="D77">
-        <v>1.5789473684210499E-2</v>
-      </c>
-      <c r="E77">
-        <v>3.4482758620689599E-2</v>
-      </c>
-      <c r="F77">
-        <v>6.7796610169491595E-2</v>
-      </c>
-      <c r="G77">
-        <v>8.6206896551724102E-2</v>
-      </c>
-      <c r="H77">
-        <v>1.7857142857142901E-2</v>
-      </c>
       <c r="I77">
-        <v>5.2007136485280998E-2</v>
+        <v>-3.3991228070174898E-3</v>
       </c>
       <c r="J77">
-        <v>2.0676691729323801E-3</v>
+        <v>-2.0942982456140301E-2</v>
       </c>
       <c r="K77">
-        <v>-3.3313851548802002E-2</v>
+        <v>-5.9470710675002504E-4</v>
       </c>
       <c r="L77">
-        <v>6.8349753694581197E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
         <v>1.05263157894737E-2</v>
       </c>
-      <c r="C78">
-        <v>3.1578947368420998E-2</v>
-      </c>
       <c r="D78">
-        <v>2.1052631578947399E-2</v>
+        <v>5.2631578947368602E-3</v>
       </c>
       <c r="E78">
-        <v>5.1724137931034503E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="F78">
-        <v>3.5714285714285698E-2</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>8.1967213114754106E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="H78">
-        <v>5.1724137931034503E-2</v>
+        <v>1.75438596491229E-2</v>
       </c>
       <c r="I78">
-        <v>1.4661654135338299E-2</v>
+        <v>-5.2631578947368602E-3</v>
       </c>
       <c r="J78">
-        <v>3.06715063520871E-2</v>
+        <v>1.2280701754386E-2</v>
       </c>
       <c r="K78">
-        <v>1.6009852216748801E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="L78">
-        <v>3.02430751837196E-2</v>
+        <v>5.0252750520368698E-2</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>4.2105263157894798E-2</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>3.1578947368420998E-2</v>
       </c>
       <c r="D79">
-        <v>3.6842105263157898E-2</v>
+        <v>1.5789473684210499E-2</v>
       </c>
       <c r="E79">
-        <v>6.8965517241379296E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="F79">
-        <v>5.1724137931034503E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="G79">
-        <v>6.6666666666666693E-2</v>
+        <v>8.6206896551724102E-2</v>
       </c>
       <c r="H79">
-        <v>1.6949152542372801E-2</v>
+        <v>1.7857142857142901E-2</v>
       </c>
       <c r="I79">
-        <v>1.4882032667876599E-2</v>
+        <v>5.2007136485280998E-2</v>
       </c>
       <c r="J79">
-        <v>-1.98929527207851E-2</v>
+        <v>2.0676691729323801E-3</v>
       </c>
       <c r="K79">
-        <v>1.72413793103449E-2</v>
+        <v>-3.3313851548802002E-2</v>
       </c>
       <c r="L79">
-        <v>4.9717514124293802E-2</v>
+        <v>6.8349753694581197E-2</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="C80">
-        <v>1.05263157894737E-2</v>
+        <v>3.1578947368420998E-2</v>
       </c>
       <c r="D80">
-        <v>5.2631578947368602E-3</v>
+        <v>2.1052631578947399E-2</v>
       </c>
       <c r="E80">
-        <v>3.4482758620689599E-2</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>3.5714285714285698E-2</v>
       </c>
       <c r="G80">
-        <v>1.63934426229508E-2</v>
+        <v>8.1967213114754106E-2</v>
       </c>
       <c r="H80">
-        <v>1.75438596491229E-2</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="I80">
-        <v>-5.2631578947368602E-3</v>
+        <v>1.4661654135338299E-2</v>
       </c>
       <c r="J80">
-        <v>1.2280701754386E-2</v>
+        <v>3.06715063520871E-2</v>
       </c>
       <c r="K80">
-        <v>3.4482758620689599E-2</v>
+        <v>1.6009852216748801E-2</v>
       </c>
       <c r="L80">
-        <v>-1.15041702617202E-3</v>
+        <v>3.02430751837196E-2</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>6.25E-2</v>
+        <v>4.2105263157894798E-2</v>
       </c>
       <c r="C81">
         <v>3.1578947368420998E-2</v>
       </c>
       <c r="D81">
+        <v>3.6842105263157898E-2</v>
+      </c>
+      <c r="E81">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="F81">
+        <v>5.1724137931034503E-2</v>
+      </c>
+      <c r="G81">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="H81">
+        <v>1.6949152542372801E-2</v>
+      </c>
+      <c r="I81">
+        <v>1.4882032667876599E-2</v>
+      </c>
+      <c r="J81">
+        <v>-1.98929527207851E-2</v>
+      </c>
+      <c r="K81">
+        <v>1.72413793103449E-2</v>
+      </c>
+      <c r="L81">
+        <v>4.9717514124293802E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>91</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>1.05263157894737E-2</v>
+      </c>
+      <c r="D82">
+        <v>5.2631578947368602E-3</v>
+      </c>
+      <c r="E82">
+        <v>3.4482758620689599E-2</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1.63934426229508E-2</v>
+      </c>
+      <c r="H82">
+        <v>1.75438596491229E-2</v>
+      </c>
+      <c r="I82">
+        <v>-5.2631578947368602E-3</v>
+      </c>
+      <c r="J82">
+        <v>1.2280701754386E-2</v>
+      </c>
+      <c r="K82">
+        <v>3.4482758620689599E-2</v>
+      </c>
+      <c r="L82">
+        <v>-1.15041702617202E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>92</v>
+      </c>
+      <c r="B83">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C83">
+        <v>3.1578947368420998E-2</v>
+      </c>
+      <c r="D83">
         <v>4.7039473684210499E-2</v>
       </c>
-      <c r="E81">
+      <c r="E83">
         <v>3.3898305084745797E-2</v>
       </c>
-      <c r="F81">
+      <c r="F83">
         <v>1.6666666666666701E-2</v>
       </c>
-      <c r="G81">
+      <c r="G83">
         <v>5.1724137931034503E-2</v>
       </c>
-      <c r="H81">
+      <c r="H83">
         <v>0</v>
       </c>
-      <c r="I81">
+      <c r="I83">
         <v>-3.0372807017543801E-2</v>
       </c>
-      <c r="J81">
+      <c r="J83">
         <v>-4.7039473684210499E-2</v>
       </c>
-      <c r="K81">
+      <c r="K83">
         <v>1.72316384180791E-2</v>
       </c>
-      <c r="L81">
+      <c r="L83">
         <v>5.1724137931034503E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>93</v>
+      </c>
+      <c r="B84">
+        <v>2.0833333333333402E-2</v>
+      </c>
+      <c r="C84">
+        <v>1.05263157894737E-2</v>
+      </c>
+      <c r="D84">
+        <v>1.5679824561403499E-2</v>
+      </c>
+      <c r="E84">
+        <v>5.0847457627118599E-2</v>
+      </c>
+      <c r="F84">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="G84">
+        <v>0.05</v>
+      </c>
+      <c r="H84">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="I84">
+        <v>1.76535087719298E-2</v>
+      </c>
+      <c r="J84">
+        <v>5.32856926799758E-2</v>
+      </c>
+      <c r="K84">
+        <v>1.7514124293785301E-2</v>
+      </c>
+      <c r="L84">
+        <v>-1.89655172413793E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>94</v>
+      </c>
+      <c r="B85">
+        <v>2.0833333333333402E-2</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1.6949152542372801E-2</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>6.5324858757061502E-3</v>
+      </c>
+      <c r="J85">
+        <v>-1.0416666666666701E-2</v>
+      </c>
+      <c r="K85">
+        <v>-1.6949152542372801E-2</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>97</v>
+      </c>
+      <c r="B86">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C86">
+        <v>2.1052631578947299E-2</v>
+      </c>
+      <c r="D86">
+        <v>2.61513157894737E-2</v>
+      </c>
+      <c r="E86">
+        <v>3.5087719298245598E-2</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>-2.61513157894737E-2</v>
+      </c>
+      <c r="J86">
+        <v>-2.61513157894737E-2</v>
+      </c>
+      <c r="K86">
+        <v>3.5087719298245598E-2</v>
+      </c>
+      <c r="L86">
+        <v>1.6666666666666701E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>98</v>
+      </c>
+      <c r="B87">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C87">
+        <v>1.05263157894737E-2</v>
+      </c>
+      <c r="D87">
+        <v>2.08881578947369E-2</v>
+      </c>
+      <c r="E87">
+        <v>5.2631578947368501E-2</v>
+      </c>
+      <c r="F87">
+        <v>3.4482758620689599E-2</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>1.75438596491229E-2</v>
+      </c>
+      <c r="I87">
+        <v>1.35946007259528E-2</v>
+      </c>
+      <c r="J87">
+        <v>-3.3442982456139999E-3</v>
+      </c>
+      <c r="K87">
+        <v>1.8148820326678899E-2</v>
+      </c>
+      <c r="L87">
+        <v>-1.75438596491229E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>99</v>
+      </c>
+      <c r="B88">
+        <v>2.1052631578947299E-2</v>
+      </c>
+      <c r="C88">
+        <v>1.05263157894737E-2</v>
+      </c>
+      <c r="D88">
+        <v>1.5789473684210499E-2</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1.75438596491229E-2</v>
+      </c>
+      <c r="H88">
+        <v>1.75438596491229E-2</v>
+      </c>
+      <c r="I88">
+        <v>-1.5789473684210499E-2</v>
+      </c>
+      <c r="J88">
+        <v>1.7543859649123399E-3</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>100</v>
+      </c>
+      <c r="B89">
+        <v>1.04166666666666E-2</v>
+      </c>
+      <c r="C89">
+        <v>2.1052631578947299E-2</v>
+      </c>
+      <c r="D89">
+        <v>1.5734649122807001E-2</v>
+      </c>
+      <c r="E89">
+        <v>5.2631578947368501E-2</v>
+      </c>
+      <c r="F89">
+        <v>1.6949152542372801E-2</v>
+      </c>
+      <c r="G89">
+        <v>5.0847457627118599E-2</v>
+      </c>
+      <c r="H89">
+        <v>1.6949152542372801E-2</v>
+      </c>
+      <c r="I89">
+        <v>1.2145034195658599E-3</v>
+      </c>
+      <c r="J89">
+        <v>1.2145034195658599E-3</v>
+      </c>
+      <c r="K89">
+        <v>3.5682426404995603E-2</v>
+      </c>
+      <c r="L89">
+        <v>3.3898305084745797E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>101</v>
+      </c>
+      <c r="B90">
+        <v>2.0833333333333402E-2</v>
+      </c>
+      <c r="C90">
+        <v>2.1276595744680899E-2</v>
+      </c>
+      <c r="D90">
+        <v>2.1054964539007098E-2</v>
+      </c>
+      <c r="E90">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="F90">
+        <v>5.0847457627118599E-2</v>
+      </c>
+      <c r="G90">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="H90">
+        <v>5.2631578947368501E-2</v>
+      </c>
+      <c r="I90">
+        <v>2.97924930881115E-2</v>
+      </c>
+      <c r="J90">
+        <v>3.1576614408361299E-2</v>
+      </c>
+      <c r="K90">
+        <v>1.81180596142607E-2</v>
+      </c>
+      <c r="L90">
+        <v>-1.9298245614035099E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>102</v>
+      </c>
+      <c r="B91">
+        <v>4.1666666666666602E-2</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="E91">
+        <v>0.15517241379310301</v>
+      </c>
+      <c r="F91">
+        <v>7.0175438596491196E-2</v>
+      </c>
+      <c r="G91">
+        <v>0.1</v>
+      </c>
+      <c r="H91">
+        <v>8.9285714285714302E-2</v>
+      </c>
+      <c r="I91">
+        <v>4.9342105263157902E-2</v>
+      </c>
+      <c r="J91">
+        <v>6.8452380952381001E-2</v>
+      </c>
+      <c r="K91">
+        <v>8.4996975196612201E-2</v>
+      </c>
+      <c r="L91">
+        <v>1.0714285714285701E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B83">
-        <f>AVERAGE(B2:B81)</f>
-        <v>2.7190952813608726E-2</v>
-      </c>
-      <c r="C83">
-        <f t="shared" ref="C83:L83" si="0">AVERAGE(C2:C81)</f>
-        <v>4.4191944819131981E-2</v>
-      </c>
-      <c r="D83">
+      <c r="B93">
+        <f>AVERAGE(B2:B91)</f>
+        <v>2.6602728037047916E-2</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ref="C93:L93" si="0">AVERAGE(C2:C91)</f>
+        <v>4.0687725990777523E-2</v>
+      </c>
+      <c r="D93">
         <f t="shared" si="0"/>
-        <v>3.5691448816370347E-2</v>
-      </c>
-      <c r="E83">
+        <v>3.3645227013912711E-2</v>
+      </c>
+      <c r="E93">
         <f t="shared" si="0"/>
-        <v>6.4485815904252883E-2</v>
-      </c>
-      <c r="F83">
+        <v>6.2507038326198625E-2</v>
+      </c>
+      <c r="F93">
         <f t="shared" si="0"/>
-        <v>3.8281155920176863E-2</v>
-      </c>
-      <c r="G83">
+        <v>3.6697484739173884E-2</v>
+      </c>
+      <c r="G93">
         <f t="shared" si="0"/>
-        <v>5.6022529902103081E-2</v>
-      </c>
-      <c r="H83">
+        <v>5.3724796654714711E-2</v>
+      </c>
+      <c r="H93">
         <f t="shared" si="0"/>
-        <v>3.3063469920725501E-2</v>
-      </c>
-      <c r="I83">
+        <v>3.2506012618024931E-2</v>
+      </c>
+      <c r="I93">
         <f t="shared" si="0"/>
-        <v>2.5897071038065095E-3</v>
-      </c>
-      <c r="J83">
+        <v>3.0522577252611802E-3</v>
+      </c>
+      <c r="J93">
         <f t="shared" si="0"/>
-        <v>-2.6279788956448339E-3</v>
-      </c>
-      <c r="K83">
+        <v>-1.1392143958877678E-3</v>
+      </c>
+      <c r="K93">
         <f t="shared" si="0"/>
-        <v>2.6204659984076017E-2</v>
-      </c>
-      <c r="L83">
+        <v>2.580955358702474E-2</v>
+      </c>
+      <c r="L93">
         <f t="shared" si="0"/>
-        <v>2.295905998137758E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+        <v>2.1218784036689788E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B84">
-        <f>STDEV(B2:B81)</f>
-        <v>2.3212788027946123E-2</v>
-      </c>
-      <c r="C84">
-        <f t="shared" ref="C84:L84" si="1">STDEV(C2:C81)</f>
-        <v>3.9886900504168162E-2</v>
-      </c>
-      <c r="D84">
+      <c r="B94">
+        <f>STDEV(B2:B91)</f>
+        <v>2.2234522923919645E-2</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ref="C94:L94" si="1">STDEV(C2:C91)</f>
+        <v>3.8968701530890791E-2</v>
+      </c>
+      <c r="D94">
         <f t="shared" si="1"/>
-        <v>2.7325971022752974E-2</v>
-      </c>
-      <c r="E84">
+        <v>2.6465015433209459E-2</v>
+      </c>
+      <c r="E94">
         <f t="shared" si="1"/>
-        <v>5.9270505875388201E-2</v>
-      </c>
-      <c r="F84">
+        <v>5.7886582273711504E-2</v>
+      </c>
+      <c r="F94">
         <f t="shared" si="1"/>
-        <v>5.1058879512771257E-2</v>
-      </c>
-      <c r="G84">
+        <v>4.8884012523919829E-2</v>
+      </c>
+      <c r="G94">
         <f t="shared" si="1"/>
-        <v>4.9439717576702805E-2</v>
-      </c>
-      <c r="H84">
+        <v>4.812021723928768E-2</v>
+      </c>
+      <c r="H94">
         <f t="shared" si="1"/>
-        <v>4.561347751385704E-2</v>
-      </c>
-      <c r="I84">
+        <v>4.4143945184077091E-2</v>
+      </c>
+      <c r="I94">
         <f t="shared" si="1"/>
-        <v>4.9402416656251343E-2</v>
-      </c>
-      <c r="J84">
+        <v>4.7088329885901246E-2</v>
+      </c>
+      <c r="J94">
         <f t="shared" si="1"/>
-        <v>4.7825148613895328E-2</v>
-      </c>
-      <c r="K84">
+        <v>4.6331460549629354E-2</v>
+      </c>
+      <c r="K94">
         <f t="shared" si="1"/>
-        <v>4.2365372935131068E-2</v>
-      </c>
-      <c r="L84">
+        <v>4.090875956370648E-2</v>
+      </c>
+      <c r="L94">
         <f t="shared" si="1"/>
-        <v>3.4896403537994912E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+        <v>3.4061295641342651E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B85">
-        <f>B84/(SQRT(80))</f>
-        <v>2.5952685988890408E-3</v>
-      </c>
-      <c r="C85">
-        <f t="shared" ref="C85:L85" si="2">C84/(SQRT(80))</f>
-        <v>4.4594910469545317E-3</v>
-      </c>
-      <c r="D85">
+      <c r="B95">
+        <f>B94/(SQRT(80))</f>
+        <v>2.4858952352580853E-3</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ref="C95:L95" si="2">C94/(SQRT(80))</f>
+        <v>4.3568332808985961E-3</v>
+      </c>
+      <c r="D95">
         <f t="shared" si="2"/>
-        <v>3.0551364379032549E-3</v>
-      </c>
-      <c r="E85">
+        <v>2.9588786767118696E-3</v>
+      </c>
+      <c r="E95">
         <f t="shared" si="2"/>
-        <v>6.6266440099084344E-3</v>
-      </c>
-      <c r="F85">
+        <v>6.4719166474576624E-3</v>
+      </c>
+      <c r="F95">
         <f t="shared" si="2"/>
-        <v>5.7085562722763933E-3</v>
-      </c>
-      <c r="G85">
+        <v>5.4653987508217899E-3</v>
+      </c>
+      <c r="G95">
         <f t="shared" si="2"/>
-        <v>5.5275284644949315E-3</v>
-      </c>
-      <c r="H85">
+        <v>5.3800038419552255E-3</v>
+      </c>
+      <c r="H95">
         <f t="shared" si="2"/>
-        <v>5.0997418205571219E-3</v>
-      </c>
-      <c r="I85">
+        <v>4.9354431113310419E-3</v>
+      </c>
+      <c r="I95">
         <f t="shared" si="2"/>
-        <v>5.523358094807293E-3</v>
-      </c>
-      <c r="J85">
+        <v>5.2646353285905048E-3</v>
+      </c>
+      <c r="J95">
         <f t="shared" si="2"/>
-        <v>5.3470141667349893E-3</v>
-      </c>
-      <c r="K85">
+        <v>5.1800147642910499E-3</v>
+      </c>
+      <c r="K95">
         <f t="shared" si="2"/>
-        <v>4.7365926887541427E-3</v>
-      </c>
-      <c r="L85">
+        <v>4.5737383629821165E-3</v>
+      </c>
+      <c r="L95">
         <f t="shared" si="2"/>
-        <v>3.9015365240610391E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+        <v>3.8081686227879729E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B86">
-        <f>B85*1.96</f>
-        <v>5.0867264538225201E-3</v>
-      </c>
-      <c r="C86">
-        <f t="shared" ref="C86:L86" si="3">C85*1.96</f>
-        <v>8.7406024520308816E-3</v>
-      </c>
-      <c r="D86">
+      <c r="B96">
+        <f>B95*1.96</f>
+        <v>4.8723546611058469E-3</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ref="C96:L96" si="3">C95*1.96</f>
+        <v>8.5393932305612482E-3</v>
+      </c>
+      <c r="D96">
         <f t="shared" si="3"/>
-        <v>5.9880674182903795E-3</v>
-      </c>
-      <c r="E86">
+        <v>5.799402206355264E-3</v>
+      </c>
+      <c r="E96">
         <f t="shared" si="3"/>
-        <v>1.2988222259420531E-2</v>
-      </c>
-      <c r="F86">
+        <v>1.2684956629017018E-2</v>
+      </c>
+      <c r="F96">
         <f t="shared" si="3"/>
-        <v>1.1188770293661731E-2</v>
-      </c>
-      <c r="G86">
+        <v>1.0712181551610708E-2</v>
+      </c>
+      <c r="G96">
         <f t="shared" si="3"/>
-        <v>1.0833955790410065E-2</v>
-      </c>
-      <c r="H86">
+        <v>1.0544807530232242E-2</v>
+      </c>
+      <c r="H96">
         <f t="shared" si="3"/>
-        <v>9.9954939682919582E-3</v>
-      </c>
-      <c r="I86">
+        <v>9.6734684982088415E-3</v>
+      </c>
+      <c r="I96">
         <f t="shared" si="3"/>
-        <v>1.0825781865822294E-2</v>
-      </c>
-      <c r="J86">
+        <v>1.0318685244037389E-2</v>
+      </c>
+      <c r="J96">
         <f t="shared" si="3"/>
-        <v>1.0480147766800578E-2</v>
-      </c>
-      <c r="K86">
+        <v>1.0152828938010458E-2</v>
+      </c>
+      <c r="K96">
         <f t="shared" si="3"/>
-        <v>9.2837216699581202E-3</v>
-      </c>
-      <c r="L86">
+        <v>8.9645271914449483E-3</v>
+      </c>
+      <c r="L96">
         <f t="shared" si="3"/>
-        <v>7.6470115871596364E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+        <v>7.4640105006644267E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B87">
-        <f>B83+B86</f>
-        <v>3.2277679267431247E-2</v>
-      </c>
-      <c r="C87">
-        <f t="shared" ref="C87:L87" si="4">C83+C86</f>
-        <v>5.2932547271162866E-2</v>
-      </c>
-      <c r="D87">
+      <c r="B97">
+        <f>B93+B96</f>
+        <v>3.1475082698153765E-2</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ref="C97:L97" si="4">C93+C96</f>
+        <v>4.9227119221338773E-2</v>
+      </c>
+      <c r="D97">
         <f t="shared" si="4"/>
-        <v>4.1679516234660728E-2</v>
-      </c>
-      <c r="E87">
+        <v>3.9444629220267972E-2</v>
+      </c>
+      <c r="E97">
         <f t="shared" si="4"/>
-        <v>7.7474038163673417E-2</v>
-      </c>
-      <c r="F87">
+        <v>7.5191994955215641E-2</v>
+      </c>
+      <c r="F97">
         <f t="shared" si="4"/>
-        <v>4.9469926213838597E-2</v>
-      </c>
-      <c r="G87">
+        <v>4.7409666290784594E-2</v>
+      </c>
+      <c r="G97">
         <f t="shared" si="4"/>
-        <v>6.6856485692513151E-2</v>
-      </c>
-      <c r="H87">
+        <v>6.4269604184946955E-2</v>
+      </c>
+      <c r="H97">
         <f t="shared" si="4"/>
-        <v>4.3058963889017463E-2</v>
-      </c>
-      <c r="I87">
+        <v>4.217948111623377E-2</v>
+      </c>
+      <c r="I97">
         <f t="shared" si="4"/>
-        <v>1.3415488969628804E-2</v>
-      </c>
-      <c r="J87">
+        <v>1.3370942969298569E-2</v>
+      </c>
+      <c r="J97">
         <f t="shared" si="4"/>
-        <v>7.8521688711557444E-3</v>
-      </c>
-      <c r="K87">
+        <v>9.0136145421226901E-3</v>
+      </c>
+      <c r="K97">
         <f t="shared" si="4"/>
-        <v>3.5488381654034139E-2</v>
-      </c>
-      <c r="L87">
+        <v>3.477408077846969E-2</v>
+      </c>
+      <c r="L97">
         <f t="shared" si="4"/>
-        <v>3.0606071568537216E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+        <v>2.8682794537354214E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B88">
-        <f>B83-B86</f>
-        <v>2.2104226359786205E-2</v>
-      </c>
-      <c r="C88">
-        <f t="shared" ref="C88:L88" si="5">C83-C86</f>
-        <v>3.5451342367101096E-2</v>
-      </c>
-      <c r="D88">
+      <c r="B98">
+        <f>B93-B96</f>
+        <v>2.173037337594207E-2</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ref="C98:L98" si="5">C93-C96</f>
+        <v>3.2148332760216274E-2</v>
+      </c>
+      <c r="D98">
         <f t="shared" si="5"/>
-        <v>2.9703381398079966E-2</v>
-      </c>
-      <c r="E88">
+        <v>2.7845824807557446E-2</v>
+      </c>
+      <c r="E98">
         <f t="shared" si="5"/>
-        <v>5.1497593644832348E-2</v>
-      </c>
-      <c r="F88">
+        <v>4.9822081697181608E-2</v>
+      </c>
+      <c r="F98">
         <f t="shared" si="5"/>
-        <v>2.7092385626515132E-2</v>
-      </c>
-      <c r="G88">
+        <v>2.5985303187563175E-2</v>
+      </c>
+      <c r="G98">
         <f t="shared" si="5"/>
-        <v>4.5188574111693018E-2</v>
-      </c>
-      <c r="H88">
+        <v>4.3179989124482468E-2</v>
+      </c>
+      <c r="H98">
         <f t="shared" si="5"/>
-        <v>2.3067975952433543E-2</v>
-      </c>
-      <c r="I88">
+        <v>2.2832544119816091E-2</v>
+      </c>
+      <c r="I98">
         <f t="shared" si="5"/>
-        <v>-8.2360747620157833E-3</v>
-      </c>
-      <c r="J88">
+        <v>-7.2664275187762084E-3</v>
+      </c>
+      <c r="J98">
         <f t="shared" si="5"/>
-        <v>-1.3108126662445412E-2</v>
-      </c>
-      <c r="K88">
+        <v>-1.1292043333898227E-2</v>
+      </c>
+      <c r="K98">
         <f t="shared" si="5"/>
-        <v>1.6920938314117895E-2</v>
-      </c>
-      <c r="L88">
+        <v>1.684502639557979E-2</v>
+      </c>
+      <c r="L98">
         <f t="shared" si="5"/>
-        <v>1.5312048394217945E-2</v>
+        <v>1.3754773536025361E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4399,11 +4779,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83:L85"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7310,486 +7690,866 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>604.59375</v>
+        <v>668.563829787234</v>
       </c>
       <c r="C77">
-        <v>829.01086956521704</v>
+        <v>688.91397849462396</v>
       </c>
       <c r="D77">
-        <v>716.80230978260897</v>
+        <v>678.73890414092898</v>
       </c>
       <c r="E77">
-        <v>1728.75</v>
+        <v>1462.56896551724</v>
       </c>
       <c r="F77">
-        <v>1284.8181818181799</v>
+        <v>1336.30357142857</v>
       </c>
       <c r="G77">
-        <v>1979.03773584906</v>
+        <v>1673.4912280701801</v>
       </c>
       <c r="H77">
-        <v>1430.0909090909099</v>
+        <v>1353.9649122807</v>
       </c>
       <c r="I77">
-        <v>568.01587203557301</v>
+        <v>657.56466728764303</v>
       </c>
       <c r="J77">
-        <v>713.28859930830004</v>
+        <v>675.22600813977294</v>
       </c>
       <c r="K77">
-        <v>443.93181818181802</v>
+        <v>126.26539408867001</v>
       </c>
       <c r="L77">
-        <v>548.94682675814795</v>
+        <v>319.52631578947398</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>598.95744680851101</v>
+        <v>610.45833333333303</v>
       </c>
       <c r="C78">
-        <v>671.43478260869597</v>
+        <v>639.01063829787199</v>
       </c>
       <c r="D78">
-        <v>635.19611470860298</v>
+        <v>624.73448581560297</v>
       </c>
       <c r="E78">
-        <v>1351.70909090909</v>
+        <v>1321.0357142857099</v>
       </c>
       <c r="F78">
-        <v>1328.9814814814799</v>
+        <v>1274.1803278688501</v>
       </c>
       <c r="G78">
-        <v>1347.07142857143</v>
+        <v>1174.8727272727299</v>
       </c>
       <c r="H78">
-        <v>1146.72727272727</v>
+        <v>1203.6071428571399</v>
       </c>
       <c r="I78">
-        <v>693.78536677287798</v>
+        <v>649.44584205324998</v>
       </c>
       <c r="J78">
-        <v>511.53115801867</v>
+        <v>578.87265704154004</v>
       </c>
       <c r="K78">
-        <v>22.727609427609401</v>
+        <v>46.855386416861798</v>
       </c>
       <c r="L78">
-        <v>200.34415584415601</v>
+        <v>-28.7344155844157</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>587.91208791208805</v>
+        <v>604.59375</v>
       </c>
       <c r="C79">
-        <v>605.18478260869597</v>
+        <v>829.01086956521704</v>
       </c>
       <c r="D79">
-        <v>596.54843526039201</v>
+        <v>716.80230978260897</v>
       </c>
       <c r="E79">
-        <v>1152.75925925926</v>
+        <v>1728.75</v>
       </c>
       <c r="F79">
-        <v>786.76363636363601</v>
+        <v>1284.8181818181799</v>
       </c>
       <c r="G79">
-        <v>1297.82142857143</v>
+        <v>1979.03773584906</v>
       </c>
       <c r="H79">
-        <v>1063.93103448276</v>
+        <v>1430.0909090909099</v>
       </c>
       <c r="I79">
-        <v>190.21520110324499</v>
+        <v>568.01587203557301</v>
       </c>
       <c r="J79">
-        <v>467.38259922236699</v>
+        <v>713.28859930830004</v>
       </c>
       <c r="K79">
-        <v>365.995622895623</v>
+        <v>443.93181818181802</v>
       </c>
       <c r="L79">
-        <v>233.89039408867001</v>
+        <v>548.94682675814795</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>472.94791666666703</v>
+        <v>598.95744680851101</v>
       </c>
       <c r="C80">
-        <v>590.67021276595699</v>
+        <v>671.43478260869597</v>
       </c>
       <c r="D80">
-        <v>531.80906471631204</v>
+        <v>635.19611470860298</v>
       </c>
       <c r="E80">
-        <v>1403.5178571428601</v>
+        <v>1351.70909090909</v>
       </c>
       <c r="F80">
-        <v>1321.3220338983101</v>
+        <v>1328.9814814814799</v>
       </c>
       <c r="G80">
-        <v>1234.9666666666701</v>
+        <v>1347.07142857143</v>
       </c>
       <c r="H80">
-        <v>1170.3392857142901</v>
+        <v>1146.72727272727</v>
       </c>
       <c r="I80">
-        <v>789.51296918199296</v>
+        <v>693.78536677287798</v>
       </c>
       <c r="J80">
-        <v>638.53022099797397</v>
+        <v>511.53115801867</v>
       </c>
       <c r="K80">
-        <v>82.195823244552003</v>
+        <v>22.727609427609401</v>
       </c>
       <c r="L80">
-        <v>64.627380952380904</v>
+        <v>200.34415584415601</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
+        <v>90</v>
+      </c>
+      <c r="B81">
+        <v>587.91208791208805</v>
+      </c>
+      <c r="C81">
+        <v>605.18478260869597</v>
+      </c>
+      <c r="D81">
+        <v>596.54843526039201</v>
+      </c>
+      <c r="E81">
+        <v>1152.75925925926</v>
+      </c>
+      <c r="F81">
+        <v>786.76363636363601</v>
+      </c>
+      <c r="G81">
+        <v>1297.82142857143</v>
+      </c>
+      <c r="H81">
+        <v>1063.93103448276</v>
+      </c>
+      <c r="I81">
+        <v>190.21520110324499</v>
+      </c>
+      <c r="J81">
+        <v>467.38259922236699</v>
+      </c>
+      <c r="K81">
+        <v>365.995622895623</v>
+      </c>
+      <c r="L81">
+        <v>233.89039408867001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>91</v>
+      </c>
+      <c r="B82">
+        <v>472.94791666666703</v>
+      </c>
+      <c r="C82">
+        <v>590.67021276595699</v>
+      </c>
+      <c r="D82">
+        <v>531.80906471631204</v>
+      </c>
+      <c r="E82">
+        <v>1403.5178571428601</v>
+      </c>
+      <c r="F82">
+        <v>1321.3220338983101</v>
+      </c>
+      <c r="G82">
+        <v>1234.9666666666701</v>
+      </c>
+      <c r="H82">
+        <v>1170.3392857142901</v>
+      </c>
+      <c r="I82">
+        <v>789.51296918199296</v>
+      </c>
+      <c r="J82">
+        <v>638.53022099797397</v>
+      </c>
+      <c r="K82">
+        <v>82.195823244552003</v>
+      </c>
+      <c r="L82">
+        <v>64.627380952380904</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>92</v>
       </c>
-      <c r="B81">
+      <c r="B83">
         <v>521.78888888888901</v>
       </c>
-      <c r="C81">
+      <c r="C83">
         <v>520.35869565217399</v>
       </c>
-      <c r="D81">
+      <c r="D83">
         <v>521.07379227053104</v>
       </c>
-      <c r="E81">
+      <c r="E83">
         <v>1110.7719298245599</v>
       </c>
-      <c r="F81">
+      <c r="F83">
         <v>948.23728813559296</v>
       </c>
-      <c r="G81">
+      <c r="G83">
         <v>1125.03636363636</v>
       </c>
-      <c r="H81">
+      <c r="H83">
         <v>961.79661016949103</v>
       </c>
-      <c r="I81">
+      <c r="I83">
         <v>427.16349586506198</v>
       </c>
-      <c r="J81">
+      <c r="J83">
         <v>440.72281789895999</v>
       </c>
-      <c r="K81">
+      <c r="K83">
         <v>162.53464168896801</v>
       </c>
-      <c r="L81">
+      <c r="L83">
         <v>163.239753466872</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>93</v>
+      </c>
+      <c r="B84">
+        <v>522.659574468085</v>
+      </c>
+      <c r="C84">
+        <v>584.48936170212801</v>
+      </c>
+      <c r="D84">
+        <v>553.57446808510599</v>
+      </c>
+      <c r="E84">
+        <v>1022.07142857143</v>
+      </c>
+      <c r="F84">
+        <v>987.41379310344803</v>
+      </c>
+      <c r="G84">
+        <v>1008.68421052632</v>
+      </c>
+      <c r="H84">
+        <v>1005.33333333333</v>
+      </c>
+      <c r="I84">
+        <v>433.83932501834198</v>
+      </c>
+      <c r="J84">
+        <v>451.75886524822698</v>
+      </c>
+      <c r="K84">
+        <v>34.657635467980299</v>
+      </c>
+      <c r="L84">
+        <v>3.3508771929824701</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>94</v>
+      </c>
+      <c r="B85">
+        <v>891.29787234042601</v>
+      </c>
+      <c r="C85">
+        <v>1024.36263736264</v>
+      </c>
+      <c r="D85">
+        <v>957.83025485153098</v>
+      </c>
+      <c r="E85">
+        <v>1354.44642857143</v>
+      </c>
+      <c r="F85">
+        <v>1500.08620689655</v>
+      </c>
+      <c r="G85">
+        <v>1450.14754098361</v>
+      </c>
+      <c r="H85">
+        <v>1387.12280701754</v>
+      </c>
+      <c r="I85">
+        <v>542.25595204501997</v>
+      </c>
+      <c r="J85">
+        <v>429.292552166012</v>
+      </c>
+      <c r="K85">
+        <v>-145.63977832512299</v>
+      </c>
+      <c r="L85">
+        <v>63.024733966062698</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>97</v>
+      </c>
+      <c r="B86">
+        <v>443.78494623655899</v>
+      </c>
+      <c r="C86">
+        <v>484.64516129032302</v>
+      </c>
+      <c r="D86">
+        <v>464.21505376344101</v>
+      </c>
+      <c r="E86">
+        <v>1173.5818181818199</v>
+      </c>
+      <c r="F86">
+        <v>1220.5084745762699</v>
+      </c>
+      <c r="G86">
+        <v>1262.18644067797</v>
+      </c>
+      <c r="H86">
+        <v>1175.6206896551701</v>
+      </c>
+      <c r="I86">
+        <v>756.29342081283005</v>
+      </c>
+      <c r="J86">
+        <v>711.40563589173098</v>
+      </c>
+      <c r="K86">
+        <v>-46.926656394453197</v>
+      </c>
+      <c r="L86">
+        <v>86.565751022793805</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>98</v>
+      </c>
+      <c r="B87">
+        <v>639.462365591398</v>
+      </c>
+      <c r="C87">
+        <v>620.26595744680901</v>
+      </c>
+      <c r="D87">
+        <v>629.86416151910305</v>
+      </c>
+      <c r="E87">
+        <v>1016.53703703704</v>
+      </c>
+      <c r="F87">
+        <v>916.42857142857099</v>
+      </c>
+      <c r="G87">
+        <v>1149.08771929825</v>
+      </c>
+      <c r="H87">
+        <v>949.625</v>
+      </c>
+      <c r="I87">
+        <v>286.564409909468</v>
+      </c>
+      <c r="J87">
+        <v>319.76083848089701</v>
+      </c>
+      <c r="K87">
+        <v>100.10846560846601</v>
+      </c>
+      <c r="L87">
+        <v>199.46271929824599</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>99</v>
+      </c>
+      <c r="B88">
+        <v>868.04301075268802</v>
+      </c>
+      <c r="C88">
+        <v>874.95744680851101</v>
+      </c>
+      <c r="D88">
+        <v>871.50022878059895</v>
+      </c>
+      <c r="E88">
+        <v>1757.6896551724101</v>
+      </c>
+      <c r="F88">
+        <v>1373.9152542372899</v>
+      </c>
+      <c r="G88">
+        <v>1819</v>
+      </c>
+      <c r="H88">
+        <v>1360.44642857143</v>
+      </c>
+      <c r="I88">
+        <v>502.41502545668902</v>
+      </c>
+      <c r="J88">
+        <v>488.94619979082898</v>
+      </c>
+      <c r="K88">
+        <v>383.77440093512598</v>
+      </c>
+      <c r="L88">
+        <v>458.55357142857099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>100</v>
+      </c>
+      <c r="B89">
+        <v>531.51578947368398</v>
+      </c>
+      <c r="C89">
+        <v>557.18279569892502</v>
+      </c>
+      <c r="D89">
+        <v>544.34929258630495</v>
+      </c>
+      <c r="E89">
+        <v>1107.7037037037001</v>
+      </c>
+      <c r="F89">
+        <v>1005.25862068966</v>
+      </c>
+      <c r="G89">
+        <v>1267.2678571428601</v>
+      </c>
+      <c r="H89">
+        <v>958.55172413793105</v>
+      </c>
+      <c r="I89">
+        <v>460.90932810335102</v>
+      </c>
+      <c r="J89">
+        <v>414.202431551627</v>
+      </c>
+      <c r="K89">
+        <v>102.445083014049</v>
+      </c>
+      <c r="L89">
+        <v>308.71613300492601</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>101</v>
+      </c>
+      <c r="B90">
+        <v>706.468085106383</v>
+      </c>
+      <c r="C90">
+        <v>895.07608695652198</v>
+      </c>
+      <c r="D90">
+        <v>800.77208603145198</v>
+      </c>
+      <c r="E90">
+        <v>1283.5</v>
+      </c>
+      <c r="F90">
+        <v>1172.42857142857</v>
+      </c>
+      <c r="G90">
+        <v>1221.8620689655199</v>
+      </c>
+      <c r="H90">
+        <v>1201.2777777777801</v>
+      </c>
+      <c r="I90">
+        <v>371.65648539711901</v>
+      </c>
+      <c r="J90">
+        <v>400.50569174632602</v>
+      </c>
+      <c r="K90">
+        <v>111.071428571429</v>
+      </c>
+      <c r="L90">
+        <v>20.584291187739399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>102</v>
+      </c>
+      <c r="B91">
+        <v>567.01086956521704</v>
+      </c>
+      <c r="C91">
+        <v>605.58947368421002</v>
+      </c>
+      <c r="D91">
+        <v>586.30017162471404</v>
+      </c>
+      <c r="E91">
+        <v>1293.0204081632701</v>
+      </c>
+      <c r="F91">
+        <v>1448.05660377358</v>
+      </c>
+      <c r="G91">
+        <v>1304.25925925926</v>
+      </c>
+      <c r="H91">
+        <v>1360.8235294117601</v>
+      </c>
+      <c r="I91">
+        <v>861.756432148871</v>
+      </c>
+      <c r="J91">
+        <v>774.52335778705105</v>
+      </c>
+      <c r="K91">
+        <v>-155.03619561031999</v>
+      </c>
+      <c r="L91">
+        <v>-56.564270152505301</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B83">
-        <f>AVERAGE(B2:B81)</f>
-        <v>648.4289801458774</v>
-      </c>
-      <c r="C83">
-        <f t="shared" ref="C83:L83" si="0">AVERAGE(C2:C81)</f>
-        <v>712.47990443702201</v>
-      </c>
-      <c r="D83">
+      <c r="B93">
+        <f>AVERAGE(B2:B91)</f>
+        <v>648.03981209250207</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ref="C93:L93" si="0">AVERAGE(C2:C91)</f>
+        <v>710.8098432522703</v>
+      </c>
+      <c r="D93">
         <f t="shared" si="0"/>
-        <v>680.45444229144914</v>
-      </c>
-      <c r="E83">
+        <v>679.42482767238573</v>
+      </c>
+      <c r="E93">
         <f t="shared" si="0"/>
-        <v>1419.4555506342815</v>
-      </c>
-      <c r="F83">
+        <v>1403.8733245549618</v>
+      </c>
+      <c r="F93">
         <f t="shared" si="0"/>
-        <v>1346.9750684401849</v>
-      </c>
-      <c r="G83">
+        <v>1333.2509496738462</v>
+      </c>
+      <c r="G93">
         <f t="shared" si="0"/>
-        <v>1442.9139389411507</v>
-      </c>
-      <c r="H83">
+        <v>1430.7108240832081</v>
+      </c>
+      <c r="H93">
         <f t="shared" si="0"/>
-        <v>1255.0974103709891</v>
-      </c>
-      <c r="I83">
+        <v>1248.4907352746882</v>
+      </c>
+      <c r="I93">
         <f t="shared" si="0"/>
-        <v>666.52062614873546</v>
-      </c>
-      <c r="J83">
+        <v>653.82612200146036</v>
+      </c>
+      <c r="J93">
         <f t="shared" si="0"/>
-        <v>574.64296807953929</v>
-      </c>
-      <c r="K83">
+        <v>569.06590760230188</v>
+      </c>
+      <c r="K93">
         <f t="shared" si="0"/>
-        <v>72.480482194096936</v>
-      </c>
-      <c r="L83">
+        <v>70.622374881116002</v>
+      </c>
+      <c r="L93">
         <f t="shared" si="0"/>
-        <v>187.81652857016186</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+        <v>182.22008880852025</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B84">
-        <f>STDEV(B2:B81)</f>
-        <v>140.00974975619286</v>
-      </c>
-      <c r="C84">
-        <f t="shared" ref="C84:L84" si="1">STDEV(C2:C81)</f>
-        <v>172.64502515374915</v>
-      </c>
-      <c r="D84">
+      <c r="B94">
+        <f>STDEV(B2:B91)</f>
+        <v>139.78749962862523</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ref="C94:L94" si="1">STDEV(C2:C91)</f>
+        <v>171.89452321159172</v>
+      </c>
+      <c r="D94">
         <f t="shared" si="1"/>
-        <v>147.82163320342221</v>
-      </c>
-      <c r="E84">
+        <v>148.01985201458402</v>
+      </c>
+      <c r="E94">
         <f t="shared" si="1"/>
-        <v>304.03121204835861</v>
-      </c>
-      <c r="F84">
+        <v>298.3673701434185</v>
+      </c>
+      <c r="F94">
         <f t="shared" si="1"/>
-        <v>320.97861057676528</v>
-      </c>
-      <c r="G84">
+        <v>311.57243122080035</v>
+      </c>
+      <c r="G94">
         <f t="shared" si="1"/>
-        <v>358.54091761309121</v>
-      </c>
-      <c r="H84">
+        <v>348.59542394104676</v>
+      </c>
+      <c r="H94">
         <f t="shared" si="1"/>
-        <v>290.87927259728792</v>
-      </c>
-      <c r="I84">
+        <v>280.15449410333468</v>
+      </c>
+      <c r="I94">
         <f t="shared" si="1"/>
-        <v>247.31027934290694</v>
-      </c>
-      <c r="J84">
+        <v>242.50500977174872</v>
+      </c>
+      <c r="J94">
         <f t="shared" si="1"/>
-        <v>217.28837872546183</v>
-      </c>
-      <c r="K84">
+        <v>210.95070176486999</v>
+      </c>
+      <c r="K94">
         <f t="shared" si="1"/>
-        <v>165.13124714011818</v>
-      </c>
-      <c r="L84">
+        <v>163.27133177483844</v>
+      </c>
+      <c r="L94">
         <f t="shared" si="1"/>
-        <v>148.64141670425931</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+        <v>151.48931567822899</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B85">
-        <f>B84/(SQRT(80))</f>
-        <v>15.653565898379091</v>
-      </c>
-      <c r="C85">
-        <f t="shared" ref="C85:L85" si="2">C84/(SQRT(80))</f>
-        <v>19.302300611047208</v>
-      </c>
-      <c r="D85">
+      <c r="B95">
+        <f>B94/(SQRT(80))</f>
+        <v>15.62871757871663</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ref="C95:L95" si="2">C94/(SQRT(80))</f>
+        <v>19.218391943051728</v>
+      </c>
+      <c r="D95">
         <f t="shared" si="2"/>
-        <v>16.526961019394601</v>
-      </c>
-      <c r="E85">
+        <v>16.549122556203454</v>
+      </c>
+      <c r="E95">
         <f t="shared" si="2"/>
-        <v>33.991722871089145</v>
-      </c>
-      <c r="F85">
+        <v>33.358486095426244</v>
+      </c>
+      <c r="F95">
         <f t="shared" si="2"/>
-        <v>35.886499628654008</v>
-      </c>
-      <c r="G85">
+        <v>34.834856806229368</v>
+      </c>
+      <c r="G95">
         <f t="shared" si="2"/>
-        <v>40.086093224901177</v>
-      </c>
-      <c r="H85">
+        <v>38.974153228876908</v>
+      </c>
+      <c r="H95">
         <f t="shared" si="2"/>
-        <v>32.521291338661378</v>
-      </c>
-      <c r="I85">
+        <v>31.322224650856015</v>
+      </c>
+      <c r="I95">
         <f t="shared" si="2"/>
-        <v>27.650129807260097</v>
-      </c>
-      <c r="J85">
+        <v>27.112884336694044</v>
+      </c>
+      <c r="J95">
         <f t="shared" si="2"/>
-        <v>24.293579277542587</v>
-      </c>
-      <c r="K85">
+        <v>23.585005452376706</v>
+      </c>
+      <c r="K95">
         <f t="shared" si="2"/>
-        <v>18.462234690731098</v>
-      </c>
-      <c r="L85">
+        <v>18.254289831273006</v>
+      </c>
+      <c r="L95">
         <f t="shared" si="2"/>
-        <v>16.618615601129829</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+        <v>16.937020386072234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B86">
-        <f>B85*1.96</f>
-        <v>30.680989160823017</v>
-      </c>
-      <c r="C86">
-        <f t="shared" ref="C86:L86" si="3">C85*1.96</f>
-        <v>37.832509197652527</v>
-      </c>
-      <c r="D86">
+      <c r="B96">
+        <f>B95*1.96</f>
+        <v>30.632286454284596</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ref="C96:L96" si="3">C95*1.96</f>
+        <v>37.668048208381386</v>
+      </c>
+      <c r="D96">
         <f t="shared" si="3"/>
-        <v>32.392843598013421</v>
-      </c>
-      <c r="E86">
+        <v>32.43628021015877</v>
+      </c>
+      <c r="E96">
         <f t="shared" si="3"/>
-        <v>66.623776827334723</v>
-      </c>
-      <c r="F86">
+        <v>65.38263274703543</v>
+      </c>
+      <c r="F96">
         <f t="shared" si="3"/>
-        <v>70.337539272161848</v>
-      </c>
-      <c r="G86">
+        <v>68.276319340209554</v>
+      </c>
+      <c r="G96">
         <f t="shared" si="3"/>
-        <v>78.568742720806299</v>
-      </c>
-      <c r="H86">
+        <v>76.389340328598735</v>
+      </c>
+      <c r="H96">
         <f t="shared" si="3"/>
-        <v>63.741731023776296</v>
-      </c>
-      <c r="I86">
+        <v>61.391560315677786</v>
+      </c>
+      <c r="I96">
         <f t="shared" si="3"/>
-        <v>54.19425442222979</v>
-      </c>
-      <c r="J86">
+        <v>53.141253299920329</v>
+      </c>
+      <c r="J96">
         <f t="shared" si="3"/>
-        <v>47.615415383983468</v>
-      </c>
-      <c r="K86">
+        <v>46.22661068665834</v>
+      </c>
+      <c r="K96">
         <f t="shared" si="3"/>
-        <v>36.185979993832952</v>
-      </c>
-      <c r="L86">
+        <v>35.778408069295089</v>
+      </c>
+      <c r="L96">
         <f t="shared" si="3"/>
-        <v>32.572486578214466</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+        <v>33.196559956701577</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B87">
-        <f>B83+B86</f>
-        <v>679.10996930670046</v>
-      </c>
-      <c r="C87">
-        <f t="shared" ref="C87:L87" si="4">C83+C86</f>
-        <v>750.3124136346745</v>
-      </c>
-      <c r="D87">
+      <c r="B97">
+        <f>B93+B96</f>
+        <v>678.67209854678663</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ref="C97:L97" si="4">C93+C96</f>
+        <v>748.47789146065168</v>
+      </c>
+      <c r="D97">
         <f t="shared" si="4"/>
-        <v>712.84728588946257</v>
-      </c>
-      <c r="E87">
+        <v>711.8611078825445</v>
+      </c>
+      <c r="E97">
         <f t="shared" si="4"/>
-        <v>1486.0793274616162</v>
-      </c>
-      <c r="F87">
+        <v>1469.2559573019971</v>
+      </c>
+      <c r="F97">
         <f t="shared" si="4"/>
-        <v>1417.3126077123468</v>
-      </c>
-      <c r="G87">
+        <v>1401.5272690140557</v>
+      </c>
+      <c r="G97">
         <f t="shared" si="4"/>
-        <v>1521.482681661957</v>
-      </c>
-      <c r="H87">
+        <v>1507.1001644118069</v>
+      </c>
+      <c r="H97">
         <f t="shared" si="4"/>
-        <v>1318.8391413947654</v>
-      </c>
-      <c r="I87">
+        <v>1309.8822955903659</v>
+      </c>
+      <c r="I97">
         <f t="shared" si="4"/>
-        <v>720.71488057096531</v>
-      </c>
-      <c r="J87">
+        <v>706.96737530138068</v>
+      </c>
+      <c r="J97">
         <f t="shared" si="4"/>
-        <v>622.2583834635227</v>
-      </c>
-      <c r="K87">
+        <v>615.2925182889602</v>
+      </c>
+      <c r="K97">
         <f t="shared" si="4"/>
-        <v>108.66646218792988</v>
-      </c>
-      <c r="L87">
+        <v>106.4007829504111</v>
+      </c>
+      <c r="L97">
         <f t="shared" si="4"/>
-        <v>220.38901514837633</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+        <v>215.41664876522182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B88">
-        <f>B83-B86</f>
-        <v>617.74799098505434</v>
-      </c>
-      <c r="C88">
-        <f t="shared" ref="C88:L88" si="5">C83-C86</f>
-        <v>674.64739523936953</v>
-      </c>
-      <c r="D88">
+      <c r="B98">
+        <f>B93-B96</f>
+        <v>617.40752563821752</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ref="C98:L98" si="5">C93-C96</f>
+        <v>673.14179504388892</v>
+      </c>
+      <c r="D98">
         <f t="shared" si="5"/>
-        <v>648.06159869343571</v>
-      </c>
-      <c r="E88">
+        <v>646.98854746222696</v>
+      </c>
+      <c r="E98">
         <f t="shared" si="5"/>
-        <v>1352.8317738069468</v>
-      </c>
-      <c r="F88">
+        <v>1338.4906918079264</v>
+      </c>
+      <c r="F98">
         <f t="shared" si="5"/>
-        <v>1276.6375291680231</v>
-      </c>
-      <c r="G88">
+        <v>1264.9746303336367</v>
+      </c>
+      <c r="G98">
         <f t="shared" si="5"/>
-        <v>1364.3451962203444</v>
-      </c>
-      <c r="H88">
+        <v>1354.3214837546093</v>
+      </c>
+      <c r="H98">
         <f t="shared" si="5"/>
-        <v>1191.3556793472128</v>
-      </c>
-      <c r="I88">
+        <v>1187.0991749590105</v>
+      </c>
+      <c r="I98">
         <f t="shared" si="5"/>
-        <v>612.32637172650561</v>
-      </c>
-      <c r="J88">
+        <v>600.68486870154004</v>
+      </c>
+      <c r="J98">
         <f t="shared" si="5"/>
-        <v>527.02755269555587</v>
-      </c>
-      <c r="K88">
+        <v>522.83929691564356</v>
+      </c>
+      <c r="K98">
         <f t="shared" si="5"/>
-        <v>36.294502200263985</v>
-      </c>
-      <c r="L88">
+        <v>34.843966811820913</v>
+      </c>
+      <c r="L98">
         <f t="shared" si="5"/>
-        <v>155.2440419919474</v>
+        <v>149.02352885181867</v>
       </c>
     </row>
   </sheetData>
@@ -10663,47 +11423,47 @@
         <v>12</v>
       </c>
       <c r="B78">
-        <f>AVERAGE(B1:B76)</f>
+        <f t="shared" ref="B78:L78" si="0">AVERAGE(B1:B76)</f>
         <v>-0.64498199979168269</v>
       </c>
       <c r="C78">
-        <f>AVERAGE(C1:C76)</f>
+        <f t="shared" si="0"/>
         <v>-0.55565747846290203</v>
       </c>
       <c r="D78">
-        <f>AVERAGE(D1:D76)</f>
+        <f t="shared" si="0"/>
         <v>-0.60031973912729231</v>
       </c>
       <c r="E78">
-        <f>AVERAGE(E1:E76)</f>
+        <f t="shared" si="0"/>
         <v>0.43756104540243879</v>
       </c>
       <c r="F78">
-        <f>AVERAGE(F1:F76)</f>
+        <f t="shared" si="0"/>
         <v>0.32129597611633176</v>
       </c>
       <c r="G78">
-        <f>AVERAGE(G1:G76)</f>
+        <f t="shared" si="0"/>
         <v>0.45619230162818208</v>
       </c>
       <c r="H78">
-        <f>AVERAGE(H1:H76)</f>
+        <f t="shared" si="0"/>
         <v>0.19915612866182525</v>
       </c>
       <c r="I78">
-        <f>AVERAGE(I1:I76)</f>
+        <f t="shared" si="0"/>
         <v>0.92161571524362351</v>
       </c>
       <c r="J78">
-        <f>AVERAGE(J1:J76)</f>
+        <f t="shared" si="0"/>
         <v>0.79947586778911772</v>
       </c>
       <c r="K78">
-        <f>AVERAGE(K1:K76)</f>
+        <f t="shared" si="0"/>
         <v>0.11626506928610694</v>
       </c>
       <c r="L78">
-        <f>AVERAGE(L1:L76)</f>
+        <f t="shared" si="0"/>
         <v>0.25703617296635672</v>
       </c>
     </row>
@@ -10712,47 +11472,47 @@
         <v>13</v>
       </c>
       <c r="B79">
-        <f>STDEV(B1:B76)</f>
+        <f t="shared" ref="B79:L79" si="1">STDEV(B1:B76)</f>
         <v>0.14615612118341029</v>
       </c>
       <c r="C79">
-        <f>STDEV(C1:C76)</f>
+        <f t="shared" si="1"/>
         <v>0.15522150065066256</v>
       </c>
       <c r="D79">
-        <f>STDEV(D1:D76)</f>
+        <f t="shared" si="1"/>
         <v>0.13742431556572313</v>
       </c>
       <c r="E79">
-        <f>STDEV(E1:E76)</f>
+        <f t="shared" si="1"/>
         <v>0.19706219192957009</v>
       </c>
       <c r="F79">
-        <f>STDEV(F1:F76)</f>
+        <f t="shared" si="1"/>
         <v>0.22093329045644569</v>
       </c>
       <c r="G79">
-        <f>STDEV(G1:G76)</f>
+        <f t="shared" si="1"/>
         <v>0.23576927211226642</v>
       </c>
       <c r="H79">
-        <f>STDEV(H1:H76)</f>
+        <f t="shared" si="1"/>
         <v>0.1697485109571879</v>
       </c>
       <c r="I79">
-        <f>STDEV(I1:I76)</f>
+        <f t="shared" si="1"/>
         <v>0.31989454401437029</v>
       </c>
       <c r="J79">
-        <f>STDEV(J1:J76)</f>
+        <f t="shared" si="1"/>
         <v>0.27676700681818317</v>
       </c>
       <c r="K79">
-        <f>STDEV(K1:K76)</f>
+        <f t="shared" si="1"/>
         <v>0.21334513429380778</v>
       </c>
       <c r="L79">
-        <f>STDEV(L1:L76)</f>
+        <f t="shared" si="1"/>
         <v>0.19629297496194581</v>
       </c>
     </row>
@@ -10765,43 +11525,43 @@
         <v>1.902790625004951E-2</v>
       </c>
       <c r="C80">
-        <f t="shared" ref="C80:L80" si="0">C79/(SQRT(59))</f>
+        <f t="shared" ref="C80:L80" si="2">C79/(SQRT(59))</f>
         <v>2.0208118130519002E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7891121985786577E-2</v>
       </c>
       <c r="E80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5655312162804828E-2</v>
       </c>
       <c r="F80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8763064483934713E-2</v>
       </c>
       <c r="G80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0694544779037495E-2</v>
       </c>
       <c r="H80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.2099373782132743E-2</v>
       </c>
       <c r="I80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.1646722313938095E-2</v>
       </c>
       <c r="J80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.6031995213081522E-2</v>
       </c>
       <c r="K80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7775170696768454E-2</v>
       </c>
       <c r="L80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5555168643481851E-2</v>
       </c>
     </row>
@@ -10814,43 +11574,43 @@
         <v>3.7294696250097036E-2</v>
       </c>
       <c r="C81">
-        <f t="shared" ref="C81:L81" si="1">C80*1.96</f>
+        <f t="shared" ref="C81:L81" si="3">C80*1.96</f>
         <v>3.9607911535817247E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.5066599092141687E-2</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.0284411839097459E-2</v>
       </c>
       <c r="F81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.6375606388512037E-2</v>
       </c>
       <c r="G81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.0161307766913488E-2</v>
       </c>
       <c r="H81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.3314772612980175E-2</v>
       </c>
       <c r="I81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1627575735318661E-2</v>
       </c>
       <c r="J81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.0622710617639778E-2</v>
       </c>
       <c r="K81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.4439334565666166E-2</v>
       </c>
       <c r="L81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.0088130541224428E-2</v>
       </c>
     </row>
@@ -10863,43 +11623,43 @@
         <v>-0.60768730354158562</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82:L82" si="2">C78+C81</f>
+        <f t="shared" ref="C82:L82" si="4">C78+C81</f>
         <v>-0.51604956692708481</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.56525314003515059</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.48784545724153627</v>
       </c>
       <c r="F82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.37767158250484378</v>
       </c>
       <c r="G82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.51635360939509556</v>
       </c>
       <c r="H82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.24247090127480542</v>
       </c>
       <c r="I82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0032432909789422</v>
       </c>
       <c r="J82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.87009857840675753</v>
       </c>
       <c r="K82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.1707044038517731</v>
       </c>
       <c r="L82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.30712430350758113</v>
       </c>
     </row>
@@ -10912,43 +11672,43 @@
         <v>-0.68227669604177976</v>
       </c>
       <c r="C83">
-        <f t="shared" ref="C83:L83" si="3">C78-C81</f>
+        <f t="shared" ref="C83:L83" si="5">C78-C81</f>
         <v>-0.59526538999871925</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.63538633821943402</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.3872766335633413</v>
       </c>
       <c r="F83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.26492036972781974</v>
       </c>
       <c r="G83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.39603099386126861</v>
       </c>
       <c r="H83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15584135604884508</v>
       </c>
       <c r="I83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.83998813950830487</v>
       </c>
       <c r="J83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.72885315717147792</v>
       </c>
       <c r="K83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.1825734720440777E-2</v>
       </c>
       <c r="L83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.20694804242513229</v>
       </c>
     </row>

--- a/1 YA/2 Analyses/1 ANOVAs/YA Output 10_14.xlsx
+++ b/1 YA/2 Analyses/1 ANOVAs/YA Output 10_14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\CVOE-2021\1 YA\2 Analyses\1 ANOVAs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaxwell\Documents\GitHub\CVOE-2021\1 YA\2 Analyses\1 ANOVAs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE6B654-F52F-4E4C-9144-3A936E7BF07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0084E6F7-F318-4C2F-9190-F769F0146BF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORS" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>subID</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>local_switch_cost_rand_zRT</t>
-  </si>
-  <si>
-    <t>36b</t>
   </si>
 </sst>
 </file>
@@ -998,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,2538 +2234,2462 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>2.1052631578947299E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C33">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="D33">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="E33">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="F33">
         <v>0</v>
       </c>
-      <c r="D33">
-        <v>1.05263157894737E-2</v>
-      </c>
-      <c r="E33">
-        <v>3.5714285714285698E-2</v>
-      </c>
-      <c r="F33">
-        <v>1.6666666666666701E-2</v>
-      </c>
       <c r="G33">
-        <v>1.6666666666666701E-2</v>
+        <v>7.5471698113207503E-2</v>
       </c>
       <c r="H33">
-        <v>3.5087719298245598E-2</v>
+        <v>4.0816326530612297E-2</v>
       </c>
       <c r="I33">
-        <v>6.1403508771930597E-3</v>
+        <v>-8.3333333333333301E-2</v>
       </c>
       <c r="J33">
-        <v>2.4561403508771999E-2</v>
+        <v>-4.2517006802720997E-2</v>
       </c>
       <c r="K33">
-        <v>1.9047619047619001E-2</v>
+        <v>7.1428571428571397E-2</v>
       </c>
       <c r="L33">
-        <v>-1.8421052631578901E-2</v>
+        <v>3.4655371582595199E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>40</v>
+      <c r="A34">
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>6.3157894736842093E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C34">
-        <v>6.3829787234042507E-2</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="D34">
-        <v>6.3493840985442307E-2</v>
+        <v>2.6041666666666699E-2</v>
       </c>
       <c r="E34">
-        <v>5.1724137931034503E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="F34">
-        <v>1.6666666666666701E-2</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>6.5573770491803199E-2</v>
       </c>
       <c r="H34">
-        <v>1.72413793103449E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="I34">
-        <v>-4.6827174318775602E-2</v>
+        <v>-2.6041666666666699E-2</v>
       </c>
       <c r="J34">
-        <v>-4.6252461675097403E-2</v>
+        <v>7.8566384180791E-3</v>
       </c>
       <c r="K34">
-        <v>3.5057471264367798E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="L34">
-        <v>-1.72413793103449E-2</v>
+        <v>3.1675465407057499E-2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>6.25E-2</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="C35">
-        <v>0.104166666666667</v>
+        <v>0.125</v>
       </c>
       <c r="D35">
-        <v>8.3333333333333301E-2</v>
+        <v>0.114583333333333</v>
       </c>
       <c r="E35">
-        <v>7.1428571428571397E-2</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="G35">
-        <v>7.5471698113207503E-2</v>
+        <v>6.5573770491803199E-2</v>
       </c>
       <c r="H35">
-        <v>4.0816326530612297E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="I35">
-        <v>-8.3333333333333301E-2</v>
+        <v>-9.7916666666666596E-2</v>
       </c>
       <c r="J35">
-        <v>-4.2517006802720997E-2</v>
+        <v>-6.3735875706214695E-2</v>
       </c>
       <c r="K35">
-        <v>7.1428571428571397E-2</v>
+        <v>8.5028248587570507E-2</v>
       </c>
       <c r="L35">
-        <v>3.4655371582595199E-2</v>
+        <v>1.47263128646846E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>3.125E-2</v>
+        <v>5.2083333333333398E-2</v>
       </c>
       <c r="C36">
-        <v>2.0833333333333402E-2</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="D36">
-        <v>2.6041666666666699E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="E36">
         <v>5.0847457627118599E-2</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>6.5573770491803199E-2</v>
       </c>
       <c r="G36">
-        <v>6.5573770491803199E-2</v>
+        <v>4.91803278688525E-2</v>
       </c>
       <c r="H36">
-        <v>3.3898305084745797E-2</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="I36">
-        <v>-2.6041666666666699E-2</v>
+        <v>1.8698770491803199E-2</v>
       </c>
       <c r="J36">
-        <v>7.8566384180791E-3</v>
+        <v>-2.9925847457627199E-2</v>
       </c>
       <c r="K36">
-        <v>5.0847457627118599E-2</v>
+        <v>-1.47263128646846E-2</v>
       </c>
       <c r="L36">
-        <v>3.1675465407057499E-2</v>
+        <v>3.2231175326479698E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
-        <v>0.104166666666667</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C37">
-        <v>0.125</v>
+        <v>5.2083333333333398E-2</v>
       </c>
       <c r="D37">
-        <v>0.114583333333333</v>
+        <v>3.6458333333333398E-2</v>
       </c>
       <c r="E37">
-        <v>0.101694915254237</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="F37">
-        <v>1.6666666666666701E-2</v>
+        <v>6.5573770491803199E-2</v>
       </c>
       <c r="G37">
         <v>6.5573770491803199E-2</v>
       </c>
       <c r="H37">
-        <v>5.0847457627118599E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="I37">
-        <v>-9.7916666666666596E-2</v>
+        <v>2.9115437158469901E-2</v>
       </c>
       <c r="J37">
-        <v>-6.3735875706214695E-2</v>
+        <v>-2.56002824858759E-3</v>
       </c>
       <c r="K37">
-        <v>8.5028248587570507E-2</v>
+        <v>-4.8624617949430397E-2</v>
       </c>
       <c r="L37">
-        <v>1.47263128646846E-2</v>
+        <v>3.1675465407057499E-2</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>5.2083333333333398E-2</v>
+        <v>3.2258064516128997E-2</v>
       </c>
       <c r="C38">
-        <v>4.1666666666666602E-2</v>
+        <v>4.2105263157894798E-2</v>
       </c>
       <c r="D38">
-        <v>4.6875E-2</v>
+        <v>3.7181663837011901E-2</v>
       </c>
       <c r="E38">
-        <v>5.0847457627118599E-2</v>
+        <v>9.4339622641509399E-2</v>
       </c>
       <c r="F38">
-        <v>6.5573770491803199E-2</v>
+        <v>0.15384615384615399</v>
       </c>
       <c r="G38">
-        <v>4.91803278688525E-2</v>
+        <v>7.2727272727272793E-2</v>
       </c>
       <c r="H38">
-        <v>1.6949152542372801E-2</v>
+        <v>7.5471698113207503E-2</v>
       </c>
       <c r="I38">
-        <v>1.8698770491803199E-2</v>
+        <v>0.116664490009142</v>
       </c>
       <c r="J38">
-        <v>-2.9925847457627199E-2</v>
+        <v>3.8290034276195699E-2</v>
       </c>
       <c r="K38">
-        <v>-1.47263128646846E-2</v>
+        <v>-5.95065312046444E-2</v>
       </c>
       <c r="L38">
-        <v>3.2231175326479698E-2</v>
+        <v>-2.7444253859347798E-3</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>2.0833333333333402E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="C39">
-        <v>5.2083333333333398E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="D39">
-        <v>3.6458333333333398E-2</v>
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="E39">
-        <v>1.6949152542372801E-2</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>6.5573770491803199E-2</v>
+        <v>8.1967213114754106E-2</v>
       </c>
       <c r="G39">
-        <v>6.5573770491803199E-2</v>
+        <v>4.91803278688525E-2</v>
       </c>
       <c r="H39">
-        <v>3.3898305084745797E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="I39">
-        <v>2.9115437158469901E-2</v>
+        <v>6.1133879781420798E-2</v>
       </c>
       <c r="J39">
-        <v>-2.56002824858759E-3</v>
+        <v>1.36494252873563E-2</v>
       </c>
       <c r="K39">
-        <v>-4.8624617949430397E-2</v>
+        <v>-8.1967213114754106E-2</v>
       </c>
       <c r="L39">
-        <v>3.1675465407057499E-2</v>
+        <v>1.4697569248162901E-2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>3.2258064516128997E-2</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="C40">
-        <v>4.2105263157894798E-2</v>
+        <v>7.2916666666666602E-2</v>
       </c>
       <c r="D40">
-        <v>3.7181663837011901E-2</v>
+        <v>5.7291666666666602E-2</v>
       </c>
       <c r="E40">
-        <v>9.4339622641509399E-2</v>
+        <v>0.169491525423729</v>
       </c>
       <c r="F40">
-        <v>0.15384615384615399</v>
+        <v>3.2786885245901697E-2</v>
       </c>
       <c r="G40">
-        <v>7.2727272727272793E-2</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="H40">
-        <v>7.5471698113207503E-2</v>
+        <v>6.8965517241379296E-2</v>
       </c>
       <c r="I40">
-        <v>0.116664490009142</v>
+        <v>-2.4504781420764999E-2</v>
       </c>
       <c r="J40">
-        <v>3.8290034276195699E-2</v>
+        <v>1.1673850574712701E-2</v>
       </c>
       <c r="K40">
-        <v>-5.95065312046444E-2</v>
+        <v>0.13670464017782699</v>
       </c>
       <c r="L40">
-        <v>-2.7444253859347798E-3</v>
+        <v>3.2729398012857902E-2</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>1.04166666666666E-2</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C41">
         <v>3.125E-2</v>
       </c>
       <c r="D41">
-        <v>2.0833333333333301E-2</v>
+        <v>2.6041666666666699E-2</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="F41">
-        <v>8.1967213114754106E-2</v>
+        <v>4.91803278688525E-2</v>
       </c>
       <c r="G41">
-        <v>4.91803278688525E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="H41">
-        <v>3.4482758620689599E-2</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="I41">
-        <v>6.1133879781420798E-2</v>
+        <v>2.3138661202185801E-2</v>
       </c>
       <c r="J41">
-        <v>1.36494252873563E-2</v>
+        <v>-9.0925141242938507E-3</v>
       </c>
       <c r="K41">
-        <v>-8.1967213114754106E-2</v>
+        <v>-1.5282022784106701E-2</v>
       </c>
       <c r="L41">
-        <v>1.4697569248162901E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>4.1666666666666602E-2</v>
+        <v>3.1578947368420998E-2</v>
       </c>
       <c r="C42">
-        <v>7.2916666666666602E-2</v>
+        <v>5.2083333333333398E-2</v>
       </c>
       <c r="D42">
-        <v>5.7291666666666602E-2</v>
+        <v>4.1831140350877198E-2</v>
       </c>
       <c r="E42">
-        <v>0.169491525423729</v>
+        <v>0.31034482758620702</v>
       </c>
       <c r="F42">
-        <v>3.2786885245901697E-2</v>
+        <v>0.31147540983606598</v>
       </c>
       <c r="G42">
-        <v>0.101694915254237</v>
+        <v>0.27868852459016402</v>
       </c>
       <c r="H42">
-        <v>6.8965517241379296E-2</v>
+        <v>0.27118644067796599</v>
       </c>
       <c r="I42">
-        <v>-2.4504781420764999E-2</v>
+        <v>0.26964426948518799</v>
       </c>
       <c r="J42">
-        <v>1.1673850574712701E-2</v>
+        <v>0.22935530032708901</v>
       </c>
       <c r="K42">
-        <v>0.13670464017782699</v>
+        <v>-1.13058224985874E-3</v>
       </c>
       <c r="L42">
-        <v>3.2729398012857902E-2</v>
+        <v>7.5020839121977502E-3</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <v>2.0833333333333402E-2</v>
       </c>
       <c r="C43">
-        <v>3.125E-2</v>
+        <v>5.2083333333333398E-2</v>
       </c>
       <c r="D43">
-        <v>2.6041666666666699E-2</v>
+        <v>3.6458333333333398E-2</v>
       </c>
       <c r="E43">
-        <v>3.3898305084745797E-2</v>
+        <v>8.4745762711864403E-2</v>
       </c>
       <c r="F43">
-        <v>4.91803278688525E-2</v>
+        <v>8.3333333333333398E-2</v>
       </c>
       <c r="G43">
-        <v>5.0847457627118599E-2</v>
+        <v>1.63934426229508E-2</v>
       </c>
       <c r="H43">
-        <v>1.6949152542372801E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="I43">
-        <v>2.3138661202185801E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="J43">
-        <v>-9.0925141242938507E-3</v>
+        <v>3.1338276836158203E-2</v>
       </c>
       <c r="K43">
-        <v>-1.5282022784106701E-2</v>
+        <v>1.4124293785310301E-3</v>
       </c>
       <c r="L43">
-        <v>3.3898305084745797E-2</v>
+        <v>-5.1403167546540701E-2</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>3.1578947368420998E-2</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C44">
-        <v>5.2083333333333398E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="D44">
-        <v>4.1831140350877198E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="E44">
-        <v>0.31034482758620702</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.31147540983606598</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0.27868852459016402</v>
+        <v>4.91803278688525E-2</v>
       </c>
       <c r="H44">
-        <v>0.27118644067796599</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0.26964426948518799</v>
+        <v>-1.5625E-2</v>
       </c>
       <c r="J44">
-        <v>0.22935530032708901</v>
+        <v>-1.5625E-2</v>
       </c>
       <c r="K44">
-        <v>-1.13058224985874E-3</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>7.5020839121977502E-3</v>
+        <v>4.91803278688525E-2</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>2.0833333333333402E-2</v>
       </c>
       <c r="C45">
-        <v>5.2083333333333398E-2</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="D45">
-        <v>3.6458333333333398E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="E45">
-        <v>8.4745762711864403E-2</v>
+        <v>0.25</v>
       </c>
       <c r="F45">
-        <v>8.3333333333333398E-2</v>
+        <v>8.6206896551724102E-2</v>
       </c>
       <c r="G45">
-        <v>1.63934426229508E-2</v>
+        <v>0.27868852459016402</v>
       </c>
       <c r="H45">
-        <v>6.7796610169491595E-2</v>
+        <v>0.23728813559322001</v>
       </c>
       <c r="I45">
-        <v>4.6875E-2</v>
+        <v>5.4956896551724102E-2</v>
       </c>
       <c r="J45">
-        <v>3.1338276836158203E-2</v>
+        <v>0.20603813559322001</v>
       </c>
       <c r="K45">
-        <v>1.4124293785310301E-3</v>
+        <v>0.163793103448276</v>
       </c>
       <c r="L45">
-        <v>-5.1403167546540701E-2</v>
+        <v>4.1400388996943503E-2</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>2.0833333333333402E-2</v>
       </c>
       <c r="C46">
-        <v>1.04166666666666E-2</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="D46">
-        <v>1.5625E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.13559322033898299</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>4.91803278688525E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="I46">
-        <v>-1.5625E-2</v>
+        <v>-6.25E-2</v>
       </c>
       <c r="J46">
-        <v>-1.5625E-2</v>
+        <v>-1.0775862068965501E-2</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>0.13559322033898299</v>
       </c>
       <c r="L46">
-        <v>4.91803278688525E-2</v>
+        <v>-1.72413793103443E-3</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>2.0833333333333402E-2</v>
+        <v>8.3333333333333398E-2</v>
       </c>
       <c r="C47">
-        <v>4.1666666666666602E-2</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="D47">
-        <v>3.125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="E47">
-        <v>0.25</v>
+        <v>6.8965517241379296E-2</v>
       </c>
       <c r="F47">
-        <v>8.6206896551724102E-2</v>
+        <v>8.4745762711864403E-2</v>
       </c>
       <c r="G47">
-        <v>0.27868852459016402</v>
+        <v>6.5573770491803199E-2</v>
       </c>
       <c r="H47">
-        <v>0.23728813559322001</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="I47">
-        <v>5.4956896551724102E-2</v>
+        <v>-9.0042372881356005E-3</v>
       </c>
       <c r="J47">
-        <v>0.20603813559322001</v>
+        <v>-7.6800847457627205E-2</v>
       </c>
       <c r="K47">
-        <v>0.163793103448276</v>
+        <v>-1.5780245470485101E-2</v>
       </c>
       <c r="L47">
-        <v>4.1400388996943503E-2</v>
+        <v>4.8624617949430397E-2</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>2.0833333333333402E-2</v>
+        <v>3.1578947368420998E-2</v>
       </c>
       <c r="C48">
-        <v>0.104166666666667</v>
+        <v>7.3684210526315796E-2</v>
       </c>
       <c r="D48">
-        <v>6.25E-2</v>
+        <v>5.2631578947368397E-2</v>
       </c>
       <c r="E48">
-        <v>0.13559322033898299</v>
+        <v>3.8461538461538401E-2</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0.05</v>
+        <v>3.5714285714285698E-2</v>
       </c>
       <c r="H48">
-        <v>5.1724137931034503E-2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>-6.25E-2</v>
+        <v>-5.2631578947368397E-2</v>
       </c>
       <c r="J48">
-        <v>-1.0775862068965501E-2</v>
+        <v>-5.2631578947368397E-2</v>
       </c>
       <c r="K48">
-        <v>0.13559322033898299</v>
+        <v>3.8461538461538401E-2</v>
       </c>
       <c r="L48">
-        <v>-1.72413793103443E-3</v>
+        <v>3.5714285714285698E-2</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>8.3333333333333398E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C49">
-        <v>0.104166666666667</v>
+        <v>3.125E-2</v>
       </c>
       <c r="D49">
-        <v>9.375E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="E49">
-        <v>6.8965517241379296E-2</v>
+        <v>0.140350877192982</v>
       </c>
       <c r="F49">
-        <v>8.4745762711864403E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="G49">
         <v>6.5573770491803199E-2</v>
       </c>
       <c r="H49">
-        <v>1.6949152542372801E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="I49">
-        <v>-9.0042372881356005E-3</v>
+        <v>3.9724576271186196E-3</v>
       </c>
       <c r="J49">
-        <v>-7.6800847457627205E-2</v>
+        <v>-1.2976694915254199E-2</v>
       </c>
       <c r="K49">
-        <v>-1.5780245470485101E-2</v>
+        <v>8.9503419565863801E-2</v>
       </c>
       <c r="L49">
-        <v>4.8624617949430397E-2</v>
+        <v>3.1675465407057499E-2</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B50">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C50">
         <v>3.1578947368420998E-2</v>
       </c>
-      <c r="C50">
-        <v>7.3684210526315796E-2</v>
-      </c>
       <c r="D50">
-        <v>5.2631578947368397E-2</v>
+        <v>3.1414473684210499E-2</v>
       </c>
       <c r="E50">
-        <v>3.8461538461538401E-2</v>
+        <v>0.12</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="G50">
-        <v>3.5714285714285698E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1.88679245283019E-2</v>
       </c>
       <c r="I50">
-        <v>-5.2631578947368397E-2</v>
+        <v>2.0309664246824E-2</v>
       </c>
       <c r="J50">
-        <v>-5.2631578947368397E-2</v>
+        <v>-1.2546549155908601E-2</v>
       </c>
       <c r="K50">
-        <v>3.8461538461538401E-2</v>
+        <v>6.8275862068965507E-2</v>
       </c>
       <c r="L50">
-        <v>3.5714285714285698E-2</v>
+        <v>3.1979533098816702E-2</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>6.25E-2</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C51">
+        <v>4.1666666666666602E-2</v>
+      </c>
+      <c r="D51">
         <v>3.125E-2</v>
       </c>
-      <c r="D51">
-        <v>4.6875E-2</v>
-      </c>
       <c r="E51">
-        <v>0.140350877192982</v>
+        <v>8.9285714285714302E-2</v>
       </c>
       <c r="F51">
-        <v>5.0847457627118599E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
       <c r="G51">
-        <v>6.5573770491803199E-2</v>
+        <v>4.91803278688525E-2</v>
       </c>
       <c r="H51">
-        <v>3.3898305084745797E-2</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>3.9724576271186196E-3</v>
+        <v>1.5368852459016801E-3</v>
       </c>
       <c r="J51">
-        <v>-1.2976694915254199E-2</v>
+        <v>-3.125E-2</v>
       </c>
       <c r="K51">
-        <v>8.9503419565863801E-2</v>
+        <v>5.6498829039812598E-2</v>
       </c>
       <c r="L51">
-        <v>3.1675465407057499E-2</v>
+        <v>4.91803278688525E-2</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>3.125E-2</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C52">
-        <v>3.1578947368420998E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="D52">
-        <v>3.1414473684210499E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="E52">
-        <v>0.12</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="F52">
-        <v>5.1724137931034503E-2</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>5.0847457627118599E-2</v>
+        <v>1.63934426229508E-2</v>
       </c>
       <c r="H52">
-        <v>1.88679245283019E-2</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>2.0309664246824E-2</v>
+        <v>-1.5625E-2</v>
       </c>
       <c r="J52">
-        <v>-1.2546549155908601E-2</v>
+        <v>-1.5625E-2</v>
       </c>
       <c r="K52">
-        <v>6.8275862068965507E-2</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="L52">
-        <v>3.1979533098816702E-2</v>
+        <v>1.63934426229508E-2</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>2.0833333333333402E-2</v>
       </c>
       <c r="C53">
-        <v>4.1666666666666602E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="D53">
-        <v>3.125E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="E53">
-        <v>8.9285714285714302E-2</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>3.2786885245901697E-2</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="G53">
-        <v>4.91803278688525E-2</v>
+        <v>1.63934426229508E-2</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="I53">
-        <v>1.5368852459016801E-3</v>
+        <v>1.7708333333333302E-2</v>
       </c>
       <c r="J53">
-        <v>-3.125E-2</v>
+        <v>1.6163793103448601E-3</v>
       </c>
       <c r="K53">
-        <v>5.6498829039812598E-2</v>
+        <v>-3.3333333333333298E-2</v>
       </c>
       <c r="L53">
-        <v>4.91803278688525E-2</v>
+        <v>-8.4793668739402395E-4</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>2.0833333333333402E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="C54">
         <v>1.04166666666666E-2</v>
       </c>
       <c r="D54">
-        <v>1.5625E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="E54">
-        <v>1.6949152542372801E-2</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1.63934426229508E-2</v>
       </c>
       <c r="G54">
-        <v>1.63934426229508E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>-1.5625E-2</v>
+        <v>5.9767759562842099E-3</v>
       </c>
       <c r="J54">
-        <v>-1.5625E-2</v>
+        <v>-1.04166666666666E-2</v>
       </c>
       <c r="K54">
-        <v>1.6949152542372801E-2</v>
+        <v>-1.63934426229508E-2</v>
       </c>
       <c r="L54">
-        <v>1.63934426229508E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>2.0833333333333402E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="C55">
-        <v>1.04166666666666E-2</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="D55">
-        <v>1.5625E-2</v>
+        <v>2.6041666666666598E-2</v>
       </c>
       <c r="E55">
+        <v>3.4482758620689599E-2</v>
+      </c>
+      <c r="F55">
         <v>0</v>
       </c>
-      <c r="F55">
-        <v>3.3333333333333298E-2</v>
-      </c>
       <c r="G55">
-        <v>1.63934426229508E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
       <c r="H55">
-        <v>1.72413793103449E-2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>1.7708333333333302E-2</v>
+        <v>-2.6041666666666598E-2</v>
       </c>
       <c r="J55">
-        <v>1.6163793103448601E-3</v>
+        <v>-2.6041666666666598E-2</v>
       </c>
       <c r="K55">
-        <v>-3.3333333333333298E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="L55">
-        <v>-8.4793668739402395E-4</v>
+        <v>3.2786885245901697E-2</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>1.04166666666666E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C56">
-        <v>1.04166666666666E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D56">
-        <v>1.04166666666666E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="F56">
-        <v>1.63934426229508E-2</v>
+        <v>4.91803278688525E-2</v>
       </c>
       <c r="G56">
-        <v>3.2786885245901697E-2</v>
+        <v>9.8360655737704902E-2</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>8.6206896551724102E-2</v>
       </c>
       <c r="I56">
-        <v>5.9767759562842099E-3</v>
+        <v>2.3053278688525101E-3</v>
       </c>
       <c r="J56">
-        <v>-1.04166666666666E-2</v>
+        <v>3.9331896551724102E-2</v>
       </c>
       <c r="K56">
-        <v>-1.63934426229508E-2</v>
+        <v>5.2514587385384698E-2</v>
       </c>
       <c r="L56">
-        <v>3.2786885245901697E-2</v>
+        <v>1.21537591859808E-2</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>1.04166666666666E-2</v>
       </c>
       <c r="C57">
-        <v>4.1666666666666602E-2</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="D57">
-        <v>2.6041666666666598E-2</v>
+        <v>1.5734649122807001E-2</v>
       </c>
       <c r="E57">
-        <v>3.4482758620689599E-2</v>
+        <v>0.15517241379310301</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="G57">
-        <v>3.2786885245901697E-2</v>
+        <v>0.15</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>5.3571428571428603E-2</v>
       </c>
       <c r="I57">
-        <v>-2.6041666666666598E-2</v>
+        <v>0.11759868421052599</v>
       </c>
       <c r="J57">
-        <v>-2.6041666666666598E-2</v>
+        <v>3.7836779448621599E-2</v>
       </c>
       <c r="K57">
-        <v>3.4482758620689599E-2</v>
+        <v>2.1839080459770101E-2</v>
       </c>
       <c r="L57">
-        <v>3.2786885245901697E-2</v>
+        <v>9.6428571428571405E-2</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>6.25E-2</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="D58">
-        <v>4.6875E-2</v>
+        <v>5.2631578947368602E-3</v>
       </c>
       <c r="E58">
-        <v>0.101694915254237</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>4.91803278688525E-2</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>9.8360655737704902E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="H58">
-        <v>8.6206896551724102E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="I58">
-        <v>2.3053278688525101E-3</v>
+        <v>-5.2631578947368602E-3</v>
       </c>
       <c r="J58">
-        <v>3.9331896551724102E-2</v>
+        <v>2.92196007259528E-2</v>
       </c>
       <c r="K58">
-        <v>5.2514587385384698E-2</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>1.21537591859808E-2</v>
+        <v>1.6364699006429E-2</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>1.04166666666666E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C59">
-        <v>2.1052631578947299E-2</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="D59">
-        <v>1.5734649122807001E-2</v>
+        <v>2.08881578947369E-2</v>
       </c>
       <c r="E59">
-        <v>0.15517241379310301</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="F59">
-        <v>0.133333333333333</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="G59">
-        <v>0.15</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="H59">
-        <v>5.3571428571428603E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="I59">
-        <v>0.11759868421052599</v>
+        <v>-4.22149122807014E-3</v>
       </c>
       <c r="J59">
-        <v>3.7836779448621599E-2</v>
+        <v>1.3010147190008901E-2</v>
       </c>
       <c r="K59">
-        <v>2.1839080459770101E-2</v>
+        <v>3.5964912280701797E-2</v>
       </c>
       <c r="L59">
-        <v>9.6428571428571405E-2</v>
+        <v>-1.72316384180791E-2</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>5.2083333333333398E-2</v>
       </c>
       <c r="C60">
-        <v>1.05263157894737E-2</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="D60">
-        <v>5.2631578947368602E-3</v>
+        <v>5.2357456140350901E-2</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>8.6206896551724102E-2</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="G60">
-        <v>5.0847457627118599E-2</v>
+        <v>8.4745762711864403E-2</v>
       </c>
       <c r="H60">
-        <v>3.4482758620689599E-2</v>
+        <v>8.9285714285714302E-2</v>
       </c>
       <c r="I60">
-        <v>-5.2631578947368602E-3</v>
+        <v>-3.54083035979781E-2</v>
       </c>
       <c r="J60">
-        <v>2.92196007259528E-2</v>
+        <v>3.69282581453634E-2</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>6.9257744009351294E-2</v>
       </c>
       <c r="L60">
-        <v>1.6364699006429E-2</v>
+        <v>-4.5399515738499003E-3</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>3.125E-2</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C61">
-        <v>1.05263157894737E-2</v>
+        <v>8.42105263157895E-2</v>
       </c>
       <c r="D61">
-        <v>2.08881578947369E-2</v>
+        <v>5.25219298245614E-2</v>
       </c>
       <c r="E61">
-        <v>5.2631578947368501E-2</v>
+        <v>0.20689655172413801</v>
       </c>
       <c r="F61">
-        <v>1.6666666666666701E-2</v>
+        <v>0.18333333333333299</v>
       </c>
       <c r="G61">
-        <v>1.6666666666666701E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
       <c r="H61">
-        <v>3.3898305084745797E-2</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>-4.22149122807014E-3</v>
+        <v>0.13081140350877199</v>
       </c>
       <c r="J61">
-        <v>1.3010147190008901E-2</v>
+        <v>-5.25219298245614E-2</v>
       </c>
       <c r="K61">
-        <v>3.5964912280701797E-2</v>
+        <v>2.3563218390804601E-2</v>
       </c>
       <c r="L61">
-        <v>-1.72316384180791E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>5.2083333333333398E-2</v>
+        <v>7.2916666666666602E-2</v>
       </c>
       <c r="C62">
-        <v>5.2631578947368501E-2</v>
+        <v>9.4736842105263105E-2</v>
       </c>
       <c r="D62">
-        <v>5.2357456140350901E-2</v>
+        <v>8.3826754385964902E-2</v>
       </c>
       <c r="E62">
-        <v>8.6206896551724102E-2</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="F62">
-        <v>1.6949152542372801E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="G62">
-        <v>8.4745762711864403E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="H62">
-        <v>8.9285714285714302E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="I62">
-        <v>-3.54083035979781E-2</v>
+        <v>-4.9928449301219098E-2</v>
       </c>
       <c r="J62">
-        <v>3.69282581453634E-2</v>
+        <v>-6.6585375075619999E-2</v>
       </c>
       <c r="K62">
-        <v>6.9257744009351294E-2</v>
+        <v>1.7825832846288699E-2</v>
       </c>
       <c r="L62">
-        <v>-4.5399515738499003E-3</v>
+        <v>5.0555230859146698E-2</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>2.0833333333333402E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="C63">
-        <v>8.42105263157895E-2</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="D63">
-        <v>5.25219298245614E-2</v>
+        <v>1.5734649122807001E-2</v>
       </c>
       <c r="E63">
-        <v>0.20689655172413801</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="F63">
-        <v>0.18333333333333299</v>
+        <v>1.75438596491229E-2</v>
       </c>
       <c r="G63">
-        <v>3.2786885245901697E-2</v>
+        <v>1.63934426229508E-2</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="I63">
-        <v>0.13081140350877199</v>
+        <v>1.8092105263158901E-3</v>
       </c>
       <c r="J63">
-        <v>-5.25219298245614E-2</v>
+        <v>1.2145034195658599E-3</v>
       </c>
       <c r="K63">
-        <v>2.3563218390804601E-2</v>
+        <v>-3.02480338778E-4</v>
       </c>
       <c r="L63">
-        <v>3.2786885245901697E-2</v>
+        <v>-5.55709919421998E-4</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B64">
         <v>7.2916666666666602E-2</v>
       </c>
       <c r="C64">
-        <v>9.4736842105263105E-2</v>
+        <v>6.3157894736842093E-2</v>
       </c>
       <c r="D64">
-        <v>8.3826754385964902E-2</v>
+        <v>6.8037280701754396E-2</v>
       </c>
       <c r="E64">
-        <v>5.1724137931034503E-2</v>
+        <v>0.160714285714286</v>
       </c>
       <c r="F64">
-        <v>3.3898305084745797E-2</v>
+        <v>0.12068965517241401</v>
       </c>
       <c r="G64">
-        <v>6.7796610169491595E-2</v>
+        <v>7.1428571428571397E-2</v>
       </c>
       <c r="H64">
-        <v>1.72413793103449E-2</v>
+        <v>3.5087719298245598E-2</v>
       </c>
       <c r="I64">
-        <v>-4.9928449301219098E-2</v>
+        <v>5.2652374470659499E-2</v>
       </c>
       <c r="J64">
-        <v>-6.6585375075619999E-2</v>
+        <v>-3.2949561403508701E-2</v>
       </c>
       <c r="K64">
-        <v>1.7825832846288699E-2</v>
+        <v>4.00246305418719E-2</v>
       </c>
       <c r="L64">
-        <v>5.0555230859146698E-2</v>
+        <v>3.6340852130325799E-2</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B65">
         <v>1.04166666666666E-2</v>
       </c>
       <c r="C65">
-        <v>2.1052631578947299E-2</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="D65">
-        <v>1.5734649122807001E-2</v>
+        <v>1.0471491228070199E-2</v>
       </c>
       <c r="E65">
-        <v>1.72413793103449E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="F65">
-        <v>1.75438596491229E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
       <c r="G65">
-        <v>1.63934426229508E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="H65">
-        <v>1.6949152542372801E-2</v>
+        <v>5.3571428571428603E-2</v>
       </c>
       <c r="I65">
-        <v>1.8092105263158901E-3</v>
+        <v>2.2315394017831499E-2</v>
       </c>
       <c r="J65">
-        <v>1.2145034195658599E-3</v>
+        <v>4.3099937343358402E-2</v>
       </c>
       <c r="K65">
-        <v>-3.02480338778E-4</v>
+        <v>1.8060572381216899E-2</v>
       </c>
       <c r="L65">
-        <v>-5.55709919421998E-4</v>
+        <v>1.4225181598063E-2</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>7.2916666666666602E-2</v>
+        <v>4.3478260869565202E-2</v>
       </c>
       <c r="C66">
-        <v>6.3157894736842093E-2</v>
+        <v>0.21276595744680801</v>
       </c>
       <c r="D66">
-        <v>6.8037280701754396E-2</v>
+        <v>0.128122109158187</v>
       </c>
       <c r="E66">
-        <v>0.160714285714286</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="F66">
-        <v>0.12068965517241401</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="G66">
-        <v>7.1428571428571397E-2</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="H66">
-        <v>3.5087719298245598E-2</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="I66">
-        <v>5.2652374470659499E-2</v>
+        <v>5.8318568807914799E-2</v>
       </c>
       <c r="J66">
-        <v>-3.2949561403508701E-2</v>
+        <v>-2.09792520153297E-2</v>
       </c>
       <c r="K66">
-        <v>4.00246305418719E-2</v>
+        <v>-3.38983050847457E-2</v>
       </c>
       <c r="L66">
-        <v>3.6340852130325799E-2</v>
+        <v>-4.0476190476190402E-2</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>1.04166666666666E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C67">
-        <v>1.05263157894737E-2</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="D67">
-        <v>1.0471491228070199E-2</v>
+        <v>2.61513157894737E-2</v>
       </c>
       <c r="E67">
-        <v>5.0847457627118599E-2</v>
+        <v>1.8181818181818198E-2</v>
       </c>
       <c r="F67">
-        <v>3.2786885245901697E-2</v>
+        <v>1.7857142857142901E-2</v>
       </c>
       <c r="G67">
-        <v>6.7796610169491595E-2</v>
+        <v>6.5573770491803199E-2</v>
       </c>
       <c r="H67">
-        <v>5.3571428571428603E-2</v>
+        <v>1.8181818181818198E-2</v>
       </c>
       <c r="I67">
-        <v>2.2315394017831499E-2</v>
+        <v>-8.2941729323307602E-3</v>
       </c>
       <c r="J67">
-        <v>4.3099937343358402E-2</v>
+        <v>-7.9694976076554701E-3</v>
       </c>
       <c r="K67">
-        <v>1.8060572381216899E-2</v>
+        <v>3.2467532467528299E-4</v>
       </c>
       <c r="L67">
-        <v>1.4225181598063E-2</v>
+        <v>4.7391952309985101E-2</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>4.3478260869565202E-2</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="C68">
-        <v>0.21276595744680801</v>
+        <v>3.1578947368420998E-2</v>
       </c>
       <c r="D68">
-        <v>0.128122109158187</v>
+        <v>3.66228070175438E-2</v>
       </c>
       <c r="E68">
-        <v>0.152542372881356</v>
+        <v>8.77192982456141E-2</v>
       </c>
       <c r="F68">
-        <v>0.186440677966102</v>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="G68">
-        <v>6.6666666666666693E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
       <c r="H68">
-        <v>0.107142857142857</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="I68">
-        <v>5.8318568807914799E-2</v>
+        <v>-2.72450193279805E-3</v>
       </c>
       <c r="J68">
-        <v>-2.09792520153297E-2</v>
+        <v>1.6008771929824601E-2</v>
       </c>
       <c r="K68">
-        <v>-3.38983050847457E-2</v>
+        <v>5.3820993160868302E-2</v>
       </c>
       <c r="L68">
-        <v>-4.0476190476190402E-2</v>
+        <v>-1.9844693701466801E-2</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B69">
-        <v>3.125E-2</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="C69">
         <v>2.1052631578947299E-2</v>
       </c>
       <c r="D69">
-        <v>2.61513157894737E-2</v>
+        <v>1.5789473684210499E-2</v>
       </c>
       <c r="E69">
-        <v>1.8181818181818198E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="F69">
-        <v>1.7857142857142901E-2</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>6.5573770491803199E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="H69">
-        <v>1.8181818181818198E-2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>-8.2941729323307602E-3</v>
+        <v>-1.5789473684210499E-2</v>
       </c>
       <c r="J69">
-        <v>-7.9694976076554701E-3</v>
+        <v>-1.5789473684210499E-2</v>
       </c>
       <c r="K69">
-        <v>3.2467532467528299E-4</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="L69">
-        <v>4.7391952309985101E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B70">
-        <v>4.1666666666666602E-2</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>3.1578947368420998E-2</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>3.66228070175438E-2</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>8.77192982456141E-2</v>
+        <v>5.3571428571428603E-2</v>
       </c>
       <c r="F70">
-        <v>3.3898305084745797E-2</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="G70">
-        <v>3.2786885245901697E-2</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="H70">
-        <v>5.2631578947368501E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="I70">
-        <v>-2.72450193279805E-3</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="J70">
-        <v>1.6008771929824601E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="K70">
-        <v>5.3820993160868302E-2</v>
+        <v>3.6904761904761899E-2</v>
       </c>
       <c r="L70">
-        <v>-1.9844693701466801E-2</v>
+        <v>-5.74712643678144E-4</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B71">
-        <v>1.05263157894737E-2</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="C71">
-        <v>2.1052631578947299E-2</v>
+        <v>6.3157894736842093E-2</v>
       </c>
       <c r="D71">
-        <v>1.5789473684210499E-2</v>
+        <v>5.2412280701754403E-2</v>
       </c>
       <c r="E71">
-        <v>1.72413793103449E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>3.3898305084745797E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1.8181818181818198E-2</v>
       </c>
       <c r="I71">
-        <v>-1.5789473684210499E-2</v>
+        <v>-5.2412280701754403E-2</v>
       </c>
       <c r="J71">
-        <v>-1.5789473684210499E-2</v>
+        <v>-3.4230462519936201E-2</v>
       </c>
       <c r="K71">
-        <v>1.72413793103449E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="L71">
-        <v>3.3898305084745797E-2</v>
+        <v>4.96147919876734E-2</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>2.08881578947369E-2</v>
       </c>
       <c r="E72">
-        <v>5.3571428571428603E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="F72">
-        <v>1.6666666666666701E-2</v>
+        <v>3.5087719298245598E-2</v>
       </c>
       <c r="G72">
-        <v>1.6666666666666701E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
       <c r="H72">
-        <v>1.72413793103449E-2</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="I72">
-        <v>1.6666666666666701E-2</v>
+        <v>1.41995614035088E-2</v>
       </c>
       <c r="J72">
-        <v>1.72413793103449E-2</v>
+        <v>3.1743421052631601E-2</v>
       </c>
       <c r="K72">
-        <v>3.6904761904761899E-2</v>
+        <v>1.5759738328873001E-2</v>
       </c>
       <c r="L72">
-        <v>-5.74712643678144E-4</v>
+        <v>-1.9844693701466801E-2</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B73">
-        <v>4.1666666666666602E-2</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C73">
-        <v>6.3157894736842093E-2</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>5.2412280701754403E-2</v>
+        <v>1.0416666666666701E-2</v>
       </c>
       <c r="E73">
-        <v>5.0847457627118599E-2</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="F73">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="G73">
+        <v>1.7857142857142901E-2</v>
+      </c>
+      <c r="H73">
         <v>0</v>
       </c>
-      <c r="G73">
-        <v>6.7796610169491595E-2</v>
-      </c>
-      <c r="H73">
-        <v>1.8181818181818198E-2</v>
-      </c>
       <c r="I73">
-        <v>-5.2412280701754403E-2</v>
+        <v>6.2500000000000298E-3</v>
       </c>
       <c r="J73">
-        <v>-3.4230462519936201E-2</v>
+        <v>-1.0416666666666701E-2</v>
       </c>
       <c r="K73">
-        <v>5.0847457627118599E-2</v>
+        <v>2.8248587570611799E-4</v>
       </c>
       <c r="L73">
-        <v>4.96147919876734E-2</v>
+        <v>1.7857142857142901E-2</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B74">
-        <v>3.125E-2</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C74">
         <v>1.05263157894737E-2</v>
       </c>
       <c r="D74">
-        <v>2.08881578947369E-2</v>
+        <v>1.5679824561403499E-2</v>
       </c>
       <c r="E74">
-        <v>5.0847457627118599E-2</v>
+        <v>0</v>
       </c>
       <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
         <v>3.5087719298245598E-2</v>
       </c>
-      <c r="G74">
-        <v>3.2786885245901697E-2</v>
-      </c>
       <c r="H74">
-        <v>5.2631578947368501E-2</v>
+        <v>1.7857142857142901E-2</v>
       </c>
       <c r="I74">
-        <v>1.41995614035088E-2</v>
+        <v>-1.5679824561403499E-2</v>
       </c>
       <c r="J74">
-        <v>3.1743421052631601E-2</v>
+        <v>2.1773182957393598E-3</v>
       </c>
       <c r="K74">
-        <v>1.5759738328873001E-2</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>-1.9844693701466801E-2</v>
+        <v>1.72305764411027E-2</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B75">
         <v>2.0833333333333402E-2</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="D75">
-        <v>1.0416666666666701E-2</v>
+        <v>2.0942982456140301E-2</v>
       </c>
       <c r="E75">
         <v>1.6949152542372801E-2</v>
       </c>
       <c r="F75">
-        <v>1.6666666666666701E-2</v>
+        <v>1.75438596491229E-2</v>
       </c>
       <c r="G75">
-        <v>1.7857142857142901E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>6.2500000000000298E-3</v>
+        <v>-3.3991228070174898E-3</v>
       </c>
       <c r="J75">
-        <v>-1.0416666666666701E-2</v>
+        <v>-2.0942982456140301E-2</v>
       </c>
       <c r="K75">
-        <v>2.8248587570611799E-4</v>
+        <v>-5.9470710675002504E-4</v>
       </c>
       <c r="L75">
-        <v>1.7857142857142901E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B76">
-        <v>2.0833333333333402E-2</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>1.05263157894737E-2</v>
       </c>
       <c r="D76">
-        <v>1.5679824561403499E-2</v>
+        <v>5.2631578947368602E-3</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>3.5087719298245598E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="H76">
-        <v>1.7857142857142901E-2</v>
+        <v>1.75438596491229E-2</v>
       </c>
       <c r="I76">
-        <v>-1.5679824561403499E-2</v>
+        <v>-5.2631578947368602E-3</v>
       </c>
       <c r="J76">
-        <v>2.1773182957393598E-3</v>
+        <v>1.2280701754386E-2</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="L76">
-        <v>1.72305764411027E-2</v>
+        <v>5.0252750520368698E-2</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B77">
-        <v>2.0833333333333402E-2</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>2.1052631578947299E-2</v>
+        <v>3.1578947368420998E-2</v>
       </c>
       <c r="D77">
-        <v>2.0942982456140301E-2</v>
+        <v>1.5789473684210499E-2</v>
       </c>
       <c r="E77">
-        <v>1.6949152542372801E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="F77">
-        <v>1.75438596491229E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="G77">
-        <v>1.72413793103449E-2</v>
+        <v>8.6206896551724102E-2</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1.7857142857142901E-2</v>
       </c>
       <c r="I77">
-        <v>-3.3991228070174898E-3</v>
+        <v>5.2007136485280998E-2</v>
       </c>
       <c r="J77">
-        <v>-2.0942982456140301E-2</v>
+        <v>2.0676691729323801E-3</v>
       </c>
       <c r="K77">
-        <v>-5.9470710675002504E-4</v>
+        <v>-3.3313851548802002E-2</v>
       </c>
       <c r="L77">
-        <v>1.72413793103449E-2</v>
+        <v>6.8349753694581197E-2</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="C78">
-        <v>1.05263157894737E-2</v>
+        <v>3.1578947368420998E-2</v>
       </c>
       <c r="D78">
-        <v>5.2631578947368602E-3</v>
+        <v>2.1052631578947399E-2</v>
       </c>
       <c r="E78">
-        <v>3.4482758620689599E-2</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>3.5714285714285698E-2</v>
       </c>
       <c r="G78">
-        <v>6.7796610169491595E-2</v>
+        <v>8.1967213114754106E-2</v>
       </c>
       <c r="H78">
-        <v>1.75438596491229E-2</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="I78">
-        <v>-5.2631578947368602E-3</v>
+        <v>1.4661654135338299E-2</v>
       </c>
       <c r="J78">
-        <v>1.2280701754386E-2</v>
+        <v>3.06715063520871E-2</v>
       </c>
       <c r="K78">
-        <v>3.4482758620689599E-2</v>
+        <v>1.6009852216748801E-2</v>
       </c>
       <c r="L78">
-        <v>5.0252750520368698E-2</v>
+        <v>3.02430751837196E-2</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>4.2105263157894798E-2</v>
       </c>
       <c r="C79">
         <v>3.1578947368420998E-2</v>
       </c>
       <c r="D79">
-        <v>1.5789473684210499E-2</v>
+        <v>3.6842105263157898E-2</v>
       </c>
       <c r="E79">
-        <v>3.4482758620689599E-2</v>
+        <v>6.8965517241379296E-2</v>
       </c>
       <c r="F79">
-        <v>6.7796610169491595E-2</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="G79">
-        <v>8.6206896551724102E-2</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="H79">
-        <v>1.7857142857142901E-2</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="I79">
-        <v>5.2007136485280998E-2</v>
+        <v>1.4882032667876599E-2</v>
       </c>
       <c r="J79">
-        <v>2.0676691729323801E-3</v>
+        <v>-1.98929527207851E-2</v>
       </c>
       <c r="K79">
-        <v>-3.3313851548802002E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="L79">
-        <v>6.8349753694581197E-2</v>
+        <v>4.9717514124293802E-2</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
         <v>1.05263157894737E-2</v>
       </c>
-      <c r="C80">
-        <v>3.1578947368420998E-2</v>
-      </c>
       <c r="D80">
-        <v>2.1052631578947399E-2</v>
+        <v>5.2631578947368602E-3</v>
       </c>
       <c r="E80">
-        <v>5.1724137931034503E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="F80">
-        <v>3.5714285714285698E-2</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>8.1967213114754106E-2</v>
+        <v>1.63934426229508E-2</v>
       </c>
       <c r="H80">
-        <v>5.1724137931034503E-2</v>
+        <v>1.75438596491229E-2</v>
       </c>
       <c r="I80">
-        <v>1.4661654135338299E-2</v>
+        <v>-5.2631578947368602E-3</v>
       </c>
       <c r="J80">
-        <v>3.06715063520871E-2</v>
+        <v>1.2280701754386E-2</v>
       </c>
       <c r="K80">
-        <v>1.6009852216748801E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="L80">
-        <v>3.02430751837196E-2</v>
+        <v>-1.15041702617202E-3</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B81">
-        <v>4.2105263157894798E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C81">
         <v>3.1578947368420998E-2</v>
       </c>
       <c r="D81">
-        <v>3.6842105263157898E-2</v>
+        <v>4.7039473684210499E-2</v>
       </c>
       <c r="E81">
-        <v>6.8965517241379296E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="F81">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="G81">
         <v>5.1724137931034503E-2</v>
       </c>
-      <c r="G81">
-        <v>6.6666666666666693E-2</v>
-      </c>
       <c r="H81">
-        <v>1.6949152542372801E-2</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1.4882032667876599E-2</v>
+        <v>-3.0372807017543801E-2</v>
       </c>
       <c r="J81">
-        <v>-1.98929527207851E-2</v>
+        <v>-4.7039473684210499E-2</v>
       </c>
       <c r="K81">
-        <v>1.72413793103449E-2</v>
+        <v>1.72316384180791E-2</v>
       </c>
       <c r="L81">
-        <v>4.9717514124293802E-2</v>
+        <v>5.1724137931034503E-2</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C82">
         <v>1.05263157894737E-2</v>
       </c>
       <c r="D82">
-        <v>5.2631578947368602E-3</v>
+        <v>1.5679824561403499E-2</v>
       </c>
       <c r="E82">
-        <v>3.4482758620689599E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="G82">
-        <v>1.63934426229508E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H82">
-        <v>1.75438596491229E-2</v>
+        <v>6.8965517241379296E-2</v>
       </c>
       <c r="I82">
-        <v>-5.2631578947368602E-3</v>
+        <v>1.76535087719298E-2</v>
       </c>
       <c r="J82">
-        <v>1.2280701754386E-2</v>
+        <v>5.32856926799758E-2</v>
       </c>
       <c r="K82">
-        <v>3.4482758620689599E-2</v>
+        <v>1.7514124293785301E-2</v>
       </c>
       <c r="L82">
-        <v>-1.15041702617202E-3</v>
+        <v>-1.89655172413793E-2</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B83">
-        <v>6.25E-2</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C83">
-        <v>3.1578947368420998E-2</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>4.7039473684210499E-2</v>
+        <v>1.0416666666666701E-2</v>
       </c>
       <c r="E83">
-        <v>3.3898305084745797E-2</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.6666666666666701E-2</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="G83">
-        <v>5.1724137931034503E-2</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>-3.0372807017543801E-2</v>
+        <v>6.5324858757061502E-3</v>
       </c>
       <c r="J83">
-        <v>-4.7039473684210499E-2</v>
+        <v>-1.0416666666666701E-2</v>
       </c>
       <c r="K83">
-        <v>1.72316384180791E-2</v>
+        <v>-1.6949152542372801E-2</v>
       </c>
       <c r="L83">
-        <v>5.1724137931034503E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B84">
-        <v>2.0833333333333402E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C84">
-        <v>1.05263157894737E-2</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="D84">
-        <v>1.5679824561403499E-2</v>
+        <v>2.61513157894737E-2</v>
       </c>
       <c r="E84">
-        <v>5.0847457627118599E-2</v>
+        <v>3.5087719298245598E-2</v>
       </c>
       <c r="F84">
-        <v>3.3333333333333298E-2</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>0.05</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="H84">
-        <v>6.8965517241379296E-2</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>1.76535087719298E-2</v>
+        <v>-2.61513157894737E-2</v>
       </c>
       <c r="J84">
-        <v>5.32856926799758E-2</v>
+        <v>-2.61513157894737E-2</v>
       </c>
       <c r="K84">
-        <v>1.7514124293785301E-2</v>
+        <v>3.5087719298245598E-2</v>
       </c>
       <c r="L84">
-        <v>-1.89655172413793E-2</v>
+        <v>1.6666666666666701E-2</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B85">
-        <v>2.0833333333333402E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="D85">
-        <v>1.0416666666666701E-2</v>
+        <v>2.08881578947369E-2</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="F85">
-        <v>1.6949152542372801E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1.75438596491229E-2</v>
       </c>
       <c r="I85">
-        <v>6.5324858757061502E-3</v>
+        <v>1.35946007259528E-2</v>
       </c>
       <c r="J85">
-        <v>-1.0416666666666701E-2</v>
+        <v>-3.3442982456139999E-3</v>
       </c>
       <c r="K85">
-        <v>-1.6949152542372801E-2</v>
+        <v>1.8148820326678899E-2</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>-1.75438596491229E-2</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86">
-        <v>3.125E-2</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="C86">
-        <v>2.1052631578947299E-2</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="D86">
-        <v>2.61513157894737E-2</v>
+        <v>1.5789473684210499E-2</v>
       </c>
       <c r="E86">
-        <v>3.5087719298245598E-2</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>1.6666666666666701E-2</v>
+        <v>1.75438596491229E-2</v>
       </c>
       <c r="H86">
+        <v>1.75438596491229E-2</v>
+      </c>
+      <c r="I86">
+        <v>-1.5789473684210499E-2</v>
+      </c>
+      <c r="J86">
+        <v>1.7543859649123399E-3</v>
+      </c>
+      <c r="K86">
         <v>0</v>
       </c>
-      <c r="I86">
-        <v>-2.61513157894737E-2</v>
-      </c>
-      <c r="J86">
-        <v>-2.61513157894737E-2</v>
-      </c>
-      <c r="K86">
-        <v>3.5087719298245598E-2</v>
-      </c>
       <c r="L86">
-        <v>1.6666666666666701E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87">
-        <v>3.125E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="C87">
-        <v>1.05263157894737E-2</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="D87">
-        <v>2.08881578947369E-2</v>
+        <v>1.5734649122807001E-2</v>
       </c>
       <c r="E87">
         <v>5.2631578947368501E-2</v>
       </c>
       <c r="F87">
-        <v>3.4482758620689599E-2</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="H87">
-        <v>1.75438596491229E-2</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="I87">
-        <v>1.35946007259528E-2</v>
+        <v>1.2145034195658599E-3</v>
       </c>
       <c r="J87">
-        <v>-3.3442982456139999E-3</v>
+        <v>1.2145034195658599E-3</v>
       </c>
       <c r="K87">
-        <v>1.8148820326678899E-2</v>
+        <v>3.5682426404995603E-2</v>
       </c>
       <c r="L87">
-        <v>-1.75438596491229E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88">
-        <v>2.1052631578947299E-2</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C88">
-        <v>1.05263157894737E-2</v>
+        <v>2.1276595744680899E-2</v>
       </c>
       <c r="D88">
-        <v>1.5789473684210499E-2</v>
+        <v>2.1054964539007098E-2</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>6.8965517241379296E-2</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="G88">
-        <v>1.75438596491229E-2</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="H88">
-        <v>1.75438596491229E-2</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="I88">
-        <v>-1.5789473684210499E-2</v>
+        <v>2.97924930881115E-2</v>
       </c>
       <c r="J88">
-        <v>1.7543859649123399E-3</v>
+        <v>3.1576614408361299E-2</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>1.81180596142607E-2</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>-1.9298245614035099E-2</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89">
-        <v>1.04166666666666E-2</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="C89">
-        <v>2.1052631578947299E-2</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>1.5734649122807001E-2</v>
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="E89">
-        <v>5.2631578947368501E-2</v>
+        <v>0.15517241379310301</v>
       </c>
       <c r="F89">
-        <v>1.6949152542372801E-2</v>
+        <v>7.0175438596491196E-2</v>
       </c>
       <c r="G89">
-        <v>5.0847457627118599E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H89">
-        <v>1.6949152542372801E-2</v>
+        <v>8.9285714285714302E-2</v>
       </c>
       <c r="I89">
-        <v>1.2145034195658599E-3</v>
+        <v>4.9342105263157902E-2</v>
       </c>
       <c r="J89">
-        <v>1.2145034195658599E-3</v>
+        <v>6.8452380952381001E-2</v>
       </c>
       <c r="K89">
-        <v>3.5682426404995603E-2</v>
+        <v>8.4996975196612201E-2</v>
       </c>
       <c r="L89">
-        <v>3.3898305084745797E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>101</v>
-      </c>
-      <c r="B90">
-        <v>2.0833333333333402E-2</v>
-      </c>
-      <c r="C90">
-        <v>2.1276595744680899E-2</v>
-      </c>
-      <c r="D90">
-        <v>2.1054964539007098E-2</v>
-      </c>
-      <c r="E90">
-        <v>6.8965517241379296E-2</v>
-      </c>
-      <c r="F90">
-        <v>5.0847457627118599E-2</v>
-      </c>
-      <c r="G90">
-        <v>3.3333333333333298E-2</v>
-      </c>
-      <c r="H90">
-        <v>5.2631578947368501E-2</v>
-      </c>
-      <c r="I90">
-        <v>2.97924930881115E-2</v>
-      </c>
-      <c r="J90">
-        <v>3.1576614408361299E-2</v>
-      </c>
-      <c r="K90">
-        <v>1.81180596142607E-2</v>
-      </c>
-      <c r="L90">
-        <v>-1.9298245614035099E-2</v>
+        <v>1.0714285714285701E-2</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>102</v>
+      <c r="A91" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B91">
-        <v>4.1666666666666602E-2</v>
+        <f>AVERAGE(B2:B89)</f>
+        <v>2.6250397693392311E-2</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <f>AVERAGE(C2:C89)</f>
+        <v>4.0887108544726526E-2</v>
       </c>
       <c r="D91">
-        <v>2.0833333333333301E-2</v>
+        <f>AVERAGE(D2:D89)</f>
+        <v>3.3568753119059415E-2</v>
       </c>
       <c r="E91">
-        <v>0.15517241379310301</v>
+        <f>AVERAGE(E2:E89)</f>
+        <v>6.293403438309722E-2</v>
       </c>
       <c r="F91">
-        <v>7.0175438596491196E-2</v>
+        <f>AVERAGE(F2:F89)</f>
+        <v>3.7152730604458145E-2</v>
       </c>
       <c r="G91">
-        <v>0.1</v>
+        <f>AVERAGE(G2:G89)</f>
+        <v>5.4756420821109743E-2</v>
       </c>
       <c r="H91">
-        <v>8.9285714285714302E-2</v>
+        <f>AVERAGE(H2:H89)</f>
+        <v>3.2650136784246067E-2</v>
       </c>
       <c r="I91">
-        <v>4.9342105263157902E-2</v>
+        <f>AVERAGE(I2:I89)</f>
+        <v>3.5839774853987354E-3</v>
       </c>
       <c r="J91">
-        <v>6.8452380952381001E-2</v>
+        <f>AVERAGE(J2:J89)</f>
+        <v>-9.1861633481333724E-4</v>
       </c>
       <c r="K91">
-        <v>8.4996975196612201E-2</v>
+        <f>AVERAGE(K2:K89)</f>
+        <v>2.5781303778639089E-2</v>
       </c>
       <c r="L91">
-        <v>1.0714285714285701E-2</v>
+        <f>AVERAGE(L2:L89)</f>
+        <v>2.210628403686369E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92">
+        <f>STDEV(B2:B89)</f>
+        <v>2.2133679296138797E-2</v>
+      </c>
+      <c r="C92">
+        <f>STDEV(C2:C89)</f>
+        <v>3.909276748626922E-2</v>
+      </c>
+      <c r="D92">
+        <f>STDEV(D2:D89)</f>
+        <v>2.645955453281287E-2</v>
+      </c>
+      <c r="E92">
+        <f>STDEV(E2:E89)</f>
+        <v>5.8464652162244959E-2</v>
+      </c>
+      <c r="F92">
+        <f>STDEV(F2:F89)</f>
+        <v>4.9347215659324949E-2</v>
+      </c>
+      <c r="G92">
+        <f>STDEV(G2:G89)</f>
+        <v>4.8153383966033629E-2</v>
+      </c>
+      <c r="H92">
+        <f>STDEV(H2:H89)</f>
+        <v>4.4617366937938115E-2</v>
+      </c>
+      <c r="I92">
+        <f>STDEV(I2:I89)</f>
+        <v>4.7321144004231916E-2</v>
+      </c>
+      <c r="J92">
+        <f>STDEV(J2:J89)</f>
+        <v>4.6528667202621284E-2</v>
+      </c>
+      <c r="K92">
+        <f>STDEV(K2:K89)</f>
+        <v>4.1358059470589147E-2</v>
+      </c>
+      <c r="L92">
+        <f>STDEV(L2:L89)</f>
+        <v>3.3926133595179576E-2</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B93">
-        <f>AVERAGE(B2:B91)</f>
-        <v>2.6602728037047916E-2</v>
+        <f>B92/(SQRT(80))</f>
+        <v>2.4746205749173024E-3</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:L93" si="0">AVERAGE(C2:C91)</f>
-        <v>4.0687725990777523E-2</v>
+        <f t="shared" ref="C93:L93" si="0">C92/(SQRT(80))</f>
+        <v>4.3707042763945778E-3</v>
       </c>
       <c r="D93">
         <f t="shared" si="0"/>
-        <v>3.3645227013912711E-2</v>
+        <v>2.9582681294866133E-3</v>
       </c>
       <c r="E93">
         <f t="shared" si="0"/>
-        <v>6.2507038326198625E-2</v>
+        <v>6.5365468257829896E-3</v>
       </c>
       <c r="F93">
         <f t="shared" si="0"/>
-        <v>3.6697484739173884E-2</v>
+        <v>5.5171864357296341E-3</v>
       </c>
       <c r="G93">
         <f t="shared" si="0"/>
-        <v>5.3724796654714711E-2</v>
+        <v>5.3837119947349804E-3</v>
       </c>
       <c r="H93">
         <f t="shared" si="0"/>
-        <v>3.2506012618024931E-2</v>
+        <v>4.9883732725140633E-3</v>
       </c>
       <c r="I93">
         <f t="shared" si="0"/>
-        <v>3.0522577252611802E-3</v>
+        <v>5.2906647383259581E-3</v>
       </c>
       <c r="J93">
         <f t="shared" si="0"/>
-        <v>-1.1392143958877678E-3</v>
+        <v>5.2020631383763085E-3</v>
       </c>
       <c r="K93">
         <f t="shared" si="0"/>
-        <v>2.580955358702474E-2</v>
+        <v>4.623971619685815E-3</v>
       </c>
       <c r="L93">
         <f t="shared" si="0"/>
-        <v>2.1218784036689788E-2</v>
+        <v>3.7930570466280429E-3</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>13</v>
+      <c r="A94" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B94">
-        <f>STDEV(B2:B91)</f>
-        <v>2.2234522923919645E-2</v>
+        <f>B93*1.96</f>
+        <v>4.8502563268379125E-3</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:L94" si="1">STDEV(C2:C91)</f>
-        <v>3.8968701530890791E-2</v>
+        <f t="shared" ref="C94:L94" si="1">C93*1.96</f>
+        <v>8.5665803817333731E-3</v>
       </c>
       <c r="D94">
         <f t="shared" si="1"/>
-        <v>2.6465015433209459E-2</v>
+        <v>5.7982055337937616E-3</v>
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
-        <v>5.7886582273711504E-2</v>
+        <v>1.2811631778534659E-2</v>
       </c>
       <c r="F94">
         <f t="shared" si="1"/>
-        <v>4.8884012523919829E-2</v>
+        <v>1.0813685414030083E-2</v>
       </c>
       <c r="G94">
         <f t="shared" si="1"/>
-        <v>4.812021723928768E-2</v>
+        <v>1.0552075509680561E-2</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>4.4143945184077091E-2</v>
+        <v>9.777211614127564E-3</v>
       </c>
       <c r="I94">
         <f t="shared" si="1"/>
-        <v>4.7088329885901246E-2</v>
+        <v>1.0369702887118878E-2</v>
       </c>
       <c r="J94">
         <f t="shared" si="1"/>
-        <v>4.6331460549629354E-2</v>
+        <v>1.0196043751217564E-2</v>
       </c>
       <c r="K94">
         <f t="shared" si="1"/>
-        <v>4.090875956370648E-2</v>
+        <v>9.0629843745841966E-3</v>
       </c>
       <c r="L94">
         <f t="shared" si="1"/>
-        <v>3.4061295641342651E-2</v>
+        <v>7.4343918113909642E-3</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B95">
-        <f>B94/(SQRT(80))</f>
-        <v>2.4858952352580853E-3</v>
+        <f>B91+B94</f>
+        <v>3.1100654020230222E-2</v>
       </c>
       <c r="C95">
-        <f t="shared" ref="C95:L95" si="2">C94/(SQRT(80))</f>
-        <v>4.3568332808985961E-3</v>
+        <f t="shared" ref="C95:L95" si="2">C91+C94</f>
+        <v>4.9453688926459898E-2</v>
       </c>
       <c r="D95">
         <f t="shared" si="2"/>
-        <v>2.9588786767118696E-3</v>
+        <v>3.9366958652853175E-2</v>
       </c>
       <c r="E95">
         <f t="shared" si="2"/>
-        <v>6.4719166474576624E-3</v>
+        <v>7.5745666161631878E-2</v>
       </c>
       <c r="F95">
         <f t="shared" si="2"/>
-        <v>5.4653987508217899E-3</v>
+        <v>4.796641601848823E-2</v>
       </c>
       <c r="G95">
         <f t="shared" si="2"/>
-        <v>5.3800038419552255E-3</v>
+        <v>6.5308496330790305E-2</v>
       </c>
       <c r="H95">
         <f t="shared" si="2"/>
-        <v>4.9354431113310419E-3</v>
+        <v>4.2427348398373629E-2</v>
       </c>
       <c r="I95">
         <f t="shared" si="2"/>
-        <v>5.2646353285905048E-3</v>
+        <v>1.3953680372517614E-2</v>
       </c>
       <c r="J95">
         <f t="shared" si="2"/>
-        <v>5.1800147642910499E-3</v>
+        <v>9.2774274164042266E-3</v>
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>4.5737383629821165E-3</v>
+        <v>3.4844288153223282E-2</v>
       </c>
       <c r="L95">
         <f t="shared" si="2"/>
-        <v>3.8081686227879729E-3</v>
+        <v>2.9540675848254653E-2</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>17</v>
+      <c r="A96" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B96">
-        <f>B95*1.96</f>
-        <v>4.8723546611058469E-3</v>
+        <f>B91-B94</f>
+        <v>2.1400141366554399E-2</v>
       </c>
       <c r="C96">
-        <f t="shared" ref="C96:L96" si="3">C95*1.96</f>
-        <v>8.5393932305612482E-3</v>
+        <f t="shared" ref="C96:L96" si="3">C91-C94</f>
+        <v>3.2320528162993155E-2</v>
       </c>
       <c r="D96">
         <f t="shared" si="3"/>
-        <v>5.799402206355264E-3</v>
+        <v>2.7770547585265655E-2</v>
       </c>
       <c r="E96">
         <f t="shared" si="3"/>
-        <v>1.2684956629017018E-2</v>
+        <v>5.0122402604562563E-2</v>
       </c>
       <c r="F96">
         <f t="shared" si="3"/>
-        <v>1.0712181551610708E-2</v>
+        <v>2.6339045190428061E-2</v>
       </c>
       <c r="G96">
         <f t="shared" si="3"/>
-        <v>1.0544807530232242E-2</v>
+        <v>4.420434531142918E-2</v>
       </c>
       <c r="H96">
         <f t="shared" si="3"/>
-        <v>9.6734684982088415E-3</v>
+        <v>2.2872925170118505E-2</v>
       </c>
       <c r="I96">
         <f t="shared" si="3"/>
-        <v>1.0318685244037389E-2</v>
+        <v>-6.7857254017201427E-3</v>
       </c>
       <c r="J96">
         <f t="shared" si="3"/>
-        <v>1.0152828938010458E-2</v>
+        <v>-1.1114660086030901E-2</v>
       </c>
       <c r="K96">
         <f t="shared" si="3"/>
-        <v>8.9645271914449483E-3</v>
+        <v>1.6718319404054893E-2</v>
       </c>
       <c r="L96">
         <f t="shared" si="3"/>
-        <v>7.4640105006644267E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97">
-        <f>B93+B96</f>
-        <v>3.1475082698153765E-2</v>
-      </c>
-      <c r="C97">
-        <f t="shared" ref="C97:L97" si="4">C93+C96</f>
-        <v>4.9227119221338773E-2</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="4"/>
-        <v>3.9444629220267972E-2</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="4"/>
-        <v>7.5191994955215641E-2</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="4"/>
-        <v>4.7409666290784594E-2</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="4"/>
-        <v>6.4269604184946955E-2</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="4"/>
-        <v>4.217948111623377E-2</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="4"/>
-        <v>1.3370942969298569E-2</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="4"/>
-        <v>9.0136145421226901E-3</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="4"/>
-        <v>3.477408077846969E-2</v>
-      </c>
-      <c r="L97">
-        <f t="shared" si="4"/>
-        <v>2.8682794537354214E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B98">
-        <f>B93-B96</f>
-        <v>2.173037337594207E-2</v>
-      </c>
-      <c r="C98">
-        <f t="shared" ref="C98:L98" si="5">C93-C96</f>
-        <v>3.2148332760216274E-2</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="5"/>
-        <v>2.7845824807557446E-2</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="5"/>
-        <v>4.9822081697181608E-2</v>
-      </c>
-      <c r="F98">
-        <f t="shared" si="5"/>
-        <v>2.5985303187563175E-2</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="5"/>
-        <v>4.3179989124482468E-2</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="5"/>
-        <v>2.2832544119816091E-2</v>
-      </c>
-      <c r="I98">
-        <f t="shared" si="5"/>
-        <v>-7.2664275187762084E-3</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="5"/>
-        <v>-1.1292043333898227E-2</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="5"/>
-        <v>1.684502639557979E-2</v>
-      </c>
-      <c r="L98">
-        <f t="shared" si="5"/>
-        <v>1.3754773536025361E-2</v>
+        <v>1.4671892225472726E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4779,11 +4700,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6018,2538 +5939,2462 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>744.69892473118296</v>
+        <v>868.8</v>
       </c>
       <c r="C33">
-        <v>755.01052631578898</v>
+        <v>1070.20930232558</v>
       </c>
       <c r="D33">
-        <v>749.85472552348597</v>
+        <v>969.50465116279099</v>
       </c>
       <c r="E33">
-        <v>1499.7777777777801</v>
+        <v>1664.8461538461499</v>
       </c>
       <c r="F33">
-        <v>1510.28813559322</v>
+        <v>1880.5660377358499</v>
       </c>
       <c r="G33">
-        <v>1603.2033898305101</v>
+        <v>1877.8367346938801</v>
       </c>
       <c r="H33">
-        <v>1438.1272727272701</v>
+        <v>1563.04255319149</v>
       </c>
       <c r="I33">
-        <v>760.43341006973401</v>
+        <v>911.06138657305803</v>
       </c>
       <c r="J33">
-        <v>688.27254720378698</v>
+        <v>593.53790202869902</v>
       </c>
       <c r="K33">
-        <v>-10.5103578154426</v>
+        <v>-215.71988388969501</v>
       </c>
       <c r="L33">
-        <v>165.07611710323599</v>
+        <v>314.79418150238803</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>40</v>
+      <c r="A34">
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>787.52808988764002</v>
+        <v>550.34408602150495</v>
       </c>
       <c r="C34">
-        <v>880.73863636363603</v>
+        <v>571.01063829787199</v>
       </c>
       <c r="D34">
-        <v>834.13336312563797</v>
+        <v>560.67736215968898</v>
       </c>
       <c r="E34">
-        <v>1569.1636363636401</v>
+        <v>1423.7678571428601</v>
       </c>
       <c r="F34">
-        <v>1564.8813559322</v>
+        <v>1440.4262295082001</v>
       </c>
       <c r="G34">
-        <v>1666.2203389830499</v>
+        <v>1373.6842105263199</v>
       </c>
       <c r="H34">
-        <v>1272.4385964912301</v>
+        <v>1136.19298245614</v>
       </c>
       <c r="I34">
-        <v>730.74799280656498</v>
+        <v>879.74886734850804</v>
       </c>
       <c r="J34">
-        <v>438.30523336559003</v>
+        <v>575.51562029645095</v>
       </c>
       <c r="K34">
-        <v>4.2822804314330396</v>
+        <v>-16.658372365339599</v>
       </c>
       <c r="L34">
-        <v>393.78174249182302</v>
+        <v>237.49122807017599</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>868.8</v>
+        <v>427.60465116279101</v>
       </c>
       <c r="C35">
-        <v>1070.20930232558</v>
+        <v>443.16666666666703</v>
       </c>
       <c r="D35">
-        <v>969.50465116279099</v>
+        <v>435.38565891472899</v>
       </c>
       <c r="E35">
-        <v>1664.8461538461499</v>
+        <v>1191</v>
       </c>
       <c r="F35">
-        <v>1880.5660377358499</v>
+        <v>1058.2033898305101</v>
       </c>
       <c r="G35">
-        <v>1877.8367346938801</v>
+        <v>1085.6666666666699</v>
       </c>
       <c r="H35">
-        <v>1563.04255319149</v>
+        <v>1066.4107142857099</v>
       </c>
       <c r="I35">
-        <v>911.06138657305803</v>
+        <v>622.81773091577998</v>
       </c>
       <c r="J35">
-        <v>593.53790202869902</v>
+        <v>631.02505537098602</v>
       </c>
       <c r="K35">
-        <v>-215.71988388969501</v>
+        <v>132.796610169491</v>
       </c>
       <c r="L35">
-        <v>314.79418150238803</v>
+        <v>19.2559523809525</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>550.34408602150495</v>
+        <v>585.86813186813197</v>
       </c>
       <c r="C36">
-        <v>571.01063829787199</v>
+        <v>563.804347826087</v>
       </c>
       <c r="D36">
-        <v>560.67736215968898</v>
+        <v>574.83623984710903</v>
       </c>
       <c r="E36">
-        <v>1423.7678571428601</v>
+        <v>1139.5357142857099</v>
       </c>
       <c r="F36">
-        <v>1440.4262295082001</v>
+        <v>1121.98245614035</v>
       </c>
       <c r="G36">
-        <v>1373.6842105263199</v>
+        <v>1272.7068965517201</v>
       </c>
       <c r="H36">
-        <v>1136.19298245614</v>
+        <v>1361.7931034482799</v>
       </c>
       <c r="I36">
-        <v>879.74886734850804</v>
+        <v>547.14621629324097</v>
       </c>
       <c r="J36">
-        <v>575.51562029645095</v>
+        <v>786.95686360116599</v>
       </c>
       <c r="K36">
-        <v>-16.658372365339599</v>
+        <v>17.553258145363301</v>
       </c>
       <c r="L36">
-        <v>237.49122807017599</v>
+        <v>-89.086206896551602</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
-        <v>427.60465116279101</v>
+        <v>545.57446808510599</v>
       </c>
       <c r="C37">
-        <v>443.16666666666703</v>
+        <v>635.38461538461502</v>
       </c>
       <c r="D37">
-        <v>435.38565891472899</v>
+        <v>590.47954173486096</v>
       </c>
       <c r="E37">
-        <v>1191</v>
+        <v>1356.1724137931001</v>
       </c>
       <c r="F37">
-        <v>1058.2033898305101</v>
+        <v>1337.5964912280699</v>
       </c>
       <c r="G37">
-        <v>1085.6666666666699</v>
+        <v>1131.2280701754401</v>
       </c>
       <c r="H37">
-        <v>1066.4107142857099</v>
+        <v>1087.4210526315801</v>
       </c>
       <c r="I37">
-        <v>622.81773091577998</v>
+        <v>747.11694949320895</v>
       </c>
       <c r="J37">
-        <v>631.02505537098602</v>
+        <v>496.941510896718</v>
       </c>
       <c r="K37">
-        <v>132.796610169491</v>
+        <v>18.575922565033402</v>
       </c>
       <c r="L37">
-        <v>19.2559523809525</v>
+        <v>43.8070175438597</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>585.86813186813197</v>
+        <v>647.66666666666697</v>
       </c>
       <c r="C38">
-        <v>563.804347826087</v>
+        <v>709.87912087912105</v>
       </c>
       <c r="D38">
-        <v>574.83623984710903</v>
+        <v>678.77289377289401</v>
       </c>
       <c r="E38">
-        <v>1139.5357142857099</v>
+        <v>1232.9375</v>
       </c>
       <c r="F38">
-        <v>1121.98245614035</v>
+        <v>1198.4090909090901</v>
       </c>
       <c r="G38">
-        <v>1272.7068965517201</v>
+        <v>1598.01960784314</v>
       </c>
       <c r="H38">
-        <v>1361.7931034482799</v>
+        <v>1393.6530612244901</v>
       </c>
       <c r="I38">
-        <v>547.14621629324097</v>
+        <v>519.63619713619698</v>
       </c>
       <c r="J38">
-        <v>786.95686360116599</v>
+        <v>714.88016745159598</v>
       </c>
       <c r="K38">
-        <v>17.553258145363301</v>
+        <v>34.528409090909001</v>
       </c>
       <c r="L38">
-        <v>-89.086206896551602</v>
+        <v>204.36654661864699</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>545.57446808510599</v>
+        <v>543.33684210526303</v>
       </c>
       <c r="C39">
-        <v>635.38461538461502</v>
+        <v>565.59139784946206</v>
       </c>
       <c r="D39">
-        <v>590.47954173486096</v>
+        <v>554.464119977363</v>
       </c>
       <c r="E39">
-        <v>1356.1724137931001</v>
+        <v>1030.52542372881</v>
       </c>
       <c r="F39">
-        <v>1337.5964912280699</v>
+        <v>1000.25</v>
       </c>
       <c r="G39">
-        <v>1131.2280701754401</v>
+        <v>870.81034482758605</v>
       </c>
       <c r="H39">
-        <v>1087.4210526315801</v>
+        <v>926.892857142857</v>
       </c>
       <c r="I39">
-        <v>747.11694949320895</v>
+        <v>445.785880022637</v>
       </c>
       <c r="J39">
-        <v>496.941510896718</v>
+        <v>372.428737165494</v>
       </c>
       <c r="K39">
-        <v>18.575922565033402</v>
+        <v>30.2754237288136</v>
       </c>
       <c r="L39">
-        <v>43.8070175438597</v>
+        <v>-56.082512315270897</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>647.66666666666697</v>
+        <v>655.53260869565202</v>
       </c>
       <c r="C40">
-        <v>709.87912087912105</v>
+        <v>585.23595505618005</v>
       </c>
       <c r="D40">
-        <v>678.77289377289401</v>
+        <v>620.38428187591603</v>
       </c>
       <c r="E40">
-        <v>1232.9375</v>
+        <v>1462.4081632653099</v>
       </c>
       <c r="F40">
-        <v>1198.4090909090901</v>
+        <v>1475.6101694915301</v>
       </c>
       <c r="G40">
-        <v>1598.01960784314</v>
+        <v>1400.7924528301901</v>
       </c>
       <c r="H40">
-        <v>1393.6530612244901</v>
+        <v>1297.4629629629601</v>
       </c>
       <c r="I40">
-        <v>519.63619713619698</v>
+        <v>855.22588761560905</v>
       </c>
       <c r="J40">
-        <v>714.88016745159598</v>
+        <v>677.07868108704702</v>
       </c>
       <c r="K40">
-        <v>34.528409090909001</v>
+        <v>-13.2020062262193</v>
       </c>
       <c r="L40">
-        <v>204.36654661864699</v>
+        <v>103.329489867226</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>543.33684210526303</v>
+        <v>666.712765957447</v>
       </c>
       <c r="C41">
-        <v>565.59139784946206</v>
+        <v>701.56989247311799</v>
       </c>
       <c r="D41">
-        <v>554.464119977363</v>
+        <v>684.14132921528301</v>
       </c>
       <c r="E41">
-        <v>1030.52542372881</v>
+        <v>1380.3157894736801</v>
       </c>
       <c r="F41">
-        <v>1000.25</v>
+        <v>1389.1206896551701</v>
       </c>
       <c r="G41">
-        <v>870.81034482758605</v>
+        <v>1266.9821428571399</v>
       </c>
       <c r="H41">
-        <v>926.892857142857</v>
+        <v>1351.10344827586</v>
       </c>
       <c r="I41">
-        <v>445.785880022637</v>
+        <v>704.97936043989</v>
       </c>
       <c r="J41">
-        <v>372.428737165494</v>
+        <v>666.96211906057999</v>
       </c>
       <c r="K41">
-        <v>30.2754237288136</v>
+        <v>-8.8049001814881596</v>
       </c>
       <c r="L41">
-        <v>-56.082512315270897</v>
+        <v>-84.121305418719203</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>655.53260869565202</v>
+        <v>674.42391304347802</v>
       </c>
       <c r="C42">
-        <v>585.23595505618005</v>
+        <v>644.34065934065904</v>
       </c>
       <c r="D42">
-        <v>620.38428187591603</v>
+        <v>659.38228619206905</v>
       </c>
       <c r="E42">
-        <v>1462.4081632653099</v>
+        <v>845.375</v>
       </c>
       <c r="F42">
-        <v>1475.6101694915301</v>
+        <v>821.45238095238096</v>
       </c>
       <c r="G42">
-        <v>1400.7924528301901</v>
+        <v>684.61363636363603</v>
       </c>
       <c r="H42">
-        <v>1297.4629629629601</v>
+        <v>790.23255813953494</v>
       </c>
       <c r="I42">
-        <v>855.22588761560905</v>
+        <v>162.070094760312</v>
       </c>
       <c r="J42">
-        <v>677.07868108704702</v>
+        <v>130.85027194746601</v>
       </c>
       <c r="K42">
-        <v>-13.2020062262193</v>
+        <v>23.922619047619001</v>
       </c>
       <c r="L42">
-        <v>103.329489867226</v>
+        <v>-105.618921775898</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>666.712765957447</v>
+        <v>468.10638297872299</v>
       </c>
       <c r="C43">
-        <v>701.56989247311799</v>
+        <v>575.26373626373595</v>
       </c>
       <c r="D43">
-        <v>684.14132921528301</v>
+        <v>521.68505962123004</v>
       </c>
       <c r="E43">
-        <v>1380.3157894736801</v>
+        <v>1000.16666666667</v>
       </c>
       <c r="F43">
-        <v>1389.1206896551701</v>
+        <v>1159.3090909090899</v>
       </c>
       <c r="G43">
-        <v>1266.9821428571399</v>
+        <v>985.28333333333296</v>
       </c>
       <c r="H43">
-        <v>1351.10344827586</v>
+        <v>960.76363636363601</v>
       </c>
       <c r="I43">
-        <v>704.97936043989</v>
+        <v>637.62403128786104</v>
       </c>
       <c r="J43">
-        <v>666.96211906057999</v>
+        <v>439.07857674240699</v>
       </c>
       <c r="K43">
-        <v>-8.8049001814881596</v>
+        <v>-159.142424242424</v>
       </c>
       <c r="L43">
-        <v>-84.121305418719203</v>
+        <v>24.519696969697002</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>674.42391304347802</v>
+        <v>556.468085106383</v>
       </c>
       <c r="C44">
-        <v>644.34065934065904</v>
+        <v>537.71578947368403</v>
       </c>
       <c r="D44">
-        <v>659.38228619206905</v>
+        <v>547.09193729003402</v>
       </c>
       <c r="E44">
-        <v>845.375</v>
+        <v>1479.47457627119</v>
       </c>
       <c r="F44">
-        <v>821.45238095238096</v>
+        <v>1082.9672131147499</v>
       </c>
       <c r="G44">
-        <v>684.61363636363603</v>
+        <v>1446.55172413793</v>
       </c>
       <c r="H44">
-        <v>790.23255813953494</v>
+        <v>1219.2711864406799</v>
       </c>
       <c r="I44">
-        <v>162.070094760312</v>
+        <v>535.87527582472001</v>
       </c>
       <c r="J44">
-        <v>130.85027194746601</v>
+        <v>672.17924915064395</v>
       </c>
       <c r="K44">
-        <v>23.922619047619001</v>
+        <v>396.50736315643201</v>
       </c>
       <c r="L44">
-        <v>-105.618921775898</v>
+        <v>227.28053769725301</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
-        <v>468.10638297872299</v>
+        <v>515.88297872340399</v>
       </c>
       <c r="C45">
-        <v>575.26373626373595</v>
+        <v>618.32608695652198</v>
       </c>
       <c r="D45">
-        <v>521.68505962123004</v>
+        <v>567.10453283996299</v>
       </c>
       <c r="E45">
-        <v>1000.16666666667</v>
+        <v>1304.30952380952</v>
       </c>
       <c r="F45">
-        <v>1159.3090909090899</v>
+        <v>1305.9245283018899</v>
       </c>
       <c r="G45">
-        <v>985.28333333333296</v>
+        <v>569.04545454545496</v>
       </c>
       <c r="H45">
-        <v>960.76363636363601</v>
+        <v>588.26666666666699</v>
       </c>
       <c r="I45">
-        <v>637.62403128786104</v>
+        <v>738.81999546192401</v>
       </c>
       <c r="J45">
-        <v>439.07857674240699</v>
+        <v>21.162133826703698</v>
       </c>
       <c r="K45">
-        <v>-159.142424242424</v>
+        <v>-1.6150044923629101</v>
       </c>
       <c r="L45">
-        <v>24.519696969697002</v>
+        <v>-19.221212121212101</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>556.468085106383</v>
+        <v>493.10638297872299</v>
       </c>
       <c r="C46">
-        <v>537.71578947368403</v>
+        <v>542.82558139534899</v>
       </c>
       <c r="D46">
-        <v>547.09193729003402</v>
+        <v>517.96598218703605</v>
       </c>
       <c r="E46">
-        <v>1479.47457627119</v>
+        <v>1249.7058823529401</v>
       </c>
       <c r="F46">
-        <v>1082.9672131147499</v>
+        <v>1138.4666666666701</v>
       </c>
       <c r="G46">
-        <v>1446.55172413793</v>
+        <v>1309.3157894736801</v>
       </c>
       <c r="H46">
-        <v>1219.2711864406799</v>
+        <v>1194.0909090909099</v>
       </c>
       <c r="I46">
-        <v>535.87527582472001</v>
+        <v>620.50068447963099</v>
       </c>
       <c r="J46">
-        <v>672.17924915064395</v>
+        <v>676.12492690387296</v>
       </c>
       <c r="K46">
-        <v>396.50736315643201</v>
+        <v>111.239215686275</v>
       </c>
       <c r="L46">
-        <v>227.28053769725301</v>
+        <v>115.224880382775</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>515.88297872340399</v>
+        <v>578.875</v>
       </c>
       <c r="C47">
-        <v>618.32608695652198</v>
+        <v>548.91860465116304</v>
       </c>
       <c r="D47">
-        <v>567.10453283996299</v>
+        <v>563.89680232558101</v>
       </c>
       <c r="E47">
-        <v>1304.30952380952</v>
+        <v>1290.0925925925901</v>
       </c>
       <c r="F47">
-        <v>1305.9245283018899</v>
+        <v>1377.87037037037</v>
       </c>
       <c r="G47">
-        <v>569.04545454545496</v>
+        <v>1240.4912280701801</v>
       </c>
       <c r="H47">
-        <v>588.26666666666699</v>
+        <v>1161.06896551724</v>
       </c>
       <c r="I47">
-        <v>738.81999546192401</v>
+        <v>813.97356804478898</v>
       </c>
       <c r="J47">
-        <v>21.162133826703698</v>
+        <v>597.17216319166005</v>
       </c>
       <c r="K47">
-        <v>-1.6150044923629101</v>
+        <v>-87.7777777777778</v>
       </c>
       <c r="L47">
-        <v>-19.221212121212101</v>
+        <v>79.422262552933901</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>493.10638297872299</v>
+        <v>830.01086956521704</v>
       </c>
       <c r="C48">
-        <v>542.82558139534899</v>
+        <v>789.39772727272702</v>
       </c>
       <c r="D48">
-        <v>517.96598218703605</v>
+        <v>809.70429841897203</v>
       </c>
       <c r="E48">
-        <v>1249.7058823529401</v>
+        <v>2043.76</v>
       </c>
       <c r="F48">
-        <v>1138.4666666666701</v>
+        <v>1781.67857142857</v>
       </c>
       <c r="G48">
-        <v>1309.3157894736801</v>
+        <v>1839.1666666666699</v>
       </c>
       <c r="H48">
-        <v>1194.0909090909099</v>
+        <v>1476.66</v>
       </c>
       <c r="I48">
-        <v>620.50068447963099</v>
+        <v>971.97427300959896</v>
       </c>
       <c r="J48">
-        <v>676.12492690387296</v>
+        <v>666.95570158102805</v>
       </c>
       <c r="K48">
-        <v>111.239215686275</v>
+        <v>262.081428571429</v>
       </c>
       <c r="L48">
-        <v>115.224880382775</v>
+        <v>362.506666666667</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>578.875</v>
+        <v>649.53333333333296</v>
       </c>
       <c r="C49">
-        <v>548.91860465116304</v>
+        <v>743.01075268817203</v>
       </c>
       <c r="D49">
-        <v>563.89680232558101</v>
+        <v>696.27204301075301</v>
       </c>
       <c r="E49">
-        <v>1290.0925925925901</v>
+        <v>1430.5918367346901</v>
       </c>
       <c r="F49">
-        <v>1377.87037037037</v>
+        <v>1637.125</v>
       </c>
       <c r="G49">
-        <v>1240.4912280701801</v>
+        <v>1510.6140350877199</v>
       </c>
       <c r="H49">
-        <v>1161.06896551724</v>
+        <v>1278.15789473684</v>
       </c>
       <c r="I49">
-        <v>813.97356804478898</v>
+        <v>940.85295698924699</v>
       </c>
       <c r="J49">
-        <v>597.17216319166005</v>
+        <v>581.88585172608896</v>
       </c>
       <c r="K49">
-        <v>-87.7777777777778</v>
+        <v>-206.533163265306</v>
       </c>
       <c r="L49">
-        <v>79.422262552933901</v>
+        <v>232.45614035087701</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>830.01086956521704</v>
+        <v>848.97849462365605</v>
       </c>
       <c r="C50">
-        <v>789.39772727272702</v>
+        <v>921.59782608695696</v>
       </c>
       <c r="D50">
-        <v>809.70429841897203</v>
+        <v>885.28816035530599</v>
       </c>
       <c r="E50">
-        <v>2043.76</v>
+        <v>1775.95454545455</v>
       </c>
       <c r="F50">
-        <v>1781.67857142857</v>
+        <v>1294.8909090909101</v>
       </c>
       <c r="G50">
-        <v>1839.1666666666699</v>
+        <v>1698.8392857142901</v>
       </c>
       <c r="H50">
-        <v>1476.66</v>
+        <v>1247.6923076923099</v>
       </c>
       <c r="I50">
-        <v>971.97427300959896</v>
+        <v>409.60274873560297</v>
       </c>
       <c r="J50">
-        <v>666.95570158102805</v>
+        <v>362.40414733700101</v>
       </c>
       <c r="K50">
-        <v>262.081428571429</v>
+        <v>481.06363636363602</v>
       </c>
       <c r="L50">
-        <v>362.506666666667</v>
+        <v>451.14697802197799</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>649.53333333333296</v>
+        <v>697.94680851063799</v>
       </c>
       <c r="C51">
-        <v>743.01075268817203</v>
+        <v>767.71739130434798</v>
       </c>
       <c r="D51">
-        <v>696.27204301075301</v>
+        <v>732.83209990749299</v>
       </c>
       <c r="E51">
-        <v>1430.5918367346901</v>
+        <v>1674.0588235294099</v>
       </c>
       <c r="F51">
-        <v>1637.125</v>
+        <v>1308.05084745763</v>
       </c>
       <c r="G51">
-        <v>1510.6140350877199</v>
+        <v>1470.96551724138</v>
       </c>
       <c r="H51">
-        <v>1278.15789473684</v>
+        <v>1419.6551724137901</v>
       </c>
       <c r="I51">
-        <v>940.85295698924699</v>
+        <v>575.21874755013403</v>
       </c>
       <c r="J51">
-        <v>581.88585172608896</v>
+        <v>686.82307250630004</v>
       </c>
       <c r="K51">
-        <v>-206.533163265306</v>
+        <v>366.00797607178498</v>
       </c>
       <c r="L51">
-        <v>232.45614035087701</v>
+        <v>51.310344827586299</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>848.97849462365605</v>
+        <v>522.91489361702099</v>
       </c>
       <c r="C52">
-        <v>921.59782608695696</v>
+        <v>506.07368421052598</v>
       </c>
       <c r="D52">
-        <v>885.28816035530599</v>
+        <v>514.49428891377397</v>
       </c>
       <c r="E52">
-        <v>1775.95454545455</v>
+        <v>1073.7241379310301</v>
       </c>
       <c r="F52">
-        <v>1294.8909090909101</v>
+        <v>978.98333333333301</v>
       </c>
       <c r="G52">
-        <v>1698.8392857142901</v>
+        <v>1093.56666666667</v>
       </c>
       <c r="H52">
-        <v>1247.6923076923099</v>
+        <v>1017.08474576271</v>
       </c>
       <c r="I52">
-        <v>409.60274873560297</v>
+        <v>464.48904441956</v>
       </c>
       <c r="J52">
-        <v>362.40414733700101</v>
+        <v>502.590456848938</v>
       </c>
       <c r="K52">
-        <v>481.06363636363602</v>
+        <v>94.7408045977011</v>
       </c>
       <c r="L52">
-        <v>451.14697802197799</v>
+        <v>76.481920903954702</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>697.94680851063799</v>
+        <v>630.10638297872299</v>
       </c>
       <c r="C53">
-        <v>767.71739130434798</v>
+        <v>650.24210526315801</v>
       </c>
       <c r="D53">
-        <v>732.83209990749299</v>
+        <v>640.17424412094101</v>
       </c>
       <c r="E53">
-        <v>1674.0588235294099</v>
+        <v>1249.52542372881</v>
       </c>
       <c r="F53">
-        <v>1308.05084745763</v>
+        <v>1331.08620689655</v>
       </c>
       <c r="G53">
-        <v>1470.96551724138</v>
+        <v>1327.93333333333</v>
       </c>
       <c r="H53">
-        <v>1419.6551724137901</v>
+        <v>1274.9649122807</v>
       </c>
       <c r="I53">
-        <v>575.21874755013403</v>
+        <v>690.91196277561096</v>
       </c>
       <c r="J53">
-        <v>686.82307250630004</v>
+        <v>634.79066815976103</v>
       </c>
       <c r="K53">
-        <v>366.00797607178498</v>
+        <v>-81.560783167737995</v>
       </c>
       <c r="L53">
-        <v>51.310344827586299</v>
+        <v>52.968421052631598</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>522.91489361702099</v>
+        <v>526.98947368421102</v>
       </c>
       <c r="C54">
-        <v>506.07368421052598</v>
+        <v>577.43157894736805</v>
       </c>
       <c r="D54">
-        <v>514.49428891377397</v>
+        <v>552.21052631578902</v>
       </c>
       <c r="E54">
-        <v>1073.7241379310301</v>
+        <v>1098.0169491525401</v>
       </c>
       <c r="F54">
-        <v>978.98333333333301</v>
+        <v>1129.56666666667</v>
       </c>
       <c r="G54">
-        <v>1093.56666666667</v>
+        <v>1069.64406779661</v>
       </c>
       <c r="H54">
-        <v>1017.08474576271</v>
+        <v>998.05084745762701</v>
       </c>
       <c r="I54">
-        <v>464.48904441956</v>
+        <v>577.35614035087701</v>
       </c>
       <c r="J54">
-        <v>502.590456848938</v>
+        <v>445.84032114183799</v>
       </c>
       <c r="K54">
-        <v>94.7408045977011</v>
+        <v>-31.5497175141243</v>
       </c>
       <c r="L54">
-        <v>76.481920903954702</v>
+        <v>71.593220338983102</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>630.10638297872299</v>
+        <v>600.84210526315803</v>
       </c>
       <c r="C55">
-        <v>650.24210526315801</v>
+        <v>919.054347826087</v>
       </c>
       <c r="D55">
-        <v>640.17424412094101</v>
+        <v>759.948226544622</v>
       </c>
       <c r="E55">
-        <v>1249.52542372881</v>
+        <v>1337.3928571428601</v>
       </c>
       <c r="F55">
-        <v>1331.08620689655</v>
+        <v>1411.18644067797</v>
       </c>
       <c r="G55">
-        <v>1327.93333333333</v>
+        <v>1435.0169491525401</v>
       </c>
       <c r="H55">
-        <v>1274.9649122807</v>
+        <v>1202.53448275862</v>
       </c>
       <c r="I55">
-        <v>690.91196277561096</v>
+        <v>651.23821413334394</v>
       </c>
       <c r="J55">
-        <v>634.79066815976103</v>
+        <v>442.58625621399801</v>
       </c>
       <c r="K55">
-        <v>-81.560783167737995</v>
+        <v>-73.793583535109093</v>
       </c>
       <c r="L55">
-        <v>52.968421052631598</v>
+        <v>232.48246639392201</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>526.98947368421102</v>
+        <v>606.40860215053794</v>
       </c>
       <c r="C56">
-        <v>577.43157894736805</v>
+        <v>542.91111111111104</v>
       </c>
       <c r="D56">
-        <v>552.21052631578902</v>
+        <v>574.65985663082404</v>
       </c>
       <c r="E56">
-        <v>1098.0169491525401</v>
+        <v>1511.98113207547</v>
       </c>
       <c r="F56">
-        <v>1129.56666666667</v>
+        <v>1549.6551724137901</v>
       </c>
       <c r="G56">
-        <v>1069.64406779661</v>
+        <v>1349.6909090909101</v>
       </c>
       <c r="H56">
-        <v>998.05084745762701</v>
+        <v>1059.1320754717001</v>
       </c>
       <c r="I56">
-        <v>577.35614035087701</v>
+        <v>974.99531578296899</v>
       </c>
       <c r="J56">
-        <v>445.84032114183799</v>
+        <v>484.47221884087401</v>
       </c>
       <c r="K56">
-        <v>-31.5497175141243</v>
+        <v>-37.674040338321198</v>
       </c>
       <c r="L56">
-        <v>71.593220338983102</v>
+        <v>290.55883361921099</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B57">
-        <v>600.84210526315803</v>
+        <v>509.87368421052599</v>
       </c>
       <c r="C57">
-        <v>919.054347826087</v>
+        <v>568.36559139784902</v>
       </c>
       <c r="D57">
-        <v>759.948226544622</v>
+        <v>539.11963780418796</v>
       </c>
       <c r="E57">
-        <v>1337.3928571428601</v>
+        <v>1039.8571428571399</v>
       </c>
       <c r="F57">
-        <v>1411.18644067797</v>
+        <v>1073.75</v>
       </c>
       <c r="G57">
-        <v>1435.0169491525401</v>
+        <v>1264.25490196078</v>
       </c>
       <c r="H57">
-        <v>1202.53448275862</v>
+        <v>994.28301886792497</v>
       </c>
       <c r="I57">
-        <v>651.23821413334394</v>
+        <v>534.63036219581204</v>
       </c>
       <c r="J57">
-        <v>442.58625621399801</v>
+        <v>455.16338106373701</v>
       </c>
       <c r="K57">
-        <v>-73.793583535109093</v>
+        <v>-33.892857142857103</v>
       </c>
       <c r="L57">
-        <v>232.48246639392201</v>
+        <v>269.97188309286003</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>606.40860215053794</v>
+        <v>472.69791666666703</v>
       </c>
       <c r="C58">
-        <v>542.91111111111104</v>
+        <v>521.98936170212801</v>
       </c>
       <c r="D58">
-        <v>574.65985663082404</v>
+        <v>497.34363918439698</v>
       </c>
       <c r="E58">
-        <v>1511.98113207547</v>
+        <v>992.51724137931001</v>
       </c>
       <c r="F58">
-        <v>1549.6551724137901</v>
+        <v>955.27586206896501</v>
       </c>
       <c r="G58">
-        <v>1349.6909090909101</v>
+        <v>938.28571428571399</v>
       </c>
       <c r="H58">
-        <v>1059.1320754717001</v>
+        <v>818.46428571428601</v>
       </c>
       <c r="I58">
-        <v>974.99531578296899</v>
+        <v>457.93222288456798</v>
       </c>
       <c r="J58">
-        <v>484.47221884087401</v>
+        <v>321.12064652988897</v>
       </c>
       <c r="K58">
-        <v>-37.674040338321198</v>
+        <v>37.241379310344897</v>
       </c>
       <c r="L58">
-        <v>290.55883361921099</v>
+        <v>119.821428571429</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>509.87368421052599</v>
+        <v>529.462365591398</v>
       </c>
       <c r="C59">
-        <v>568.36559139784902</v>
+        <v>536.13829787233999</v>
       </c>
       <c r="D59">
-        <v>539.11963780418796</v>
+        <v>532.80033173186905</v>
       </c>
       <c r="E59">
-        <v>1039.8571428571399</v>
+        <v>1185.7962962962999</v>
       </c>
       <c r="F59">
-        <v>1073.75</v>
+        <v>1142.2711864406799</v>
       </c>
       <c r="G59">
-        <v>1264.25490196078</v>
+        <v>1040.4576271186399</v>
       </c>
       <c r="H59">
-        <v>994.28301886792497</v>
+        <v>1051.4210526315801</v>
       </c>
       <c r="I59">
-        <v>534.63036219581204</v>
+        <v>609.47085470880904</v>
       </c>
       <c r="J59">
-        <v>455.16338106373701</v>
+        <v>518.62072089971002</v>
       </c>
       <c r="K59">
-        <v>-33.892857142857103</v>
+        <v>43.525109855618403</v>
       </c>
       <c r="L59">
-        <v>269.97188309286003</v>
+        <v>-10.963425512934901</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>472.69791666666703</v>
+        <v>497.97802197802201</v>
       </c>
       <c r="C60">
-        <v>521.98936170212801</v>
+        <v>532.18888888888898</v>
       </c>
       <c r="D60">
-        <v>497.34363918439698</v>
+        <v>515.08345543345501</v>
       </c>
       <c r="E60">
-        <v>992.51724137931001</v>
+        <v>987.13207547169804</v>
       </c>
       <c r="F60">
-        <v>955.27586206896501</v>
+        <v>735.46551724137896</v>
       </c>
       <c r="G60">
-        <v>938.28571428571399</v>
+        <v>1085.7222222222199</v>
       </c>
       <c r="H60">
-        <v>818.46428571428601</v>
+        <v>790.21568627450995</v>
       </c>
       <c r="I60">
-        <v>457.93222288456798</v>
+        <v>220.382061807924</v>
       </c>
       <c r="J60">
-        <v>321.12064652988897</v>
+        <v>275.13223084105402</v>
       </c>
       <c r="K60">
-        <v>37.241379310344897</v>
+        <v>251.666558230319</v>
       </c>
       <c r="L60">
-        <v>119.821428571429</v>
+        <v>295.506535947712</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>529.462365591398</v>
+        <v>870.79787234042601</v>
       </c>
       <c r="C61">
-        <v>536.13829787233999</v>
+        <v>1041.5977011494299</v>
       </c>
       <c r="D61">
-        <v>532.80033173186905</v>
+        <v>956.197786744925</v>
       </c>
       <c r="E61">
-        <v>1185.7962962962999</v>
+        <v>1509.4130434782601</v>
       </c>
       <c r="F61">
-        <v>1142.2711864406799</v>
+        <v>1225.69387755102</v>
       </c>
       <c r="G61">
-        <v>1040.4576271186399</v>
+        <v>1756.0338983050799</v>
       </c>
       <c r="H61">
-        <v>1051.4210526315801</v>
+        <v>1388.47272727273</v>
       </c>
       <c r="I61">
-        <v>609.47085470880904</v>
+        <v>269.49609080609503</v>
       </c>
       <c r="J61">
-        <v>518.62072089971002</v>
+        <v>432.27494052780202</v>
       </c>
       <c r="K61">
-        <v>43.525109855618403</v>
+        <v>283.71916592724</v>
       </c>
       <c r="L61">
-        <v>-10.963425512934901</v>
+        <v>367.56117103235698</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>497.97802197802201</v>
+        <v>535.08988764044898</v>
       </c>
       <c r="C62">
-        <v>532.18888888888898</v>
+        <v>566.77906976744202</v>
       </c>
       <c r="D62">
-        <v>515.08345543345501</v>
+        <v>550.93447870394596</v>
       </c>
       <c r="E62">
-        <v>987.13207547169804</v>
+        <v>1145.21818181818</v>
       </c>
       <c r="F62">
-        <v>735.46551724137896</v>
+        <v>1111.5263157894699</v>
       </c>
       <c r="G62">
-        <v>1085.7222222222199</v>
+        <v>1217.8</v>
       </c>
       <c r="H62">
-        <v>790.21568627450995</v>
+        <v>1026.98245614035</v>
       </c>
       <c r="I62">
-        <v>220.382061807924</v>
+        <v>560.59183708552803</v>
       </c>
       <c r="J62">
-        <v>275.13223084105402</v>
+        <v>476.04797743640501</v>
       </c>
       <c r="K62">
-        <v>251.666558230319</v>
+        <v>33.691866028708098</v>
       </c>
       <c r="L62">
-        <v>295.506535947712</v>
+        <v>190.81754385964899</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>870.79787234042601</v>
+        <v>691.78947368421098</v>
       </c>
       <c r="C63">
-        <v>1041.5977011494299</v>
+        <v>868.02150537634395</v>
       </c>
       <c r="D63">
-        <v>956.197786744925</v>
+        <v>779.90548953027701</v>
       </c>
       <c r="E63">
-        <v>1509.4130434782601</v>
+        <v>1292.7192982456099</v>
       </c>
       <c r="F63">
-        <v>1225.69387755102</v>
+        <v>1428.3392857142901</v>
       </c>
       <c r="G63">
-        <v>1756.0338983050799</v>
+        <v>1234.6500000000001</v>
       </c>
       <c r="H63">
-        <v>1388.47272727273</v>
+        <v>1164.3793103448299</v>
       </c>
       <c r="I63">
-        <v>269.49609080609503</v>
+        <v>648.433796184009</v>
       </c>
       <c r="J63">
-        <v>432.27494052780202</v>
+        <v>384.47382081454998</v>
       </c>
       <c r="K63">
-        <v>283.71916592724</v>
+        <v>-135.61998746867201</v>
       </c>
       <c r="L63">
-        <v>367.56117103235698</v>
+        <v>70.270689655172404</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>535.08988764044898</v>
+        <v>605.84269662921304</v>
       </c>
       <c r="C64">
-        <v>566.77906976744202</v>
+        <v>686.10112359550601</v>
       </c>
       <c r="D64">
-        <v>550.93447870394596</v>
+        <v>645.97191011235998</v>
       </c>
       <c r="E64">
-        <v>1145.21818181818</v>
+        <v>1467.8297872340399</v>
       </c>
       <c r="F64">
-        <v>1111.5263157894699</v>
+        <v>1350.64705882353</v>
       </c>
       <c r="G64">
-        <v>1217.8</v>
+        <v>1548.3461538461499</v>
       </c>
       <c r="H64">
-        <v>1026.98245614035</v>
+        <v>1259.1818181818201</v>
       </c>
       <c r="I64">
-        <v>560.59183708552803</v>
+        <v>704.67514871116998</v>
       </c>
       <c r="J64">
-        <v>476.04797743640501</v>
+        <v>613.20990806945895</v>
       </c>
       <c r="K64">
-        <v>33.691866028708098</v>
+        <v>117.18272841051299</v>
       </c>
       <c r="L64">
-        <v>190.81754385964899</v>
+        <v>289.16433566433602</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>691.78947368421098</v>
+        <v>919.389473684211</v>
       </c>
       <c r="C65">
-        <v>868.02150537634395</v>
+        <v>1154.45744680851</v>
       </c>
       <c r="D65">
-        <v>779.90548953027701</v>
+        <v>1036.92346024636</v>
       </c>
       <c r="E65">
-        <v>1292.7192982456099</v>
+        <v>2713.0357142857101</v>
       </c>
       <c r="F65">
-        <v>1428.3392857142901</v>
+        <v>2422.18644067797</v>
       </c>
       <c r="G65">
-        <v>1234.6500000000001</v>
+        <v>2241.1818181818198</v>
       </c>
       <c r="H65">
-        <v>1164.3793103448299</v>
+        <v>2107.8867924528299</v>
       </c>
       <c r="I65">
-        <v>648.433796184009</v>
+        <v>1385.26298043161</v>
       </c>
       <c r="J65">
-        <v>384.47382081454998</v>
+        <v>1070.9633322064701</v>
       </c>
       <c r="K65">
-        <v>-135.61998746867201</v>
+        <v>290.84927360774799</v>
       </c>
       <c r="L65">
-        <v>70.270689655172404</v>
+        <v>133.29502572898801</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>605.84269662921304</v>
+        <v>1263.1818181818201</v>
       </c>
       <c r="C66">
-        <v>686.10112359550601</v>
+        <v>1003.37837837838</v>
       </c>
       <c r="D66">
-        <v>645.97191011235998</v>
+        <v>1133.2800982801</v>
       </c>
       <c r="E66">
-        <v>1467.8297872340399</v>
+        <v>1599.9</v>
       </c>
       <c r="F66">
-        <v>1350.64705882353</v>
+        <v>1810.3125</v>
       </c>
       <c r="G66">
-        <v>1548.3461538461499</v>
+        <v>1809.9107142857099</v>
       </c>
       <c r="H66">
-        <v>1259.1818181818201</v>
+        <v>1763.54</v>
       </c>
       <c r="I66">
-        <v>704.67514871116998</v>
+        <v>677.03240171990205</v>
       </c>
       <c r="J66">
-        <v>613.20990806945895</v>
+        <v>630.25990171990202</v>
       </c>
       <c r="K66">
-        <v>117.18272841051299</v>
+        <v>-210.41249999999999</v>
       </c>
       <c r="L66">
-        <v>289.16433566433602</v>
+        <v>46.3707142857143</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>919.389473684211</v>
+        <v>613.93548387096803</v>
       </c>
       <c r="C67">
-        <v>1154.45744680851</v>
+        <v>675.70967741935499</v>
       </c>
       <c r="D67">
-        <v>1036.92346024636</v>
+        <v>644.822580645161</v>
       </c>
       <c r="E67">
-        <v>2713.0357142857101</v>
+        <v>1528.2962962962999</v>
       </c>
       <c r="F67">
-        <v>2422.18644067797</v>
+        <v>1508.3636363636399</v>
       </c>
       <c r="G67">
-        <v>2241.1818181818198</v>
+        <v>1571.3859649122801</v>
       </c>
       <c r="H67">
-        <v>2107.8867924528299</v>
+        <v>1270.07407407407</v>
       </c>
       <c r="I67">
-        <v>1385.26298043161</v>
+        <v>863.54105571847504</v>
       </c>
       <c r="J67">
-        <v>1070.9633322064701</v>
+        <v>625.25149342891302</v>
       </c>
       <c r="K67">
-        <v>290.84927360774799</v>
+        <v>19.932659932659998</v>
       </c>
       <c r="L67">
-        <v>133.29502572898801</v>
+        <v>301.31189083820698</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>1263.1818181818201</v>
+        <v>675.45652173913004</v>
       </c>
       <c r="C68">
-        <v>1003.37837837838</v>
+        <v>691.83695652173901</v>
       </c>
       <c r="D68">
-        <v>1133.2800982801</v>
+        <v>683.64673913043498</v>
       </c>
       <c r="E68">
-        <v>1599.9</v>
+        <v>1589.6923076923099</v>
       </c>
       <c r="F68">
-        <v>1810.3125</v>
+        <v>1138.94736842105</v>
       </c>
       <c r="G68">
-        <v>1809.9107142857099</v>
+        <v>1789.1525423728799</v>
       </c>
       <c r="H68">
-        <v>1763.54</v>
+        <v>1390.4814814814799</v>
       </c>
       <c r="I68">
-        <v>677.03240171990205</v>
+        <v>455.30062929061802</v>
       </c>
       <c r="J68">
-        <v>630.25990171990202</v>
+        <v>706.834742351047</v>
       </c>
       <c r="K68">
-        <v>-210.41249999999999</v>
+        <v>450.74493927125502</v>
       </c>
       <c r="L68">
-        <v>46.3707142857143</v>
+        <v>398.67106089139997</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B69">
-        <v>613.93548387096803</v>
+        <v>783.52127659574501</v>
       </c>
       <c r="C69">
-        <v>675.70967741935499</v>
+        <v>929.97849462365605</v>
       </c>
       <c r="D69">
-        <v>644.822580645161</v>
+        <v>856.74988560969996</v>
       </c>
       <c r="E69">
-        <v>1528.2962962962999</v>
+        <v>1961.6666666666699</v>
       </c>
       <c r="F69">
-        <v>1508.3636363636399</v>
+        <v>2161.7966101694901</v>
       </c>
       <c r="G69">
-        <v>1571.3859649122801</v>
+        <v>2210.8070175438602</v>
       </c>
       <c r="H69">
-        <v>1270.07407407407</v>
+        <v>1805.27272727273</v>
       </c>
       <c r="I69">
-        <v>863.54105571847504</v>
+        <v>1305.0467245597899</v>
       </c>
       <c r="J69">
-        <v>625.25149342891302</v>
+        <v>948.52284166302695</v>
       </c>
       <c r="K69">
-        <v>19.932659932659998</v>
+        <v>-200.129943502825</v>
       </c>
       <c r="L69">
-        <v>301.31189083820698</v>
+        <v>405.53429027113202</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B70">
-        <v>675.45652173913004</v>
+        <v>736.33333333333303</v>
       </c>
       <c r="C70">
-        <v>691.83695652173901</v>
+        <v>746.63157894736798</v>
       </c>
       <c r="D70">
-        <v>683.64673913043498</v>
+        <v>741.48245614035102</v>
       </c>
       <c r="E70">
-        <v>1589.6923076923099</v>
+        <v>1465.35849056604</v>
       </c>
       <c r="F70">
-        <v>1138.94736842105</v>
+        <v>1350.5593220338999</v>
       </c>
       <c r="G70">
-        <v>1789.1525423728799</v>
+        <v>1343.94915254237</v>
       </c>
       <c r="H70">
-        <v>1390.4814814814799</v>
+        <v>1117.01754385965</v>
       </c>
       <c r="I70">
-        <v>455.30062929061802</v>
+        <v>609.07686589354705</v>
       </c>
       <c r="J70">
-        <v>706.834742351047</v>
+        <v>375.53508771929802</v>
       </c>
       <c r="K70">
-        <v>450.74493927125502</v>
+        <v>114.79916853213901</v>
       </c>
       <c r="L70">
-        <v>398.67106089139997</v>
+        <v>226.931608682724</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B71">
-        <v>783.52127659574501</v>
+        <v>541.84782608695696</v>
       </c>
       <c r="C71">
-        <v>929.97849462365605</v>
+        <v>686.57303370786497</v>
       </c>
       <c r="D71">
-        <v>856.74988560969996</v>
+        <v>614.21042989741102</v>
       </c>
       <c r="E71">
-        <v>1961.6666666666699</v>
+        <v>1490.3392857142901</v>
       </c>
       <c r="F71">
-        <v>2161.7966101694901</v>
+        <v>1147.31666666667</v>
       </c>
       <c r="G71">
-        <v>2210.8070175438602</v>
+        <v>1696.1454545454501</v>
       </c>
       <c r="H71">
-        <v>1805.27272727273</v>
+        <v>1165.75925925926</v>
       </c>
       <c r="I71">
-        <v>1305.0467245597899</v>
+        <v>533.10623676925604</v>
       </c>
       <c r="J71">
-        <v>948.52284166302695</v>
+        <v>551.54882936184799</v>
       </c>
       <c r="K71">
-        <v>-200.129943502825</v>
+        <v>343.022619047619</v>
       </c>
       <c r="L71">
-        <v>405.53429027113202</v>
+        <v>530.38619528619495</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B72">
-        <v>736.33333333333303</v>
+        <v>586.15053763440903</v>
       </c>
       <c r="C72">
-        <v>746.63157894736798</v>
+        <v>627.05319148936201</v>
       </c>
       <c r="D72">
-        <v>741.48245614035102</v>
+        <v>606.60186456188501</v>
       </c>
       <c r="E72">
-        <v>1465.35849056604</v>
+        <v>1394.9107142857099</v>
       </c>
       <c r="F72">
-        <v>1350.5593220338999</v>
+        <v>1383.4181818181801</v>
       </c>
       <c r="G72">
-        <v>1343.94915254237</v>
+        <v>1313.57627118644</v>
       </c>
       <c r="H72">
-        <v>1117.01754385965</v>
+        <v>1133.4629629629601</v>
       </c>
       <c r="I72">
-        <v>609.07686589354705</v>
+        <v>776.816317256297</v>
       </c>
       <c r="J72">
-        <v>375.53508771929802</v>
+        <v>526.86109840107804</v>
       </c>
       <c r="K72">
-        <v>114.79916853213901</v>
+        <v>11.4925324675323</v>
       </c>
       <c r="L72">
-        <v>226.931608682724</v>
+        <v>180.11330822347799</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B73">
-        <v>541.84782608695696</v>
+        <v>720.04255319148899</v>
       </c>
       <c r="C73">
-        <v>686.57303370786497</v>
+        <v>697.86315789473701</v>
       </c>
       <c r="D73">
-        <v>614.21042989741102</v>
+        <v>708.95285554311295</v>
       </c>
       <c r="E73">
-        <v>1490.3392857142901</v>
+        <v>1317.46551724138</v>
       </c>
       <c r="F73">
-        <v>1147.31666666667</v>
+        <v>1063.2033898305101</v>
       </c>
       <c r="G73">
-        <v>1696.1454545454501</v>
+        <v>1562.74545454545</v>
       </c>
       <c r="H73">
-        <v>1165.75925925926</v>
+        <v>1222.75</v>
       </c>
       <c r="I73">
-        <v>533.10623676925604</v>
+        <v>354.250534287395</v>
       </c>
       <c r="J73">
-        <v>551.54882936184799</v>
+        <v>513.79714445688705</v>
       </c>
       <c r="K73">
-        <v>343.022619047619</v>
+        <v>254.26212741087099</v>
       </c>
       <c r="L73">
-        <v>530.38619528619495</v>
+        <v>339.995454545455</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B74">
-        <v>586.15053763440903</v>
+        <v>718.41489361702099</v>
       </c>
       <c r="C74">
-        <v>627.05319148936201</v>
+        <v>965.244680851064</v>
       </c>
       <c r="D74">
-        <v>606.60186456188501</v>
+        <v>841.82978723404199</v>
       </c>
       <c r="E74">
-        <v>1394.9107142857099</v>
+        <v>1979.46551724138</v>
       </c>
       <c r="F74">
-        <v>1383.4181818181801</v>
+        <v>2012.8275862068999</v>
       </c>
       <c r="G74">
-        <v>1313.57627118644</v>
+        <v>1631.5818181818199</v>
       </c>
       <c r="H74">
-        <v>1133.4629629629601</v>
+        <v>1352.9090909090901</v>
       </c>
       <c r="I74">
-        <v>776.816317256297</v>
+        <v>1170.99779897285</v>
       </c>
       <c r="J74">
-        <v>526.86109840107804</v>
+        <v>511.079303675049</v>
       </c>
       <c r="K74">
-        <v>11.4925324675323</v>
+        <v>-33.362068965517203</v>
       </c>
       <c r="L74">
-        <v>180.11330822347799</v>
+        <v>278.672727272727</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B75">
-        <v>720.04255319148899</v>
+        <v>668.563829787234</v>
       </c>
       <c r="C75">
-        <v>697.86315789473701</v>
+        <v>688.91397849462396</v>
       </c>
       <c r="D75">
-        <v>708.95285554311295</v>
+        <v>678.73890414092898</v>
       </c>
       <c r="E75">
-        <v>1317.46551724138</v>
+        <v>1462.56896551724</v>
       </c>
       <c r="F75">
-        <v>1063.2033898305101</v>
+        <v>1336.30357142857</v>
       </c>
       <c r="G75">
-        <v>1562.74545454545</v>
+        <v>1673.4912280701801</v>
       </c>
       <c r="H75">
-        <v>1222.75</v>
+        <v>1353.9649122807</v>
       </c>
       <c r="I75">
-        <v>354.250534287395</v>
+        <v>657.56466728764303</v>
       </c>
       <c r="J75">
-        <v>513.79714445688705</v>
+        <v>675.22600813977294</v>
       </c>
       <c r="K75">
-        <v>254.26212741087099</v>
+        <v>126.26539408867001</v>
       </c>
       <c r="L75">
-        <v>339.995454545455</v>
+        <v>319.52631578947398</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B76">
-        <v>718.41489361702099</v>
+        <v>610.45833333333303</v>
       </c>
       <c r="C76">
-        <v>965.244680851064</v>
+        <v>639.01063829787199</v>
       </c>
       <c r="D76">
-        <v>841.82978723404199</v>
+        <v>624.73448581560297</v>
       </c>
       <c r="E76">
-        <v>1979.46551724138</v>
+        <v>1321.0357142857099</v>
       </c>
       <c r="F76">
-        <v>2012.8275862068999</v>
+        <v>1274.1803278688501</v>
       </c>
       <c r="G76">
-        <v>1631.5818181818199</v>
+        <v>1174.8727272727299</v>
       </c>
       <c r="H76">
-        <v>1352.9090909090901</v>
+        <v>1203.6071428571399</v>
       </c>
       <c r="I76">
-        <v>1170.99779897285</v>
+        <v>649.44584205324998</v>
       </c>
       <c r="J76">
-        <v>511.079303675049</v>
+        <v>578.87265704154004</v>
       </c>
       <c r="K76">
-        <v>-33.362068965517203</v>
+        <v>46.855386416861798</v>
       </c>
       <c r="L76">
-        <v>278.672727272727</v>
+        <v>-28.7344155844157</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B77">
-        <v>668.563829787234</v>
+        <v>604.59375</v>
       </c>
       <c r="C77">
-        <v>688.91397849462396</v>
+        <v>829.01086956521704</v>
       </c>
       <c r="D77">
-        <v>678.73890414092898</v>
+        <v>716.80230978260897</v>
       </c>
       <c r="E77">
-        <v>1462.56896551724</v>
+        <v>1728.75</v>
       </c>
       <c r="F77">
-        <v>1336.30357142857</v>
+        <v>1284.8181818181799</v>
       </c>
       <c r="G77">
-        <v>1673.4912280701801</v>
+        <v>1979.03773584906</v>
       </c>
       <c r="H77">
-        <v>1353.9649122807</v>
+        <v>1430.0909090909099</v>
       </c>
       <c r="I77">
-        <v>657.56466728764303</v>
+        <v>568.01587203557301</v>
       </c>
       <c r="J77">
-        <v>675.22600813977294</v>
+        <v>713.28859930830004</v>
       </c>
       <c r="K77">
-        <v>126.26539408867001</v>
+        <v>443.93181818181802</v>
       </c>
       <c r="L77">
-        <v>319.52631578947398</v>
+        <v>548.94682675814795</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B78">
-        <v>610.45833333333303</v>
+        <v>598.95744680851101</v>
       </c>
       <c r="C78">
-        <v>639.01063829787199</v>
+        <v>671.43478260869597</v>
       </c>
       <c r="D78">
-        <v>624.73448581560297</v>
+        <v>635.19611470860298</v>
       </c>
       <c r="E78">
-        <v>1321.0357142857099</v>
+        <v>1351.70909090909</v>
       </c>
       <c r="F78">
-        <v>1274.1803278688501</v>
+        <v>1328.9814814814799</v>
       </c>
       <c r="G78">
-        <v>1174.8727272727299</v>
+        <v>1347.07142857143</v>
       </c>
       <c r="H78">
-        <v>1203.6071428571399</v>
+        <v>1146.72727272727</v>
       </c>
       <c r="I78">
-        <v>649.44584205324998</v>
+        <v>693.78536677287798</v>
       </c>
       <c r="J78">
-        <v>578.87265704154004</v>
+        <v>511.53115801867</v>
       </c>
       <c r="K78">
-        <v>46.855386416861798</v>
+        <v>22.727609427609401</v>
       </c>
       <c r="L78">
-        <v>-28.7344155844157</v>
+        <v>200.34415584415601</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B79">
-        <v>604.59375</v>
+        <v>587.91208791208805</v>
       </c>
       <c r="C79">
-        <v>829.01086956521704</v>
+        <v>605.18478260869597</v>
       </c>
       <c r="D79">
-        <v>716.80230978260897</v>
+        <v>596.54843526039201</v>
       </c>
       <c r="E79">
-        <v>1728.75</v>
+        <v>1152.75925925926</v>
       </c>
       <c r="F79">
-        <v>1284.8181818181799</v>
+        <v>786.76363636363601</v>
       </c>
       <c r="G79">
-        <v>1979.03773584906</v>
+        <v>1297.82142857143</v>
       </c>
       <c r="H79">
-        <v>1430.0909090909099</v>
+        <v>1063.93103448276</v>
       </c>
       <c r="I79">
-        <v>568.01587203557301</v>
+        <v>190.21520110324499</v>
       </c>
       <c r="J79">
-        <v>713.28859930830004</v>
+        <v>467.38259922236699</v>
       </c>
       <c r="K79">
-        <v>443.93181818181802</v>
+        <v>365.995622895623</v>
       </c>
       <c r="L79">
-        <v>548.94682675814795</v>
+        <v>233.89039408867001</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80">
-        <v>598.95744680851101</v>
+        <v>472.94791666666703</v>
       </c>
       <c r="C80">
-        <v>671.43478260869597</v>
+        <v>590.67021276595699</v>
       </c>
       <c r="D80">
-        <v>635.19611470860298</v>
+        <v>531.80906471631204</v>
       </c>
       <c r="E80">
-        <v>1351.70909090909</v>
+        <v>1403.5178571428601</v>
       </c>
       <c r="F80">
-        <v>1328.9814814814799</v>
+        <v>1321.3220338983101</v>
       </c>
       <c r="G80">
-        <v>1347.07142857143</v>
+        <v>1234.9666666666701</v>
       </c>
       <c r="H80">
-        <v>1146.72727272727</v>
+        <v>1170.3392857142901</v>
       </c>
       <c r="I80">
-        <v>693.78536677287798</v>
+        <v>789.51296918199296</v>
       </c>
       <c r="J80">
-        <v>511.53115801867</v>
+        <v>638.53022099797397</v>
       </c>
       <c r="K80">
-        <v>22.727609427609401</v>
+        <v>82.195823244552003</v>
       </c>
       <c r="L80">
-        <v>200.34415584415601</v>
+        <v>64.627380952380904</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B81">
-        <v>587.91208791208805</v>
+        <v>521.78888888888901</v>
       </c>
       <c r="C81">
-        <v>605.18478260869597</v>
+        <v>520.35869565217399</v>
       </c>
       <c r="D81">
-        <v>596.54843526039201</v>
+        <v>521.07379227053104</v>
       </c>
       <c r="E81">
-        <v>1152.75925925926</v>
+        <v>1110.7719298245599</v>
       </c>
       <c r="F81">
-        <v>786.76363636363601</v>
+        <v>948.23728813559296</v>
       </c>
       <c r="G81">
-        <v>1297.82142857143</v>
+        <v>1125.03636363636</v>
       </c>
       <c r="H81">
-        <v>1063.93103448276</v>
+        <v>961.79661016949103</v>
       </c>
       <c r="I81">
-        <v>190.21520110324499</v>
+        <v>427.16349586506198</v>
       </c>
       <c r="J81">
-        <v>467.38259922236699</v>
+        <v>440.72281789895999</v>
       </c>
       <c r="K81">
-        <v>365.995622895623</v>
+        <v>162.53464168896801</v>
       </c>
       <c r="L81">
-        <v>233.89039408867001</v>
+        <v>163.239753466872</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B82">
-        <v>472.94791666666703</v>
+        <v>522.659574468085</v>
       </c>
       <c r="C82">
-        <v>590.67021276595699</v>
+        <v>584.48936170212801</v>
       </c>
       <c r="D82">
-        <v>531.80906471631204</v>
+        <v>553.57446808510599</v>
       </c>
       <c r="E82">
-        <v>1403.5178571428601</v>
+        <v>1022.07142857143</v>
       </c>
       <c r="F82">
-        <v>1321.3220338983101</v>
+        <v>987.41379310344803</v>
       </c>
       <c r="G82">
-        <v>1234.9666666666701</v>
+        <v>1008.68421052632</v>
       </c>
       <c r="H82">
-        <v>1170.3392857142901</v>
+        <v>1005.33333333333</v>
       </c>
       <c r="I82">
-        <v>789.51296918199296</v>
+        <v>433.83932501834198</v>
       </c>
       <c r="J82">
-        <v>638.53022099797397</v>
+        <v>451.75886524822698</v>
       </c>
       <c r="K82">
-        <v>82.195823244552003</v>
+        <v>34.657635467980299</v>
       </c>
       <c r="L82">
-        <v>64.627380952380904</v>
+        <v>3.3508771929824701</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B83">
-        <v>521.78888888888901</v>
+        <v>891.29787234042601</v>
       </c>
       <c r="C83">
-        <v>520.35869565217399</v>
+        <v>1024.36263736264</v>
       </c>
       <c r="D83">
-        <v>521.07379227053104</v>
+        <v>957.83025485153098</v>
       </c>
       <c r="E83">
-        <v>1110.7719298245599</v>
+        <v>1354.44642857143</v>
       </c>
       <c r="F83">
-        <v>948.23728813559296</v>
+        <v>1500.08620689655</v>
       </c>
       <c r="G83">
-        <v>1125.03636363636</v>
+        <v>1450.14754098361</v>
       </c>
       <c r="H83">
-        <v>961.79661016949103</v>
+        <v>1387.12280701754</v>
       </c>
       <c r="I83">
-        <v>427.16349586506198</v>
+        <v>542.25595204501997</v>
       </c>
       <c r="J83">
-        <v>440.72281789895999</v>
+        <v>429.292552166012</v>
       </c>
       <c r="K83">
-        <v>162.53464168896801</v>
+        <v>-145.63977832512299</v>
       </c>
       <c r="L83">
-        <v>163.239753466872</v>
+        <v>63.024733966062698</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B84">
-        <v>522.659574468085</v>
+        <v>443.78494623655899</v>
       </c>
       <c r="C84">
-        <v>584.48936170212801</v>
+        <v>484.64516129032302</v>
       </c>
       <c r="D84">
-        <v>553.57446808510599</v>
+        <v>464.21505376344101</v>
       </c>
       <c r="E84">
-        <v>1022.07142857143</v>
+        <v>1173.5818181818199</v>
       </c>
       <c r="F84">
-        <v>987.41379310344803</v>
+        <v>1220.5084745762699</v>
       </c>
       <c r="G84">
-        <v>1008.68421052632</v>
+        <v>1262.18644067797</v>
       </c>
       <c r="H84">
-        <v>1005.33333333333</v>
+        <v>1175.6206896551701</v>
       </c>
       <c r="I84">
-        <v>433.83932501834198</v>
+        <v>756.29342081283005</v>
       </c>
       <c r="J84">
-        <v>451.75886524822698</v>
+        <v>711.40563589173098</v>
       </c>
       <c r="K84">
-        <v>34.657635467980299</v>
+        <v>-46.926656394453197</v>
       </c>
       <c r="L84">
-        <v>3.3508771929824701</v>
+        <v>86.565751022793805</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B85">
-        <v>891.29787234042601</v>
+        <v>639.462365591398</v>
       </c>
       <c r="C85">
-        <v>1024.36263736264</v>
+        <v>620.26595744680901</v>
       </c>
       <c r="D85">
-        <v>957.83025485153098</v>
+        <v>629.86416151910305</v>
       </c>
       <c r="E85">
-        <v>1354.44642857143</v>
+        <v>1016.53703703704</v>
       </c>
       <c r="F85">
-        <v>1500.08620689655</v>
+        <v>916.42857142857099</v>
       </c>
       <c r="G85">
-        <v>1450.14754098361</v>
+        <v>1149.08771929825</v>
       </c>
       <c r="H85">
-        <v>1387.12280701754</v>
+        <v>949.625</v>
       </c>
       <c r="I85">
-        <v>542.25595204501997</v>
+        <v>286.564409909468</v>
       </c>
       <c r="J85">
-        <v>429.292552166012</v>
+        <v>319.76083848089701</v>
       </c>
       <c r="K85">
-        <v>-145.63977832512299</v>
+        <v>100.10846560846601</v>
       </c>
       <c r="L85">
-        <v>63.024733966062698</v>
+        <v>199.46271929824599</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86">
-        <v>443.78494623655899</v>
+        <v>868.04301075268802</v>
       </c>
       <c r="C86">
-        <v>484.64516129032302</v>
+        <v>874.95744680851101</v>
       </c>
       <c r="D86">
-        <v>464.21505376344101</v>
+        <v>871.50022878059895</v>
       </c>
       <c r="E86">
-        <v>1173.5818181818199</v>
+        <v>1757.6896551724101</v>
       </c>
       <c r="F86">
-        <v>1220.5084745762699</v>
+        <v>1373.9152542372899</v>
       </c>
       <c r="G86">
-        <v>1262.18644067797</v>
+        <v>1819</v>
       </c>
       <c r="H86">
-        <v>1175.6206896551701</v>
+        <v>1360.44642857143</v>
       </c>
       <c r="I86">
-        <v>756.29342081283005</v>
+        <v>502.41502545668902</v>
       </c>
       <c r="J86">
-        <v>711.40563589173098</v>
+        <v>488.94619979082898</v>
       </c>
       <c r="K86">
-        <v>-46.926656394453197</v>
+        <v>383.77440093512598</v>
       </c>
       <c r="L86">
-        <v>86.565751022793805</v>
+        <v>458.55357142857099</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87">
-        <v>639.462365591398</v>
+        <v>531.51578947368398</v>
       </c>
       <c r="C87">
-        <v>620.26595744680901</v>
+        <v>557.18279569892502</v>
       </c>
       <c r="D87">
-        <v>629.86416151910305</v>
+        <v>544.34929258630495</v>
       </c>
       <c r="E87">
-        <v>1016.53703703704</v>
+        <v>1107.7037037037001</v>
       </c>
       <c r="F87">
-        <v>916.42857142857099</v>
+        <v>1005.25862068966</v>
       </c>
       <c r="G87">
-        <v>1149.08771929825</v>
+        <v>1267.2678571428601</v>
       </c>
       <c r="H87">
-        <v>949.625</v>
+        <v>958.55172413793105</v>
       </c>
       <c r="I87">
-        <v>286.564409909468</v>
+        <v>460.90932810335102</v>
       </c>
       <c r="J87">
-        <v>319.76083848089701</v>
+        <v>414.202431551627</v>
       </c>
       <c r="K87">
-        <v>100.10846560846601</v>
+        <v>102.445083014049</v>
       </c>
       <c r="L87">
-        <v>199.46271929824599</v>
+        <v>308.71613300492601</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88">
-        <v>868.04301075268802</v>
+        <v>706.468085106383</v>
       </c>
       <c r="C88">
-        <v>874.95744680851101</v>
+        <v>895.07608695652198</v>
       </c>
       <c r="D88">
-        <v>871.50022878059895</v>
+        <v>800.77208603145198</v>
       </c>
       <c r="E88">
-        <v>1757.6896551724101</v>
+        <v>1283.5</v>
       </c>
       <c r="F88">
-        <v>1373.9152542372899</v>
+        <v>1172.42857142857</v>
       </c>
       <c r="G88">
-        <v>1819</v>
+        <v>1221.8620689655199</v>
       </c>
       <c r="H88">
-        <v>1360.44642857143</v>
+        <v>1201.2777777777801</v>
       </c>
       <c r="I88">
-        <v>502.41502545668902</v>
+        <v>371.65648539711901</v>
       </c>
       <c r="J88">
-        <v>488.94619979082898</v>
+        <v>400.50569174632602</v>
       </c>
       <c r="K88">
-        <v>383.77440093512598</v>
+        <v>111.071428571429</v>
       </c>
       <c r="L88">
-        <v>458.55357142857099</v>
+        <v>20.584291187739399</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89">
-        <v>531.51578947368398</v>
+        <v>567.01086956521704</v>
       </c>
       <c r="C89">
-        <v>557.18279569892502</v>
+        <v>605.58947368421002</v>
       </c>
       <c r="D89">
-        <v>544.34929258630495</v>
+        <v>586.30017162471404</v>
       </c>
       <c r="E89">
-        <v>1107.7037037037001</v>
+        <v>1293.0204081632701</v>
       </c>
       <c r="F89">
-        <v>1005.25862068966</v>
+        <v>1448.05660377358</v>
       </c>
       <c r="G89">
-        <v>1267.2678571428601</v>
+        <v>1304.25925925926</v>
       </c>
       <c r="H89">
-        <v>958.55172413793105</v>
+        <v>1360.8235294117601</v>
       </c>
       <c r="I89">
-        <v>460.90932810335102</v>
+        <v>861.756432148871</v>
       </c>
       <c r="J89">
-        <v>414.202431551627</v>
+        <v>774.52335778705105</v>
       </c>
       <c r="K89">
-        <v>102.445083014049</v>
+        <v>-155.03619561031999</v>
       </c>
       <c r="L89">
-        <v>308.71613300492601</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>101</v>
-      </c>
-      <c r="B90">
-        <v>706.468085106383</v>
-      </c>
-      <c r="C90">
-        <v>895.07608695652198</v>
-      </c>
-      <c r="D90">
-        <v>800.77208603145198</v>
-      </c>
-      <c r="E90">
-        <v>1283.5</v>
-      </c>
-      <c r="F90">
-        <v>1172.42857142857</v>
-      </c>
-      <c r="G90">
-        <v>1221.8620689655199</v>
-      </c>
-      <c r="H90">
-        <v>1201.2777777777801</v>
-      </c>
-      <c r="I90">
-        <v>371.65648539711901</v>
-      </c>
-      <c r="J90">
-        <v>400.50569174632602</v>
-      </c>
-      <c r="K90">
-        <v>111.071428571429</v>
-      </c>
-      <c r="L90">
-        <v>20.584291187739399</v>
+        <v>-56.564270152505301</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>102</v>
+      <c r="A91" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B91">
-        <v>567.01086956521704</v>
+        <f>AVERAGE(B2:B89)</f>
+        <v>645.35631901939053</v>
       </c>
       <c r="C91">
-        <v>605.58947368421002</v>
+        <f>AVERAGE(C2:C89)</f>
+        <v>708.37655375028282</v>
       </c>
       <c r="D91">
-        <v>586.30017162471404</v>
+        <f>AVERAGE(D2:D89)</f>
+        <v>676.86643638483633</v>
       </c>
       <c r="E91">
-        <v>1293.0204081632701</v>
+        <f>AVERAGE(E2:E89)</f>
+        <v>1400.9052022250585</v>
       </c>
       <c r="F91">
-        <v>1448.05660377358</v>
+        <f>AVERAGE(F2:F89)</f>
+        <v>1328.6069997627355</v>
       </c>
       <c r="G91">
-        <v>1304.25925925926</v>
+        <f>AVERAGE(G2:G89)</f>
+        <v>1426.0744368031271</v>
       </c>
       <c r="H91">
-        <v>1360.8235294117601</v>
+        <f>AVERAGE(H2:H89)</f>
+        <v>1246.063639835266</v>
       </c>
       <c r="I91">
-        <v>861.756432148871</v>
+        <f>AVERAGE(I2:I89)</f>
+        <v>651.74056337789909</v>
       </c>
       <c r="J91">
-        <v>774.52335778705105</v>
+        <f>AVERAGE(J2:J89)</f>
+        <v>569.19720345042958</v>
       </c>
       <c r="K91">
-        <v>-155.03619561031999</v>
+        <f>AVERAGE(K2:K89)</f>
+        <v>72.298202462323289</v>
       </c>
       <c r="L91">
-        <v>-56.564270152505301</v>
+        <f>AVERAGE(L2:L89)</f>
+        <v>180.01079696786093</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92">
+        <f>STDEV(B2:B89)</f>
+        <v>140.18357611511868</v>
+      </c>
+      <c r="C92">
+        <f>STDEV(C2:C89)</f>
+        <v>172.81965813457919</v>
+      </c>
+      <c r="D92">
+        <f>STDEV(D2:D89)</f>
+        <v>148.57591901567443</v>
+      </c>
+      <c r="E92">
+        <f>STDEV(E2:E89)</f>
+        <v>301.06632301084153</v>
+      </c>
+      <c r="F92">
+        <f>STDEV(F2:F89)</f>
+        <v>313.54469825053604</v>
+      </c>
+      <c r="G92">
+        <f>STDEV(G2:G89)</f>
+        <v>351.15671618895857</v>
+      </c>
+      <c r="H92">
+        <f>STDEV(H2:H89)</f>
+        <v>282.60382497119724</v>
+      </c>
+      <c r="I92">
+        <f>STDEV(I2:I89)</f>
+        <v>244.86232702672083</v>
+      </c>
+      <c r="J92">
+        <f>STDEV(J2:J89)</f>
+        <v>212.51660055061771</v>
+      </c>
+      <c r="K92">
+        <f>STDEV(K2:K89)</f>
+        <v>164.74603600137593</v>
+      </c>
+      <c r="L92">
+        <f>STDEV(L2:L89)</f>
+        <v>151.50510638111294</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B93">
-        <f>AVERAGE(B2:B91)</f>
-        <v>648.03981209250207</v>
+        <f>B92/(SQRT(80))</f>
+        <v>15.673000276121062</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:L93" si="0">AVERAGE(C2:C91)</f>
-        <v>710.8098432522703</v>
+        <f t="shared" ref="C93:L93" si="0">C92/(SQRT(80))</f>
+        <v>19.321825171859675</v>
       </c>
       <c r="D93">
         <f t="shared" si="0"/>
-        <v>679.42482767238573</v>
+        <v>16.611292736927581</v>
       </c>
       <c r="E93">
         <f t="shared" si="0"/>
-        <v>1403.8733245549618</v>
+        <v>33.660238199407537</v>
       </c>
       <c r="F93">
         <f t="shared" si="0"/>
-        <v>1333.2509496738462</v>
+        <v>35.055362963642899</v>
       </c>
       <c r="G93">
         <f t="shared" si="0"/>
-        <v>1430.7108240832081</v>
+        <v>39.260514407705614</v>
       </c>
       <c r="H93">
         <f t="shared" si="0"/>
-        <v>1248.4907352746882</v>
+        <v>31.596068166852476</v>
       </c>
       <c r="I93">
         <f t="shared" si="0"/>
-        <v>653.82612200146036</v>
+        <v>27.376440418026586</v>
       </c>
       <c r="J93">
         <f t="shared" si="0"/>
-        <v>569.06590760230188</v>
+        <v>23.76007825891752</v>
       </c>
       <c r="K93">
         <f t="shared" si="0"/>
-        <v>70.622374881116002</v>
+        <v>18.41916677613521</v>
       </c>
       <c r="L93">
         <f t="shared" si="0"/>
-        <v>182.22008880852025</v>
+        <v>16.938785840325284</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B94">
-        <f>STDEV(B2:B91)</f>
-        <v>139.78749962862523</v>
+        <f>B93*1.96</f>
+        <v>30.719080541197282</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:L94" si="1">STDEV(C2:C91)</f>
-        <v>171.89452321159172</v>
+        <f t="shared" ref="C94:L94" si="1">C93*1.96</f>
+        <v>37.870777336844966</v>
       </c>
       <c r="D94">
         <f t="shared" si="1"/>
-        <v>148.01985201458402</v>
+        <v>32.558133764378056</v>
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
-        <v>298.3673701434185</v>
+        <v>65.974066870838769</v>
       </c>
       <c r="F94">
         <f t="shared" si="1"/>
-        <v>311.57243122080035</v>
+        <v>68.70851140874008</v>
       </c>
       <c r="G94">
         <f t="shared" si="1"/>
-        <v>348.59542394104676</v>
+        <v>76.950608239103005</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>280.15449410333468</v>
+        <v>61.928293607030852</v>
       </c>
       <c r="I94">
         <f t="shared" si="1"/>
-        <v>242.50500977174872</v>
+        <v>53.657823219332109</v>
       </c>
       <c r="J94">
         <f t="shared" si="1"/>
-        <v>210.95070176486999</v>
+        <v>46.569753387478336</v>
       </c>
       <c r="K94">
         <f t="shared" si="1"/>
-        <v>163.27133177483844</v>
+        <v>36.101566881225011</v>
       </c>
       <c r="L94">
         <f t="shared" si="1"/>
-        <v>151.48931567822899</v>
+        <v>33.200020247037557</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B95">
-        <f>B94/(SQRT(80))</f>
-        <v>15.62871757871663</v>
+        <f>B91+B94</f>
+        <v>676.07539956058781</v>
       </c>
       <c r="C95">
-        <f t="shared" ref="C95:L95" si="2">C94/(SQRT(80))</f>
-        <v>19.218391943051728</v>
+        <f t="shared" ref="C95:L95" si="2">C91+C94</f>
+        <v>746.2473310871278</v>
       </c>
       <c r="D95">
         <f t="shared" si="2"/>
-        <v>16.549122556203454</v>
+        <v>709.42457014921433</v>
       </c>
       <c r="E95">
         <f t="shared" si="2"/>
-        <v>33.358486095426244</v>
+        <v>1466.8792690958971</v>
       </c>
       <c r="F95">
         <f t="shared" si="2"/>
-        <v>34.834856806229368</v>
+        <v>1397.3155111714757</v>
       </c>
       <c r="G95">
         <f t="shared" si="2"/>
-        <v>38.974153228876908</v>
+        <v>1503.0250450422302</v>
       </c>
       <c r="H95">
         <f t="shared" si="2"/>
-        <v>31.322224650856015</v>
+        <v>1307.9919334422968</v>
       </c>
       <c r="I95">
         <f t="shared" si="2"/>
-        <v>27.112884336694044</v>
+        <v>705.39838659723125</v>
       </c>
       <c r="J95">
         <f t="shared" si="2"/>
-        <v>23.585005452376706</v>
+        <v>615.76695683790797</v>
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>18.254289831273006</v>
+        <v>108.3997693435483</v>
       </c>
       <c r="L95">
         <f t="shared" si="2"/>
-        <v>16.937020386072234</v>
+        <v>213.2108172148985</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B96">
-        <f>B95*1.96</f>
-        <v>30.632286454284596</v>
+        <f>B91-B94</f>
+        <v>614.63723847819324</v>
       </c>
       <c r="C96">
-        <f t="shared" ref="C96:L96" si="3">C95*1.96</f>
-        <v>37.668048208381386</v>
+        <f t="shared" ref="C96:L96" si="3">C91-C94</f>
+        <v>670.50577641343784</v>
       </c>
       <c r="D96">
         <f t="shared" si="3"/>
-        <v>32.43628021015877</v>
+        <v>644.30830262045833</v>
       </c>
       <c r="E96">
         <f t="shared" si="3"/>
-        <v>65.38263274703543</v>
+        <v>1334.9311353542198</v>
       </c>
       <c r="F96">
         <f t="shared" si="3"/>
-        <v>68.276319340209554</v>
+        <v>1259.8984883539954</v>
       </c>
       <c r="G96">
         <f t="shared" si="3"/>
-        <v>76.389340328598735</v>
+        <v>1349.1238285640241</v>
       </c>
       <c r="H96">
         <f t="shared" si="3"/>
-        <v>61.391560315677786</v>
+        <v>1184.1353462282352</v>
       </c>
       <c r="I96">
         <f t="shared" si="3"/>
-        <v>53.141253299920329</v>
+        <v>598.08274015856693</v>
       </c>
       <c r="J96">
         <f t="shared" si="3"/>
-        <v>46.22661068665834</v>
+        <v>522.6274500629512</v>
       </c>
       <c r="K96">
         <f t="shared" si="3"/>
-        <v>35.778408069295089</v>
+        <v>36.196635581098278</v>
       </c>
       <c r="L96">
         <f t="shared" si="3"/>
-        <v>33.196559956701577</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97">
-        <f>B93+B96</f>
-        <v>678.67209854678663</v>
-      </c>
-      <c r="C97">
-        <f t="shared" ref="C97:L97" si="4">C93+C96</f>
-        <v>748.47789146065168</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="4"/>
-        <v>711.8611078825445</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="4"/>
-        <v>1469.2559573019971</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="4"/>
-        <v>1401.5272690140557</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="4"/>
-        <v>1507.1001644118069</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="4"/>
-        <v>1309.8822955903659</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="4"/>
-        <v>706.96737530138068</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="4"/>
-        <v>615.2925182889602</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="4"/>
-        <v>106.4007829504111</v>
-      </c>
-      <c r="L97">
-        <f t="shared" si="4"/>
-        <v>215.41664876522182</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B98">
-        <f>B93-B96</f>
-        <v>617.40752563821752</v>
-      </c>
-      <c r="C98">
-        <f t="shared" ref="C98:L98" si="5">C93-C96</f>
-        <v>673.14179504388892</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="5"/>
-        <v>646.98854746222696</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="5"/>
-        <v>1338.4906918079264</v>
-      </c>
-      <c r="F98">
-        <f t="shared" si="5"/>
-        <v>1264.9746303336367</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="5"/>
-        <v>1354.3214837546093</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="5"/>
-        <v>1187.0991749590105</v>
-      </c>
-      <c r="I98">
-        <f t="shared" si="5"/>
-        <v>600.68486870154004</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="5"/>
-        <v>522.83929691564356</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="5"/>
-        <v>34.843966811820913</v>
-      </c>
-      <c r="L98">
-        <f t="shared" si="5"/>
-        <v>149.02352885181867</v>
+        <v>146.81077672082336</v>
       </c>
     </row>
   </sheetData>

--- a/1 YA/2 Analyses/1 ANOVAs/YA Output 10_14.xlsx
+++ b/1 YA/2 Analyses/1 ANOVAs/YA Output 10_14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaxwell\Documents\GitHub\CVOE-2021\1 YA\2 Analyses\1 ANOVAs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\CVOE-2021\1 YA\2 Analyses\1 ANOVAs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065C7037-4B73-4F99-8B7A-2DB0DDFE4CE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B27A2F-9FBD-46D6-AD65-10F7B5A692A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORS" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +441,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -602,10 +608,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -963,9 +970,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2806,41 +2813,41 @@
         <v>3.1675465407057499E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>57</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>0.104166666666667</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>0.12631578947368399</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>0.11524122807017501</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>5.2631578947368501E-2</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>8.3333333333333398E-2</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>9.8360655737704902E-2</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <v>8.77192982456141E-2</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <v>-3.1907894736842003E-2</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="3">
         <v>-2.7521929824561302E-2</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <v>-3.07017543859649E-2</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="3">
         <v>1.0641357492090799E-2</v>
       </c>
     </row>
@@ -4331,47 +4338,47 @@
         <v>12</v>
       </c>
       <c r="B90">
-        <f>AVERAGE(B2:B88)</f>
+        <f t="shared" ref="B90:L90" si="0">AVERAGE(B2:B88)</f>
         <v>2.6511385294902077E-2</v>
       </c>
       <c r="C90">
-        <f>AVERAGE(C2:C88)</f>
+        <f t="shared" si="0"/>
         <v>3.25581073778154E-2</v>
       </c>
       <c r="D90">
-        <f>AVERAGE(D2:D88)</f>
+        <f t="shared" si="0"/>
         <v>2.9534746336358716E-2</v>
       </c>
       <c r="E90">
-        <f>AVERAGE(E2:E88)</f>
+        <f t="shared" si="0"/>
         <v>6.0259069604152685E-2</v>
       </c>
       <c r="F90">
-        <f>AVERAGE(F2:F88)</f>
+        <f t="shared" si="0"/>
         <v>3.5492198030588271E-2</v>
       </c>
       <c r="G90">
-        <f>AVERAGE(G2:G88)</f>
+        <f t="shared" si="0"/>
         <v>5.5234263651551353E-2</v>
       </c>
       <c r="H90">
-        <f>AVERAGE(H2:H88)</f>
+        <f t="shared" si="0"/>
         <v>3.2868674552675066E-2</v>
       </c>
       <c r="I90">
-        <f>AVERAGE(I2:I88)</f>
+        <f t="shared" si="0"/>
         <v>5.9574516942295661E-3</v>
       </c>
       <c r="J90">
-        <f>AVERAGE(J2:J88)</f>
+        <f t="shared" si="0"/>
         <v>3.333928216316341E-3</v>
       </c>
       <c r="K90">
-        <f>AVERAGE(K2:K88)</f>
+        <f t="shared" si="0"/>
         <v>2.476687157356439E-2</v>
       </c>
       <c r="L90">
-        <f>AVERAGE(L2:L88)</f>
+        <f t="shared" si="0"/>
         <v>2.2365589098876284E-2</v>
       </c>
     </row>
@@ -4380,47 +4387,47 @@
         <v>13</v>
       </c>
       <c r="B91">
-        <f>STDEV(B2:B88)</f>
+        <f t="shared" ref="B91:L91" si="1">STDEV(B2:B88)</f>
         <v>2.3353769939004874E-2</v>
       </c>
       <c r="C91">
-        <f>STDEV(C2:C88)</f>
+        <f t="shared" si="1"/>
         <v>3.1622101996825074E-2</v>
       </c>
       <c r="D91">
-        <f>STDEV(D2:D88)</f>
+        <f t="shared" si="1"/>
         <v>2.4183903534280165E-2</v>
       </c>
       <c r="E91">
-        <f>STDEV(E2:E88)</f>
+        <f t="shared" si="1"/>
         <v>5.6431542904787836E-2</v>
       </c>
       <c r="F91">
-        <f>STDEV(F2:F88)</f>
+        <f t="shared" si="1"/>
         <v>4.7625160156382997E-2</v>
       </c>
       <c r="G91">
-        <f>STDEV(G2:G88)</f>
+        <f t="shared" si="1"/>
         <v>4.8984230306785718E-2</v>
       </c>
       <c r="H91">
-        <f>STDEV(H2:H88)</f>
+        <f t="shared" si="1"/>
         <v>4.4757294808329295E-2</v>
       </c>
       <c r="I91">
-        <f>STDEV(I2:I88)</f>
+        <f t="shared" si="1"/>
         <v>4.7684513583627255E-2</v>
       </c>
       <c r="J91">
-        <f>STDEV(J2:J88)</f>
+        <f t="shared" si="1"/>
         <v>4.5170855798954579E-2</v>
       </c>
       <c r="K91">
-        <f>STDEV(K2:K88)</f>
+        <f t="shared" si="1"/>
         <v>4.0536725597810366E-2</v>
       </c>
       <c r="L91">
-        <f>STDEV(L2:L88)</f>
+        <f t="shared" si="1"/>
         <v>3.3221744488838918E-2</v>
       </c>
     </row>
@@ -4433,43 +4440,43 @@
         <v>2.6110308557253008E-3</v>
       </c>
       <c r="C92">
-        <f t="shared" ref="C92:L92" si="0">C91/(SQRT(80))</f>
+        <f t="shared" ref="C92:L92" si="2">C91/(SQRT(80))</f>
         <v>3.5354584828166352E-3</v>
       </c>
       <c r="D92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7038426131973932E-3</v>
       </c>
       <c r="E92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.3092383005150772E-3</v>
       </c>
       <c r="F92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.3246547774493443E-3</v>
       </c>
       <c r="G92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.476603439573912E-3</v>
       </c>
       <c r="H92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.0040176840211361E-3</v>
       </c>
       <c r="I92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.3312906923501319E-3</v>
       </c>
       <c r="J92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.0502552084151506E-3</v>
       </c>
       <c r="K92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.5321437010979885E-3</v>
       </c>
       <c r="L92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.7143039504086411E-3</v>
       </c>
     </row>
@@ -4482,43 +4489,43 @@
         <v>5.1176204772215893E-3</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:L93" si="1">C92*1.96</f>
+        <f t="shared" ref="C93:L93" si="3">C92*1.96</f>
         <v>6.9294986263206048E-3</v>
       </c>
       <c r="D93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.2995315218668905E-3</v>
       </c>
       <c r="E93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2366107069009551E-2</v>
       </c>
       <c r="F93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0436323363800714E-2</v>
       </c>
       <c r="G93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0734142741564867E-2</v>
       </c>
       <c r="H93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.8078746606814274E-3</v>
       </c>
       <c r="I93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0449329757006258E-2</v>
       </c>
       <c r="J93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.8985002084936956E-3</v>
       </c>
       <c r="K93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.8830016541520569E-3</v>
       </c>
       <c r="L93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.280035742800936E-3</v>
       </c>
     </row>
@@ -4531,43 +4538,43 @@
         <v>3.1629005772123665E-2</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:L94" si="2">C90+C93</f>
+        <f t="shared" ref="C94:L94" si="4">C90+C93</f>
         <v>3.9487606004136006E-2</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.4834277858225605E-2</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.2625176673162234E-2</v>
       </c>
       <c r="F94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.5928521394388987E-2</v>
       </c>
       <c r="G94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.5968406393116213E-2</v>
       </c>
       <c r="H94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2676549213356493E-2</v>
       </c>
       <c r="I94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6406781451235825E-2</v>
       </c>
       <c r="J94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3232428424810037E-2</v>
       </c>
       <c r="K94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.3649873227716447E-2</v>
       </c>
       <c r="L94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.964562484167722E-2</v>
       </c>
     </row>
@@ -4580,43 +4587,43 @@
         <v>2.1393764817680488E-2</v>
       </c>
       <c r="C95">
-        <f t="shared" ref="C95:L95" si="3">C90-C93</f>
+        <f t="shared" ref="C95:L95" si="5">C90-C93</f>
         <v>2.5628608751494794E-2</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4235214814491826E-2</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.7892962535143135E-2</v>
       </c>
       <c r="F95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5055874666787555E-2</v>
       </c>
       <c r="G95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.4500120909986486E-2</v>
       </c>
       <c r="H95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.3060799891993639E-2</v>
       </c>
       <c r="I95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.4918780627766922E-3</v>
       </c>
       <c r="J95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-6.5645719921773541E-3</v>
       </c>
       <c r="K95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5883869919412333E-2</v>
       </c>
       <c r="L95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5085553356075348E-2</v>
       </c>
     </row>
@@ -4630,9 +4637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6473,41 +6480,41 @@
         <v>232.45614035087701</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>57</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>417.25581395348797</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>562.65060240963896</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>489.95320818156301</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>992.72222222222194</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>845.05454545454495</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>913.327272727273</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <v>867.288461538462</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <v>355.10133727298199</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="3">
         <v>377.33525335689802</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <v>147.66767676767699</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="3">
         <v>46.038811188811202</v>
       </c>
     </row>
@@ -7998,47 +8005,47 @@
         <v>12</v>
       </c>
       <c r="B90">
-        <f>AVERAGE(B2:B88)</f>
+        <f t="shared" ref="B90:L90" si="0">AVERAGE(B2:B88)</f>
         <v>635.22952775412637</v>
       </c>
       <c r="C90">
-        <f>AVERAGE(C2:C88)</f>
+        <f t="shared" si="0"/>
         <v>706.28465117548058</v>
       </c>
       <c r="D90">
-        <f>AVERAGE(D2:D88)</f>
+        <f t="shared" si="0"/>
         <v>670.75708946480302</v>
       </c>
       <c r="E90">
-        <f>AVERAGE(E2:E88)</f>
+        <f t="shared" si="0"/>
         <v>1407.6774261581318</v>
       </c>
       <c r="F90">
-        <f>AVERAGE(F2:F88)</f>
+        <f t="shared" si="0"/>
         <v>1316.8144125848148</v>
       </c>
       <c r="G90">
-        <f>AVERAGE(G2:G88)</f>
+        <f t="shared" si="0"/>
         <v>1431.731230866304</v>
       </c>
       <c r="H90">
-        <f>AVERAGE(H2:H88)</f>
+        <f t="shared" si="0"/>
         <v>1242.7551207654251</v>
       </c>
       <c r="I90">
-        <f>AVERAGE(I2:I88)</f>
+        <f t="shared" si="0"/>
         <v>646.05732312001203</v>
       </c>
       <c r="J90">
-        <f>AVERAGE(J2:J88)</f>
+        <f t="shared" si="0"/>
         <v>571.99803130062151</v>
       </c>
       <c r="K90">
-        <f>AVERAGE(K2:K88)</f>
+        <f t="shared" si="0"/>
         <v>90.86301357331655</v>
       </c>
       <c r="L90">
-        <f>AVERAGE(L2:L88)</f>
+        <f t="shared" si="0"/>
         <v>188.97611010087908</v>
       </c>
     </row>
@@ -8047,47 +8054,47 @@
         <v>13</v>
       </c>
       <c r="B91">
-        <f>STDEV(B2:B88)</f>
+        <f t="shared" ref="B91:L91" si="1">STDEV(B2:B88)</f>
         <v>131.23489638003937</v>
       </c>
       <c r="C91">
-        <f>STDEV(C2:C88)</f>
+        <f t="shared" si="1"/>
         <v>185.32084086978651</v>
       </c>
       <c r="D91">
-        <f>STDEV(D2:D88)</f>
+        <f t="shared" si="1"/>
         <v>150.0072670653575</v>
       </c>
       <c r="E91">
-        <f>STDEV(E2:E88)</f>
+        <f t="shared" si="1"/>
         <v>345.77497021170581</v>
       </c>
       <c r="F91">
-        <f>STDEV(F2:F88)</f>
+        <f t="shared" si="1"/>
         <v>361.3776527974253</v>
       </c>
       <c r="G91">
-        <f>STDEV(G2:G88)</f>
+        <f t="shared" si="1"/>
         <v>420.41075422565137</v>
       </c>
       <c r="H91">
-        <f>STDEV(H2:H88)</f>
+        <f t="shared" si="1"/>
         <v>336.87174719526564</v>
       </c>
       <c r="I91">
-        <f>STDEV(I2:I88)</f>
+        <f t="shared" si="1"/>
         <v>276.16655140210037</v>
       </c>
       <c r="J91">
-        <f>STDEV(J2:J88)</f>
+        <f t="shared" si="1"/>
         <v>247.2616102738171</v>
       </c>
       <c r="K91">
-        <f>STDEV(K2:K88)</f>
+        <f t="shared" si="1"/>
         <v>170.37317981451875</v>
       </c>
       <c r="L91">
-        <f>STDEV(L2:L88)</f>
+        <f t="shared" si="1"/>
         <v>154.91182604714908</v>
       </c>
     </row>
@@ -8100,43 +8107,43 @@
         <v>14.672507466295455</v>
       </c>
       <c r="C92">
-        <f t="shared" ref="C92:L92" si="0">C91/(SQRT(80))</f>
+        <f t="shared" ref="C92:L92" si="2">C91/(SQRT(80))</f>
         <v>20.719499891613193</v>
       </c>
       <c r="D92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.771322313855237</v>
       </c>
       <c r="E92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>38.658816915566952</v>
       </c>
       <c r="F92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40.403249860217997</v>
       </c>
       <c r="G92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47.003351246025666</v>
       </c>
       <c r="H92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37.663406321386901</v>
       </c>
       <c r="I92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30.876359102339311</v>
       </c>
       <c r="J92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27.644688439915768</v>
       </c>
       <c r="K92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19.048300580402945</v>
       </c>
       <c r="L92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17.319668678002394</v>
       </c>
     </row>
@@ -8149,43 +8156,43 @@
         <v>28.758114633939091</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:L93" si="1">C92*1.96</f>
+        <f t="shared" ref="C93:L93" si="3">C92*1.96</f>
         <v>40.61021978756186</v>
       </c>
       <c r="D93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32.871791735156265</v>
       </c>
       <c r="E93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>75.771281154511229</v>
       </c>
       <c r="F93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79.190369726027271</v>
       </c>
       <c r="G93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>92.126568442210299</v>
       </c>
       <c r="H93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>73.82027638991832</v>
       </c>
       <c r="I93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60.517663840585051</v>
       </c>
       <c r="J93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>54.183589342234903</v>
       </c>
       <c r="K93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37.334669137589771</v>
       </c>
       <c r="L93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33.946550608884692</v>
       </c>
     </row>
@@ -8198,43 +8205,43 @@
         <v>663.98764238806541</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:L94" si="2">C90+C93</f>
+        <f t="shared" ref="C94:L94" si="4">C90+C93</f>
         <v>746.89487096304242</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>703.62888119995932</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1483.4487073126429</v>
       </c>
       <c r="F94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1396.0047823108421</v>
       </c>
       <c r="G94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1523.8577993085144</v>
       </c>
       <c r="H94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1316.5753971553434</v>
       </c>
       <c r="I94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>706.57498696059713</v>
       </c>
       <c r="J94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>626.18162064285639</v>
       </c>
       <c r="K94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>128.19768271090632</v>
       </c>
       <c r="L94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>222.92266070976376</v>
       </c>
     </row>
@@ -8247,43 +8254,43 @@
         <v>606.47141312018732</v>
       </c>
       <c r="C95">
-        <f t="shared" ref="C95:L95" si="3">C90-C93</f>
+        <f t="shared" ref="C95:L95" si="5">C90-C93</f>
         <v>665.67443138791873</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>637.88529772964671</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1331.9061450036206</v>
       </c>
       <c r="F95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1237.6240428587876</v>
       </c>
       <c r="G95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1339.6046624240937</v>
       </c>
       <c r="H95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1168.9348443755068</v>
       </c>
       <c r="I95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>585.53965927942693</v>
       </c>
       <c r="J95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>517.81444195838662</v>
       </c>
       <c r="K95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>53.52834443572678</v>
       </c>
       <c r="L95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>155.02955949199441</v>
       </c>
     </row>

--- a/1 YA/2 Analyses/1 ANOVAs/YA Output 10_14.xlsx
+++ b/1 YA/2 Analyses/1 ANOVAs/YA Output 10_14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\CVOE-2021\1 YA\2 Analyses\1 ANOVAs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaxwell\Documents\GitHub\CVOE-2021\1 YA\2 Analyses\1 ANOVAs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B27A2F-9FBD-46D6-AD65-10F7B5A692A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5007F4BC-9BD4-49F7-9191-4F62AEC88F1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORS" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,12 +441,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -612,7 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -968,11 +962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L95"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P91" sqref="P91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,159 +1935,159 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>4.1666666666666602E-2</v>
+        <v>6.3157894736842093E-2</v>
       </c>
       <c r="C26">
-        <v>6.3157894736842093E-2</v>
+        <v>0.17894736842105299</v>
       </c>
       <c r="D26">
-        <v>5.2412280701754403E-2</v>
+        <v>0.121052631578947</v>
       </c>
       <c r="E26">
-        <v>0.11864406779661001</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="F26">
-        <v>8.3333333333333398E-2</v>
+        <v>8.6206896551724102E-2</v>
       </c>
       <c r="G26">
-        <v>0.12068965517241401</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="H26">
-        <v>6.7796610169491595E-2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>3.0921052631578998E-2</v>
+        <v>-3.4845735027223303E-2</v>
       </c>
       <c r="J26">
-        <v>1.53843294677372E-2</v>
+        <v>-0.121052631578947</v>
       </c>
       <c r="K26">
-        <v>3.5310734463276802E-2</v>
+        <v>0.100233781414378</v>
       </c>
       <c r="L26">
-        <v>5.2893045002922197E-2</v>
+        <v>1.6949152542372801E-2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>1.04166666666666E-2</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="C27">
-        <v>2.1052631578947299E-2</v>
+        <v>6.3157894736842093E-2</v>
       </c>
       <c r="D27">
-        <v>1.5734649122807001E-2</v>
+        <v>5.2412280701754403E-2</v>
       </c>
       <c r="E27">
-        <v>5.1724137931034503E-2</v>
+        <v>0.11864406779661001</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>8.3333333333333398E-2</v>
       </c>
       <c r="G27">
-        <v>8.6206896551724102E-2</v>
+        <v>0.12068965517241401</v>
       </c>
       <c r="H27">
-        <v>1.8181818181818198E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="I27">
-        <v>-1.5734649122807001E-2</v>
+        <v>3.0921052631578998E-2</v>
       </c>
       <c r="J27">
-        <v>2.4471690590112099E-3</v>
+        <v>1.53843294677372E-2</v>
       </c>
       <c r="K27">
-        <v>5.1724137931034503E-2</v>
+        <v>3.5310734463276802E-2</v>
       </c>
       <c r="L27">
-        <v>6.80250783699059E-2</v>
+        <v>5.2893045002922197E-2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>6.25E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="C28">
-        <v>5.2631578947368501E-2</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="D28">
-        <v>5.7565789473684202E-2</v>
+        <v>1.5734649122807001E-2</v>
       </c>
       <c r="E28">
-        <v>5.2631578947368501E-2</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="F28">
-        <v>3.5087719298245598E-2</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>3.3333333333333298E-2</v>
+        <v>8.6206896551724102E-2</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1.8181818181818198E-2</v>
       </c>
       <c r="I28">
-        <v>-2.24780701754386E-2</v>
+        <v>-1.5734649122807001E-2</v>
       </c>
       <c r="J28">
-        <v>-5.7565789473684202E-2</v>
+        <v>2.4471690590112099E-3</v>
       </c>
       <c r="K28">
-        <v>1.75438596491229E-2</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="L28">
-        <v>3.3333333333333298E-2</v>
+        <v>6.80250783699059E-2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>1.04166666666666E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="D29">
-        <v>5.2083333333333096E-3</v>
+        <v>5.7565789473684202E-2</v>
       </c>
       <c r="E29">
-        <v>1.72413793103449E-2</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>3.5087719298245598E-2</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>-2.24780701754386E-2</v>
+      </c>
+      <c r="J29">
+        <v>-5.7565789473684202E-2</v>
+      </c>
+      <c r="K29">
         <v>1.75438596491229E-2</v>
       </c>
-      <c r="I29">
-        <v>-5.2083333333333096E-3</v>
-      </c>
-      <c r="J29">
-        <v>1.23355263157895E-2</v>
-      </c>
-      <c r="K29">
-        <v>1.72413793103449E-2</v>
-      </c>
       <c r="L29">
-        <v>-1.75438596491229E-2</v>
+        <v>3.3333333333333298E-2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>1.04166666666666E-2</v>
@@ -2105,446 +2099,446 @@
         <v>5.2083333333333096E-3</v>
       </c>
       <c r="E30">
-        <v>3.5087719298245598E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>8.1967213114754106E-2</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1.75438596491229E-2</v>
       </c>
       <c r="I30">
         <v>-5.2083333333333096E-3</v>
       </c>
       <c r="J30">
-        <v>-5.2083333333333096E-3</v>
+        <v>1.23355263157895E-2</v>
       </c>
       <c r="K30">
-        <v>3.5087719298245598E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="L30">
-        <v>8.1967213114754106E-2</v>
+        <v>-1.75438596491229E-2</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>5.2083333333333398E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="C31">
-        <v>7.3684210526315796E-2</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>6.2883771929824597E-2</v>
+        <v>5.2083333333333096E-3</v>
       </c>
       <c r="E31">
-        <v>7.0175438596491196E-2</v>
+        <v>3.5087719298245598E-2</v>
       </c>
       <c r="F31">
-        <v>1.72413793103449E-2</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>1.6666666666666701E-2</v>
+        <v>8.1967213114754106E-2</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>-4.5642392619479701E-2</v>
+        <v>-5.2083333333333096E-3</v>
       </c>
       <c r="J31">
-        <v>-6.2883771929824597E-2</v>
+        <v>-5.2083333333333096E-3</v>
       </c>
       <c r="K31">
-        <v>5.2934059286146397E-2</v>
+        <v>3.5087719298245598E-2</v>
       </c>
       <c r="L31">
-        <v>1.6666666666666701E-2</v>
+        <v>8.1967213114754106E-2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>6.25E-2</v>
+        <v>5.2083333333333398E-2</v>
       </c>
       <c r="C32">
-        <v>0.105263157894737</v>
+        <v>7.3684210526315796E-2</v>
       </c>
       <c r="D32">
-        <v>8.3881578947368404E-2</v>
+        <v>6.2883771929824597E-2</v>
       </c>
       <c r="E32">
-        <v>6.8965517241379296E-2</v>
+        <v>7.0175438596491196E-2</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="G32">
-        <v>6.8965517241379296E-2</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="H32">
-        <v>3.8461538461538401E-2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>-8.3881578947368404E-2</v>
+        <v>-4.5642392619479701E-2</v>
       </c>
       <c r="J32">
-        <v>-4.5420040485830003E-2</v>
+        <v>-6.2883771929824597E-2</v>
       </c>
       <c r="K32">
-        <v>6.8965517241379296E-2</v>
+        <v>5.2934059286146397E-2</v>
       </c>
       <c r="L32">
-        <v>3.0503978779840901E-2</v>
+        <v>1.6666666666666701E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C33">
-        <v>2.0833333333333402E-2</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="D33">
-        <v>2.6041666666666699E-2</v>
+        <v>8.3881578947368404E-2</v>
       </c>
       <c r="E33">
-        <v>5.2631578947368501E-2</v>
+        <v>6.8965517241379296E-2</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>6.7796610169491595E-2</v>
+        <v>6.8965517241379296E-2</v>
       </c>
       <c r="H33">
-        <v>3.4482758620689599E-2</v>
+        <v>3.8461538461538401E-2</v>
       </c>
       <c r="I33">
-        <v>-2.6041666666666699E-2</v>
+        <v>-8.3881578947368404E-2</v>
       </c>
       <c r="J33">
-        <v>8.4410919540229296E-3</v>
+        <v>-4.5420040485830003E-2</v>
       </c>
       <c r="K33">
-        <v>5.2631578947368501E-2</v>
+        <v>6.8965517241379296E-2</v>
       </c>
       <c r="L33">
-        <v>3.3313851548802002E-2</v>
+        <v>3.0503978779840901E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.104166666666667</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C34">
-        <v>0.125</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="D34">
-        <v>0.114583333333333</v>
+        <v>2.6041666666666699E-2</v>
       </c>
       <c r="E34">
-        <v>0.10344827586206901</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="F34">
-        <v>1.6666666666666701E-2</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>6.7796610169491595E-2</v>
       </c>
       <c r="H34">
-        <v>5.3571428571428603E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="I34">
-        <v>-9.7916666666666596E-2</v>
+        <v>-2.6041666666666699E-2</v>
       </c>
       <c r="J34">
-        <v>-6.1011904761904698E-2</v>
+        <v>8.4410919540229296E-3</v>
       </c>
       <c r="K34">
-        <v>8.6781609195402204E-2</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="L34">
-        <v>1.4225181598063E-2</v>
+        <v>3.3313851548802002E-2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>5.2631578947368501E-2</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="C35">
-        <v>4.1666666666666602E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D35">
-        <v>4.71491228070176E-2</v>
+        <v>0.114583333333333</v>
       </c>
       <c r="E35">
-        <v>5.0847457627118599E-2</v>
+        <v>0.10344827586206901</v>
       </c>
       <c r="F35">
-        <v>6.6666666666666693E-2</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="G35">
-        <v>5.0847457627118599E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="H35">
-        <v>1.8181818181818198E-2</v>
+        <v>5.3571428571428603E-2</v>
       </c>
       <c r="I35">
-        <v>1.95175438596491E-2</v>
+        <v>-9.7916666666666596E-2</v>
       </c>
       <c r="J35">
-        <v>-2.8967304625199398E-2</v>
+        <v>-6.1011904761904698E-2</v>
       </c>
       <c r="K35">
-        <v>-1.5819209039548001E-2</v>
+        <v>8.6781609195402204E-2</v>
       </c>
       <c r="L35">
-        <v>3.2665639445300397E-2</v>
+        <v>1.4225181598063E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>2.0833333333333402E-2</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="C36">
-        <v>4.2105263157894798E-2</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="D36">
-        <v>3.1469298245614098E-2</v>
+        <v>4.71491228070176E-2</v>
       </c>
       <c r="E36">
-        <v>1.72413793103449E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="F36">
-        <v>6.5573770491803199E-2</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="G36">
-        <v>6.6666666666666693E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="H36">
-        <v>3.5714285714285698E-2</v>
+        <v>1.8181818181818198E-2</v>
       </c>
       <c r="I36">
-        <v>3.4104472246189198E-2</v>
+        <v>1.95175438596491E-2</v>
       </c>
       <c r="J36">
-        <v>4.2449874686716297E-3</v>
+        <v>-2.8967304625199398E-2</v>
       </c>
       <c r="K36">
-        <v>-4.8332391181458399E-2</v>
+        <v>-1.5819209039548001E-2</v>
       </c>
       <c r="L36">
-        <v>3.0952380952380999E-2</v>
+        <v>3.2665639445300397E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37">
-        <v>3.125E-2</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C37">
-        <v>4.1666666666666602E-2</v>
+        <v>4.2105263157894798E-2</v>
       </c>
       <c r="D37">
-        <v>3.6458333333333301E-2</v>
+        <v>3.1469298245614098E-2</v>
       </c>
       <c r="E37">
-        <v>8.6206896551724102E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="F37">
-        <v>0.14285714285714299</v>
+        <v>6.5573770491803199E-2</v>
       </c>
       <c r="G37">
-        <v>6.7796610169491595E-2</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="H37">
-        <v>6.7796610169491595E-2</v>
+        <v>3.5714285714285698E-2</v>
       </c>
       <c r="I37">
-        <v>0.10639880952381001</v>
+        <v>3.4104472246189198E-2</v>
       </c>
       <c r="J37">
-        <v>3.1338276836158301E-2</v>
+        <v>4.2449874686716297E-3</v>
       </c>
       <c r="K37">
-        <v>-5.6650246305418803E-2</v>
+        <v>-4.8332391181458399E-2</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>3.0952380952380999E-2</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>1.04166666666666E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C38">
-        <v>2.1052631578947299E-2</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="D38">
-        <v>1.5734649122807001E-2</v>
+        <v>3.6458333333333301E-2</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>8.6206896551724102E-2</v>
       </c>
       <c r="F38">
-        <v>8.1967213114754106E-2</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="G38">
-        <v>3.3333333333333298E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="H38">
-        <v>3.5087719298245598E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="I38">
-        <v>6.6232563991947102E-2</v>
+        <v>0.10639880952381001</v>
       </c>
       <c r="J38">
-        <v>1.9353070175438601E-2</v>
+        <v>3.1338276836158301E-2</v>
       </c>
       <c r="K38">
-        <v>-8.1967213114754106E-2</v>
+        <v>-5.6650246305418803E-2</v>
       </c>
       <c r="L38">
-        <v>-1.7543859649122901E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>4.2105263157894798E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="C39">
-        <v>6.3157894736842093E-2</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="D39">
-        <v>5.2631578947368397E-2</v>
+        <v>1.5734649122807001E-2</v>
       </c>
       <c r="E39">
-        <v>0.169491525423729</v>
+        <v>0</v>
       </c>
       <c r="F39">
+        <v>8.1967213114754106E-2</v>
+      </c>
+      <c r="G39">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="G39">
-        <v>0.101694915254237</v>
-      </c>
       <c r="H39">
-        <v>6.8965517241379296E-2</v>
+        <v>3.5087719298245598E-2</v>
       </c>
       <c r="I39">
-        <v>-1.9298245614035099E-2</v>
+        <v>6.6232563991947102E-2</v>
       </c>
       <c r="J39">
-        <v>1.6333938294010902E-2</v>
+        <v>1.9353070175438601E-2</v>
       </c>
       <c r="K39">
-        <v>0.13615819209039501</v>
+        <v>-8.1967213114754106E-2</v>
       </c>
       <c r="L39">
-        <v>3.2729398012857902E-2</v>
+        <v>-1.7543859649122901E-3</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>2.0833333333333402E-2</v>
+        <v>4.2105263157894798E-2</v>
       </c>
       <c r="C40">
-        <v>2.1052631578947299E-2</v>
+        <v>6.3157894736842093E-2</v>
       </c>
       <c r="D40">
-        <v>2.0942982456140301E-2</v>
+        <v>5.2631578947368397E-2</v>
       </c>
       <c r="E40">
-        <v>3.4482758620689599E-2</v>
+        <v>0.169491525423729</v>
       </c>
       <c r="F40">
         <v>3.3333333333333298E-2</v>
       </c>
       <c r="G40">
-        <v>5.1724137931034503E-2</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="H40">
-        <v>1.7857142857142901E-2</v>
+        <v>6.8965517241379296E-2</v>
       </c>
       <c r="I40">
-        <v>1.2390350877193E-2</v>
+        <v>-1.9298245614035099E-2</v>
       </c>
       <c r="J40">
-        <v>-3.0858395989974401E-3</v>
+        <v>1.6333938294010902E-2</v>
       </c>
       <c r="K40">
-        <v>1.1494252873562899E-3</v>
+        <v>0.13615819209039501</v>
       </c>
       <c r="L40">
-        <v>3.3866995073891598E-2</v>
+        <v>3.2729398012857902E-2</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>3.2258064516128997E-2</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C41">
-        <v>4.2105263157894798E-2</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="D41">
-        <v>3.7181663837011901E-2</v>
+        <v>2.0942982456140301E-2</v>
       </c>
       <c r="E41">
-        <v>0.31578947368421101</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="F41">
-        <v>0.322033898305085</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="G41">
-        <v>0.28813559322033899</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="H41">
-        <v>0.27586206896551702</v>
+        <v>1.7857142857142901E-2</v>
       </c>
       <c r="I41">
-        <v>0.28485223446807301</v>
+        <v>1.2390350877193E-2</v>
       </c>
       <c r="J41">
-        <v>0.238680405128505</v>
+        <v>-3.0858395989974401E-3</v>
       </c>
       <c r="K41">
-        <v>-6.2444246208742697E-3</v>
+        <v>1.1494252873562899E-3</v>
       </c>
       <c r="L41">
-        <v>1.22735242548218E-2</v>
+        <v>3.3866995073891598E-2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2625,306 +2619,306 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>2.0833333333333402E-2</v>
       </c>
       <c r="C44">
-        <v>3.1578947368420998E-2</v>
+        <v>9.4736842105263105E-2</v>
       </c>
       <c r="D44">
-        <v>2.6206140350877202E-2</v>
+        <v>5.7785087719298203E-2</v>
       </c>
       <c r="E44">
-        <v>0.24561403508771901</v>
+        <v>0.13559322033898299</v>
       </c>
       <c r="F44">
-        <v>8.6206896551724102E-2</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0.27868852459016402</v>
+        <v>0.05</v>
       </c>
       <c r="H44">
-        <v>0.23728813559322001</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="I44">
-        <v>6.0000756200846897E-2</v>
+        <v>-5.7785087719298203E-2</v>
       </c>
       <c r="J44">
-        <v>0.211081995242343</v>
+        <v>-6.0609497882637697E-3</v>
       </c>
       <c r="K44">
-        <v>0.159407138535995</v>
+        <v>0.13559322033898299</v>
       </c>
       <c r="L44">
-        <v>4.1400388996943503E-2</v>
+        <v>-1.72413793103443E-3</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>2.0833333333333402E-2</v>
+        <v>8.3333333333333398E-2</v>
       </c>
       <c r="C45">
         <v>9.4736842105263105E-2</v>
       </c>
       <c r="D45">
-        <v>5.7785087719298203E-2</v>
+        <v>8.9035087719298203E-2</v>
       </c>
       <c r="E45">
-        <v>0.13559322033898299</v>
+        <v>7.0175438596491196E-2</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>8.9285714285714302E-2</v>
       </c>
       <c r="G45">
-        <v>0.05</v>
+        <v>6.5573770491803199E-2</v>
       </c>
       <c r="H45">
-        <v>5.1724137931034503E-2</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="I45">
-        <v>-5.7785087719298203E-2</v>
+        <v>2.5062656641605701E-4</v>
       </c>
       <c r="J45">
-        <v>-6.0609497882637697E-3</v>
+        <v>-7.2085935176925395E-2</v>
       </c>
       <c r="K45">
-        <v>0.13559322033898299</v>
+        <v>-1.9110275689223102E-2</v>
       </c>
       <c r="L45">
-        <v>-1.72413793103443E-3</v>
+        <v>4.8624617949430397E-2</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>8.3333333333333398E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C46">
-        <v>9.4736842105263105E-2</v>
+        <v>6.3157894736842093E-2</v>
       </c>
       <c r="D46">
-        <v>8.9035087719298203E-2</v>
+        <v>4.7203947368420998E-2</v>
       </c>
       <c r="E46">
-        <v>7.0175438596491196E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="F46">
-        <v>8.9285714285714302E-2</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>6.5573770491803199E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="H46">
-        <v>1.6949152542372801E-2</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>2.5062656641605701E-4</v>
+        <v>-4.7203947368420998E-2</v>
       </c>
       <c r="J46">
-        <v>-7.2085935176925395E-2</v>
+        <v>-4.7203947368420998E-2</v>
       </c>
       <c r="K46">
-        <v>-1.9110275689223102E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="L46">
-        <v>4.8624617949430397E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C47">
-        <v>6.3157894736842093E-2</v>
+        <v>2.1276595744680899E-2</v>
       </c>
       <c r="D47">
-        <v>4.7203947368420998E-2</v>
+        <v>4.1888297872340399E-2</v>
       </c>
       <c r="E47">
-        <v>3.4482758620689599E-2</v>
+        <v>0.140350877192982</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="G47">
+        <v>6.5573770491803199E-2</v>
+      </c>
+      <c r="H47">
         <v>3.3898305084745797E-2</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
       <c r="I47">
-        <v>-4.7203947368420998E-2</v>
+        <v>9.8358400586940307E-3</v>
       </c>
       <c r="J47">
-        <v>-4.7203947368420998E-2</v>
+        <v>-7.9899927875946592E-3</v>
       </c>
       <c r="K47">
-        <v>3.4482758620689599E-2</v>
+        <v>8.8626739261948001E-2</v>
       </c>
       <c r="L47">
-        <v>3.3898305084745797E-2</v>
+        <v>3.1675465407057499E-2</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>6.25E-2</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="C48">
-        <v>2.1276595744680899E-2</v>
+        <v>0.12631578947368399</v>
       </c>
       <c r="D48">
-        <v>4.1888297872340399E-2</v>
+        <v>0.11524122807017501</v>
       </c>
       <c r="E48">
-        <v>0.140350877192982</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="F48">
-        <v>5.1724137931034503E-2</v>
+        <v>8.3333333333333398E-2</v>
       </c>
       <c r="G48">
-        <v>6.5573770491803199E-2</v>
+        <v>9.8360655737704902E-2</v>
       </c>
       <c r="H48">
-        <v>3.3898305084745797E-2</v>
+        <v>8.77192982456141E-2</v>
       </c>
       <c r="I48">
-        <v>9.8358400586940307E-3</v>
+        <v>-3.1907894736842003E-2</v>
       </c>
       <c r="J48">
-        <v>-7.9899927875946592E-3</v>
+        <v>-2.7521929824561302E-2</v>
       </c>
       <c r="K48">
-        <v>8.8626739261948001E-2</v>
+        <v>-3.07017543859649E-2</v>
       </c>
       <c r="L48">
-        <v>3.1675465407057499E-2</v>
+        <v>1.0641357492090799E-2</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" s="3">
-        <v>0.104166666666667</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C49" s="3">
-        <v>0.12631578947368399</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="D49" s="3">
-        <v>0.11524122807017501</v>
+        <v>2.61513157894737E-2</v>
       </c>
       <c r="E49" s="3">
-        <v>5.2631578947368501E-2</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="F49" s="3">
-        <v>8.3333333333333398E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>9.8360655737704902E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H49" s="3">
-        <v>8.77192982456141E-2</v>
+        <v>1.7857142857142901E-2</v>
       </c>
       <c r="I49" s="3">
-        <v>-3.1907894736842003E-2</v>
+        <v>2.4696141837645E-2</v>
       </c>
       <c r="J49" s="3">
-        <v>-2.7521929824561302E-2</v>
+        <v>-8.2941729323307602E-3</v>
       </c>
       <c r="K49" s="3">
-        <v>-3.07017543859649E-2</v>
+        <v>5.6295399515738503E-2</v>
       </c>
       <c r="L49" s="3">
-        <v>1.0641357492090799E-2</v>
+        <v>3.2142857142857098E-2</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>3.125E-2</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C50">
-        <v>2.1052631578947299E-2</v>
+        <v>3.1578947368420998E-2</v>
       </c>
       <c r="D50">
-        <v>2.61513157894737E-2</v>
+        <v>2.6206140350877202E-2</v>
       </c>
       <c r="E50">
-        <v>0.107142857142857</v>
+        <v>9.2592592592592601E-2</v>
       </c>
       <c r="F50">
-        <v>5.0847457627118599E-2</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="G50">
-        <v>0.05</v>
+        <v>4.91803278688525E-2</v>
       </c>
       <c r="H50">
-        <v>1.7857142857142901E-2</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>2.4696141837645E-2</v>
+        <v>7.12719298245612E-3</v>
       </c>
       <c r="J50">
-        <v>-8.2941729323307602E-3</v>
+        <v>-2.6206140350877202E-2</v>
       </c>
       <c r="K50">
-        <v>5.6295399515738503E-2</v>
+        <v>5.9259259259259199E-2</v>
       </c>
       <c r="L50">
-        <v>3.2142857142857098E-2</v>
+        <v>4.91803278688525E-2</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>2.0833333333333402E-2</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="C51">
-        <v>3.1578947368420998E-2</v>
+        <v>4.2105263157894798E-2</v>
       </c>
       <c r="D51">
-        <v>2.6206140350877202E-2</v>
+        <v>7.3135964912280693E-2</v>
       </c>
       <c r="E51">
-        <v>9.2592592592592601E-2</v>
+        <v>0.26315789473684198</v>
       </c>
       <c r="F51">
-        <v>3.3333333333333298E-2</v>
+        <v>0.10344827586206901</v>
       </c>
       <c r="G51">
-        <v>4.91803278688525E-2</v>
+        <v>0.16393442622950799</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>0.13793103448275901</v>
       </c>
       <c r="I51">
-        <v>7.12719298245612E-3</v>
+        <v>3.0312310949788299E-2</v>
       </c>
       <c r="J51">
-        <v>-2.6206140350877202E-2</v>
+        <v>6.4795069570477995E-2</v>
       </c>
       <c r="K51">
-        <v>5.9259259259259199E-2</v>
+        <v>0.159709618874773</v>
       </c>
       <c r="L51">
-        <v>4.91803278688525E-2</v>
+        <v>2.60033917467495E-2</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3461,1170 +3455,1246 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>3.125E-2</v>
+        <v>4.3478260869565202E-2</v>
       </c>
       <c r="C66">
-        <v>2.1052631578947299E-2</v>
+        <v>0.21276595744680801</v>
       </c>
       <c r="D66">
-        <v>2.61513157894737E-2</v>
+        <v>0.128122109158187</v>
       </c>
       <c r="E66">
-        <v>1.8181818181818198E-2</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="F66">
-        <v>1.7857142857142901E-2</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="G66">
-        <v>6.5573770491803199E-2</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="H66">
-        <v>1.8181818181818198E-2</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="I66">
-        <v>-8.2941729323307602E-3</v>
+        <v>5.8318568807914799E-2</v>
       </c>
       <c r="J66">
-        <v>-7.9694976076554701E-3</v>
+        <v>-2.09792520153297E-2</v>
       </c>
       <c r="K66">
-        <v>3.2467532467528299E-4</v>
+        <v>-3.38983050847457E-2</v>
       </c>
       <c r="L66">
-        <v>4.7391952309985101E-2</v>
+        <v>-4.0476190476190402E-2</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>4.1666666666666602E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C67">
-        <v>3.1578947368420998E-2</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="D67">
-        <v>3.66228070175438E-2</v>
+        <v>2.61513157894737E-2</v>
       </c>
       <c r="E67">
-        <v>8.77192982456141E-2</v>
+        <v>1.8181818181818198E-2</v>
       </c>
       <c r="F67">
-        <v>3.3898305084745797E-2</v>
+        <v>1.7857142857142901E-2</v>
       </c>
       <c r="G67">
-        <v>3.2786885245901697E-2</v>
+        <v>6.5573770491803199E-2</v>
       </c>
       <c r="H67">
-        <v>5.2631578947368501E-2</v>
+        <v>1.8181818181818198E-2</v>
       </c>
       <c r="I67">
-        <v>-2.72450193279805E-3</v>
+        <v>-8.2941729323307602E-3</v>
       </c>
       <c r="J67">
-        <v>1.6008771929824601E-2</v>
+        <v>-7.9694976076554701E-3</v>
       </c>
       <c r="K67">
-        <v>5.3820993160868302E-2</v>
+        <v>3.2467532467528299E-4</v>
       </c>
       <c r="L67">
-        <v>-1.9844693701466801E-2</v>
+        <v>4.7391952309985101E-2</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>1.05263157894737E-2</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="C68">
-        <v>2.1052631578947299E-2</v>
+        <v>3.1578947368420998E-2</v>
       </c>
       <c r="D68">
-        <v>1.5789473684210499E-2</v>
+        <v>3.66228070175438E-2</v>
       </c>
       <c r="E68">
-        <v>1.72413793103449E-2</v>
+        <v>8.77192982456141E-2</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="G68">
-        <v>3.3898305084745797E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="I68">
-        <v>-1.5789473684210499E-2</v>
+        <v>-2.72450193279805E-3</v>
       </c>
       <c r="J68">
-        <v>-1.5789473684210499E-2</v>
+        <v>1.6008771929824601E-2</v>
       </c>
       <c r="K68">
-        <v>1.72413793103449E-2</v>
+        <v>5.3820993160868302E-2</v>
       </c>
       <c r="L68">
-        <v>3.3898305084745797E-2</v>
+        <v>-1.9844693701466801E-2</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1.5789473684210499E-2</v>
       </c>
       <c r="E69">
-        <v>5.3571428571428603E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="F69">
-        <v>1.6666666666666701E-2</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>1.6666666666666701E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>-1.5789473684210499E-2</v>
+      </c>
+      <c r="J69">
+        <v>-1.5789473684210499E-2</v>
+      </c>
+      <c r="K69">
         <v>1.72413793103449E-2</v>
       </c>
-      <c r="I69">
-        <v>1.6666666666666701E-2</v>
-      </c>
-      <c r="J69">
-        <v>1.72413793103449E-2</v>
-      </c>
-      <c r="K69">
-        <v>3.6904761904761899E-2</v>
-      </c>
       <c r="L69">
-        <v>-5.74712643678144E-4</v>
+        <v>3.3898305084745797E-2</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B70">
-        <v>4.1666666666666602E-2</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>6.3157894736842093E-2</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>5.2412280701754403E-2</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>5.0847457627118599E-2</v>
+        <v>5.3571428571428603E-2</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="G70">
-        <v>6.7796610169491595E-2</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="H70">
-        <v>1.8181818181818198E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="I70">
-        <v>-5.2412280701754403E-2</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="J70">
-        <v>-3.4230462519936201E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="K70">
-        <v>5.0847457627118599E-2</v>
+        <v>3.6904761904761899E-2</v>
       </c>
       <c r="L70">
-        <v>4.96147919876734E-2</v>
+        <v>-5.74712643678144E-4</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71">
-        <v>3.125E-2</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="C71">
-        <v>1.05263157894737E-2</v>
+        <v>6.3157894736842093E-2</v>
       </c>
       <c r="D71">
-        <v>2.08881578947369E-2</v>
+        <v>5.2412280701754403E-2</v>
       </c>
       <c r="E71">
         <v>5.0847457627118599E-2</v>
       </c>
       <c r="F71">
-        <v>3.5087719298245598E-2</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>3.2786885245901697E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="H71">
-        <v>5.2631578947368501E-2</v>
+        <v>1.8181818181818198E-2</v>
       </c>
       <c r="I71">
-        <v>1.41995614035088E-2</v>
+        <v>-5.2412280701754403E-2</v>
       </c>
       <c r="J71">
-        <v>3.1743421052631601E-2</v>
+        <v>-3.4230462519936201E-2</v>
       </c>
       <c r="K71">
-        <v>1.5759738328873001E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="L71">
-        <v>-1.9844693701466801E-2</v>
+        <v>4.96147919876734E-2</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72">
-        <v>2.0833333333333402E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="D72">
-        <v>1.0416666666666701E-2</v>
+        <v>2.08881578947369E-2</v>
       </c>
       <c r="E72">
-        <v>1.6949152542372801E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="F72">
-        <v>1.6666666666666701E-2</v>
+        <v>3.5087719298245598E-2</v>
       </c>
       <c r="G72">
-        <v>1.7857142857142901E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="I72">
-        <v>6.2500000000000298E-3</v>
+        <v>1.41995614035088E-2</v>
       </c>
       <c r="J72">
-        <v>-1.0416666666666701E-2</v>
+        <v>3.1743421052631601E-2</v>
       </c>
       <c r="K72">
-        <v>2.8248587570611799E-4</v>
+        <v>1.5759738328873001E-2</v>
       </c>
       <c r="L72">
-        <v>1.7857142857142901E-2</v>
+        <v>-1.9844693701466801E-2</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B73">
         <v>2.0833333333333402E-2</v>
       </c>
       <c r="C73">
-        <v>1.05263157894737E-2</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>1.5679824561403499E-2</v>
+        <v>1.0416666666666701E-2</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="G73">
-        <v>3.5087719298245598E-2</v>
+        <v>1.7857142857142901E-2</v>
       </c>
       <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>6.2500000000000298E-3</v>
+      </c>
+      <c r="J73">
+        <v>-1.0416666666666701E-2</v>
+      </c>
+      <c r="K73">
+        <v>2.8248587570611799E-4</v>
+      </c>
+      <c r="L73">
         <v>1.7857142857142901E-2</v>
-      </c>
-      <c r="I73">
-        <v>-1.5679824561403499E-2</v>
-      </c>
-      <c r="J73">
-        <v>2.1773182957393598E-3</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>1.72305764411027E-2</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B74">
         <v>2.0833333333333402E-2</v>
       </c>
       <c r="C74">
-        <v>2.1052631578947299E-2</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="D74">
-        <v>2.0942982456140301E-2</v>
+        <v>1.5679824561403499E-2</v>
       </c>
       <c r="E74">
-        <v>1.6949152542372801E-2</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.75438596491229E-2</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>1.72413793103449E-2</v>
+        <v>3.5087719298245598E-2</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1.7857142857142901E-2</v>
       </c>
       <c r="I74">
-        <v>-3.3991228070174898E-3</v>
+        <v>-1.5679824561403499E-2</v>
       </c>
       <c r="J74">
-        <v>-2.0942982456140301E-2</v>
+        <v>2.1773182957393598E-3</v>
       </c>
       <c r="K74">
-        <v>-5.9470710675002504E-4</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>1.72413793103449E-2</v>
+        <v>1.72305764411027E-2</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C75">
-        <v>1.05263157894737E-2</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="D75">
-        <v>5.2631578947368602E-3</v>
+        <v>2.0942982456140301E-2</v>
       </c>
       <c r="E75">
-        <v>3.4482758620689599E-2</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1.75438596491229E-2</v>
       </c>
       <c r="G75">
-        <v>6.7796610169491595E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="H75">
-        <v>1.75438596491229E-2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>-5.2631578947368602E-3</v>
+        <v>-3.3991228070174898E-3</v>
       </c>
       <c r="J75">
-        <v>1.2280701754386E-2</v>
+        <v>-2.0942982456140301E-2</v>
       </c>
       <c r="K75">
-        <v>3.4482758620689599E-2</v>
+        <v>-5.9470710675002504E-4</v>
       </c>
       <c r="L75">
-        <v>5.0252750520368698E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>3.1578947368420998E-2</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="D76">
-        <v>1.5789473684210499E-2</v>
+        <v>5.2631578947368602E-3</v>
       </c>
       <c r="E76">
         <v>3.4482758620689599E-2</v>
       </c>
       <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
         <v>6.7796610169491595E-2</v>
       </c>
-      <c r="G76">
-        <v>8.6206896551724102E-2</v>
-      </c>
       <c r="H76">
-        <v>1.7857142857142901E-2</v>
+        <v>1.75438596491229E-2</v>
       </c>
       <c r="I76">
-        <v>5.2007136485280998E-2</v>
+        <v>-5.2631578947368602E-3</v>
       </c>
       <c r="J76">
-        <v>2.0676691729323801E-3</v>
+        <v>1.2280701754386E-2</v>
       </c>
       <c r="K76">
-        <v>-3.3313851548802002E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="L76">
-        <v>6.8349753694581197E-2</v>
+        <v>5.0252750520368698E-2</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B77">
-        <v>1.05263157894737E-2</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>3.1578947368420998E-2</v>
       </c>
       <c r="D77">
-        <v>2.1052631578947399E-2</v>
+        <v>1.5789473684210499E-2</v>
       </c>
       <c r="E77">
-        <v>5.1724137931034503E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="F77">
-        <v>3.5714285714285698E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="G77">
-        <v>8.1967213114754106E-2</v>
+        <v>8.6206896551724102E-2</v>
       </c>
       <c r="H77">
-        <v>5.1724137931034503E-2</v>
+        <v>1.7857142857142901E-2</v>
       </c>
       <c r="I77">
-        <v>1.4661654135338299E-2</v>
+        <v>5.2007136485280998E-2</v>
       </c>
       <c r="J77">
-        <v>3.06715063520871E-2</v>
+        <v>2.0676691729323801E-3</v>
       </c>
       <c r="K77">
-        <v>1.6009852216748801E-2</v>
+        <v>-3.3313851548802002E-2</v>
       </c>
       <c r="L77">
-        <v>3.02430751837196E-2</v>
+        <v>6.8349753694581197E-2</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78">
-        <v>4.2105263157894798E-2</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="C78">
         <v>3.1578947368420998E-2</v>
       </c>
       <c r="D78">
-        <v>3.6842105263157898E-2</v>
+        <v>2.1052631578947399E-2</v>
       </c>
       <c r="E78">
-        <v>6.8965517241379296E-2</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="F78">
+        <v>3.5714285714285698E-2</v>
+      </c>
+      <c r="G78">
+        <v>8.1967213114754106E-2</v>
+      </c>
+      <c r="H78">
         <v>5.1724137931034503E-2</v>
       </c>
-      <c r="G78">
-        <v>6.6666666666666693E-2</v>
-      </c>
-      <c r="H78">
-        <v>1.6949152542372801E-2</v>
-      </c>
       <c r="I78">
-        <v>1.4882032667876599E-2</v>
+        <v>1.4661654135338299E-2</v>
       </c>
       <c r="J78">
-        <v>-1.98929527207851E-2</v>
+        <v>3.06715063520871E-2</v>
       </c>
       <c r="K78">
-        <v>1.72413793103449E-2</v>
+        <v>1.6009852216748801E-2</v>
       </c>
       <c r="L78">
-        <v>4.9717514124293802E-2</v>
+        <v>3.02430751837196E-2</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>4.2105263157894798E-2</v>
       </c>
       <c r="C79">
-        <v>1.05263157894737E-2</v>
+        <v>3.1578947368420998E-2</v>
       </c>
       <c r="D79">
-        <v>5.2631578947368602E-3</v>
+        <v>3.6842105263157898E-2</v>
       </c>
       <c r="E79">
-        <v>3.4482758620689599E-2</v>
+        <v>6.8965517241379296E-2</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="G79">
-        <v>1.63934426229508E-2</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="H79">
-        <v>1.75438596491229E-2</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="I79">
-        <v>-5.2631578947368602E-3</v>
+        <v>1.4882032667876599E-2</v>
       </c>
       <c r="J79">
-        <v>1.2280701754386E-2</v>
+        <v>-1.98929527207851E-2</v>
       </c>
       <c r="K79">
-        <v>3.4482758620689599E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="L79">
-        <v>-1.15041702617202E-3</v>
+        <v>4.9717514124293802E-2</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B80">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>3.1578947368420998E-2</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="D80">
-        <v>4.7039473684210499E-2</v>
+        <v>5.2631578947368602E-3</v>
       </c>
       <c r="E80">
-        <v>3.3898305084745797E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="F80">
-        <v>1.6666666666666701E-2</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>5.1724137931034503E-2</v>
+        <v>1.63934426229508E-2</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1.75438596491229E-2</v>
       </c>
       <c r="I80">
-        <v>-3.0372807017543801E-2</v>
+        <v>-5.2631578947368602E-3</v>
       </c>
       <c r="J80">
-        <v>-4.7039473684210499E-2</v>
+        <v>1.2280701754386E-2</v>
       </c>
       <c r="K80">
-        <v>1.72316384180791E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="L80">
-        <v>5.1724137931034503E-2</v>
+        <v>-1.15041702617202E-3</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B81">
-        <v>2.0833333333333402E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C81">
-        <v>1.05263157894737E-2</v>
+        <v>3.1578947368420998E-2</v>
       </c>
       <c r="D81">
-        <v>1.5679824561403499E-2</v>
+        <v>4.7039473684210499E-2</v>
       </c>
       <c r="E81">
-        <v>5.0847457627118599E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="F81">
-        <v>3.3333333333333298E-2</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="G81">
-        <v>0.05</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="H81">
-        <v>6.8965517241379296E-2</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1.76535087719298E-2</v>
+        <v>-3.0372807017543801E-2</v>
       </c>
       <c r="J81">
-        <v>5.32856926799758E-2</v>
+        <v>-4.7039473684210499E-2</v>
       </c>
       <c r="K81">
-        <v>1.7514124293785301E-2</v>
+        <v>1.72316384180791E-2</v>
       </c>
       <c r="L81">
-        <v>-1.89655172413793E-2</v>
+        <v>5.1724137931034503E-2</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B82">
         <v>2.0833333333333402E-2</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="D82">
-        <v>1.0416666666666701E-2</v>
+        <v>1.5679824561403499E-2</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="F82">
-        <v>1.6949152542372801E-2</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>6.8965517241379296E-2</v>
       </c>
       <c r="I82">
-        <v>6.5324858757061502E-3</v>
+        <v>1.76535087719298E-2</v>
       </c>
       <c r="J82">
-        <v>-1.0416666666666701E-2</v>
+        <v>5.32856926799758E-2</v>
       </c>
       <c r="K82">
-        <v>-1.6949152542372801E-2</v>
+        <v>1.7514124293785301E-2</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>-1.89655172413793E-2</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B83">
-        <v>3.125E-2</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C83">
-        <v>2.1052631578947299E-2</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>2.61513157894737E-2</v>
+        <v>1.0416666666666701E-2</v>
       </c>
       <c r="E83">
-        <v>3.5087719298245598E-2</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="G83">
-        <v>1.6666666666666701E-2</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>-2.61513157894737E-2</v>
+        <v>6.5324858757061502E-3</v>
       </c>
       <c r="J83">
-        <v>-2.61513157894737E-2</v>
+        <v>-1.0416666666666701E-2</v>
       </c>
       <c r="K83">
-        <v>3.5087719298245598E-2</v>
+        <v>-1.6949152542372801E-2</v>
       </c>
       <c r="L83">
-        <v>1.6666666666666701E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B84">
-        <v>3.125E-2</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="C84">
-        <v>1.05263157894737E-2</v>
+        <v>3.1578947368420998E-2</v>
       </c>
       <c r="D84">
-        <v>2.08881578947369E-2</v>
+        <v>6.7872807017543793E-2</v>
       </c>
       <c r="E84">
+        <v>0.163636363636364</v>
+      </c>
+      <c r="F84">
         <v>5.2631578947368501E-2</v>
       </c>
-      <c r="F84">
-        <v>3.4482758620689599E-2</v>
-      </c>
       <c r="G84">
-        <v>0</v>
+        <v>0.116666666666667</v>
       </c>
       <c r="H84">
-        <v>1.75438596491229E-2</v>
+        <v>8.77192982456141E-2</v>
       </c>
       <c r="I84">
-        <v>1.35946007259528E-2</v>
+        <v>-1.5241228070175399E-2</v>
       </c>
       <c r="J84">
-        <v>-3.3442982456139999E-3</v>
+        <v>1.98464912280703E-2</v>
       </c>
       <c r="K84">
-        <v>1.8148820326678899E-2</v>
+        <v>0.111004784688995</v>
       </c>
       <c r="L84">
-        <v>-1.75438596491229E-2</v>
+        <v>2.89473684210526E-2</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B85">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C85">
         <v>2.1052631578947299E-2</v>
       </c>
-      <c r="C85">
-        <v>1.05263157894737E-2</v>
-      </c>
       <c r="D85">
-        <v>1.5789473684210499E-2</v>
+        <v>2.61513157894737E-2</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>3.5087719298245598E-2</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>1.75438596491229E-2</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="H85">
-        <v>1.75438596491229E-2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>-1.5789473684210499E-2</v>
+        <v>-2.61513157894737E-2</v>
       </c>
       <c r="J85">
-        <v>1.7543859649123399E-3</v>
+        <v>-2.61513157894737E-2</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>3.5087719298245598E-2</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>1.6666666666666701E-2</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B86">
-        <v>1.04166666666666E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C86">
-        <v>2.1052631578947299E-2</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="D86">
-        <v>1.5734649122807001E-2</v>
+        <v>2.08881578947369E-2</v>
       </c>
       <c r="E86">
         <v>5.2631578947368501E-2</v>
       </c>
       <c r="F86">
-        <v>1.6949152542372801E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="G86">
-        <v>5.0847457627118599E-2</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>1.6949152542372801E-2</v>
+        <v>1.75438596491229E-2</v>
       </c>
       <c r="I86">
-        <v>1.2145034195658599E-3</v>
+        <v>1.35946007259528E-2</v>
       </c>
       <c r="J86">
-        <v>1.2145034195658599E-3</v>
+        <v>-3.3442982456139999E-3</v>
       </c>
       <c r="K86">
-        <v>3.5682426404995603E-2</v>
+        <v>1.8148820326678899E-2</v>
       </c>
       <c r="L86">
-        <v>3.3898305084745797E-2</v>
+        <v>-1.75438596491229E-2</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B87">
-        <v>2.0833333333333402E-2</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="C87">
-        <v>2.1276595744680899E-2</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="D87">
-        <v>2.1054964539007098E-2</v>
+        <v>1.5789473684210499E-2</v>
       </c>
       <c r="E87">
-        <v>6.8965517241379296E-2</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>5.0847457627118599E-2</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>3.3333333333333298E-2</v>
+        <v>1.75438596491229E-2</v>
       </c>
       <c r="H87">
-        <v>5.2631578947368501E-2</v>
+        <v>1.75438596491229E-2</v>
       </c>
       <c r="I87">
-        <v>2.97924930881115E-2</v>
+        <v>-1.5789473684210499E-2</v>
       </c>
       <c r="J87">
-        <v>3.1576614408361299E-2</v>
+        <v>1.7543859649123399E-3</v>
       </c>
       <c r="K87">
-        <v>1.81180596142607E-2</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>-1.9298245614035099E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
+        <v>100</v>
+      </c>
+      <c r="B88">
+        <v>1.04166666666666E-2</v>
+      </c>
+      <c r="C88">
+        <v>2.1052631578947299E-2</v>
+      </c>
+      <c r="D88">
+        <v>1.5734649122807001E-2</v>
+      </c>
+      <c r="E88">
+        <v>5.2631578947368501E-2</v>
+      </c>
+      <c r="F88">
+        <v>1.6949152542372801E-2</v>
+      </c>
+      <c r="G88">
+        <v>5.0847457627118599E-2</v>
+      </c>
+      <c r="H88">
+        <v>1.6949152542372801E-2</v>
+      </c>
+      <c r="I88">
+        <v>1.2145034195658599E-3</v>
+      </c>
+      <c r="J88">
+        <v>1.2145034195658599E-3</v>
+      </c>
+      <c r="K88">
+        <v>3.5682426404995603E-2</v>
+      </c>
+      <c r="L88">
+        <v>3.3898305084745797E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>101</v>
+      </c>
+      <c r="B89">
+        <v>2.0833333333333402E-2</v>
+      </c>
+      <c r="C89">
+        <v>2.1276595744680899E-2</v>
+      </c>
+      <c r="D89">
+        <v>2.1054964539007098E-2</v>
+      </c>
+      <c r="E89">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="F89">
+        <v>5.0847457627118599E-2</v>
+      </c>
+      <c r="G89">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="H89">
+        <v>5.2631578947368501E-2</v>
+      </c>
+      <c r="I89">
+        <v>2.97924930881115E-2</v>
+      </c>
+      <c r="J89">
+        <v>3.1576614408361299E-2</v>
+      </c>
+      <c r="K89">
+        <v>1.81180596142607E-2</v>
+      </c>
+      <c r="L89">
+        <v>-1.9298245614035099E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>102</v>
       </c>
-      <c r="B88">
+      <c r="B90">
         <v>4.1666666666666602E-2</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
         <v>2.0833333333333301E-2</v>
       </c>
-      <c r="E88">
+      <c r="E90">
         <v>0.15517241379310301</v>
       </c>
-      <c r="F88">
+      <c r="F90">
         <v>7.0175438596491196E-2</v>
       </c>
-      <c r="G88">
+      <c r="G90">
         <v>0.1</v>
       </c>
-      <c r="H88">
+      <c r="H90">
         <v>8.9285714285714302E-2</v>
       </c>
-      <c r="I88">
+      <c r="I90">
         <v>4.9342105263157902E-2</v>
       </c>
-      <c r="J88">
+      <c r="J90">
         <v>6.8452380952381001E-2</v>
       </c>
-      <c r="K88">
+      <c r="K90">
         <v>8.4996975196612201E-2</v>
       </c>
-      <c r="L88">
+      <c r="L90">
         <v>1.0714285714285701E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B90">
-        <f t="shared" ref="B90:L90" si="0">AVERAGE(B2:B88)</f>
-        <v>2.6511385294902077E-2</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="0"/>
-        <v>3.25581073778154E-2</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="0"/>
-        <v>2.9534746336358716E-2</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="0"/>
-        <v>6.0259069604152685E-2</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="0"/>
-        <v>3.5492198030588271E-2</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="0"/>
-        <v>5.5234263651551353E-2</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="0"/>
-        <v>3.2868674552675066E-2</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="0"/>
-        <v>5.9574516942295661E-3</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="0"/>
-        <v>3.333928216316341E-3</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="0"/>
-        <v>2.476687157356439E-2</v>
-      </c>
-      <c r="L90">
-        <f t="shared" si="0"/>
-        <v>2.2365589098876284E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91">
-        <f t="shared" ref="B91:L91" si="1">STDEV(B2:B88)</f>
-        <v>2.3353769939004874E-2</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="1"/>
-        <v>3.1622101996825074E-2</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="1"/>
-        <v>2.4183903534280165E-2</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="1"/>
-        <v>5.6431542904787836E-2</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="1"/>
-        <v>4.7625160156382997E-2</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="1"/>
-        <v>4.8984230306785718E-2</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="1"/>
-        <v>4.4757294808329295E-2</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="1"/>
-        <v>4.7684513583627255E-2</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="1"/>
-        <v>4.5170855798954579E-2</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="1"/>
-        <v>4.0536725597810366E-2</v>
-      </c>
-      <c r="L91">
-        <f t="shared" si="1"/>
-        <v>3.3221744488838918E-2</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B92">
-        <f>B91/(SQRT(80))</f>
-        <v>2.6110308557253008E-3</v>
+        <f>AVERAGE(B2:B90)</f>
+        <v>2.8858074289289437E-2</v>
       </c>
       <c r="C92">
-        <f t="shared" ref="C92:L92" si="2">C91/(SQRT(80))</f>
-        <v>3.5354584828166352E-3</v>
+        <f t="shared" ref="C92:L92" si="0">AVERAGE(C2:C90)</f>
+        <v>3.6227737839750584E-2</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
-        <v>2.7038426131973932E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.2542906064519983E-2</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
-        <v>6.3092383005150772E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.1201268045056371E-2</v>
       </c>
       <c r="F92">
-        <f t="shared" si="2"/>
-        <v>5.3246547774493443E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.4924807450917236E-2</v>
       </c>
       <c r="G92">
-        <f t="shared" si="2"/>
-        <v>5.476603439573912E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.1716558786288523E-2</v>
       </c>
       <c r="H92">
-        <f t="shared" si="2"/>
-        <v>5.0040176840211361E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.0103569341519379E-2</v>
       </c>
       <c r="I92">
-        <f t="shared" si="2"/>
-        <v>5.3312906923501319E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.3819013863972676E-3</v>
       </c>
       <c r="J92">
-        <f t="shared" si="2"/>
-        <v>5.0502552084151506E-3</v>
+        <f t="shared" si="0"/>
+        <v>-2.4393367230006154E-3</v>
       </c>
       <c r="K92">
-        <f t="shared" si="2"/>
-        <v>4.5321437010979885E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.6276460594139121E-2</v>
       </c>
       <c r="L92">
-        <f t="shared" si="2"/>
-        <v>3.7143039504086411E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.1612989444769172E-2</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>17</v>
+      <c r="A93" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B93">
-        <f>B92*1.96</f>
-        <v>5.1176204772215893E-3</v>
+        <f>STDEV(B2:B90)</f>
+        <v>2.6120442391495396E-2</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:L93" si="3">C92*1.96</f>
-        <v>6.9294986263206048E-3</v>
+        <f t="shared" ref="C93:L93" si="1">STDEV(C2:C90)</f>
+        <v>3.9700945296100743E-2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
-        <v>5.2995315218668905E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.8382334605363095E-2</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
-        <v>1.2366107069009551E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.334601695311695E-2</v>
       </c>
       <c r="F93">
-        <f t="shared" si="3"/>
-        <v>1.0436323363800714E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.9974969186708204E-2</v>
       </c>
       <c r="G93">
-        <f t="shared" si="3"/>
-        <v>1.0734142741564867E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.6659223909456903E-2</v>
       </c>
       <c r="H93">
-        <f t="shared" si="3"/>
-        <v>9.8078746606814274E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.2229052303195324E-2</v>
       </c>
       <c r="I93">
-        <f t="shared" si="3"/>
-        <v>1.0449329757006258E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.679739202022618E-2</v>
       </c>
       <c r="J93">
-        <f t="shared" si="3"/>
-        <v>9.8985002084936956E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.269601242533892E-2</v>
       </c>
       <c r="K93">
-        <f t="shared" si="3"/>
-        <v>8.8830016541520569E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.2212706270277685E-2</v>
       </c>
       <c r="L93">
-        <f t="shared" si="3"/>
-        <v>7.280035742800936E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.3445554013682488E-2</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94">
+        <f>B93/(SQRT(80))</f>
+        <v>2.920354239487544E-3</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ref="C94:L94" si="2">C93/(SQRT(80))</f>
+        <v>4.4387006226540883E-3</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>3.1732414768868272E-3</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="2"/>
+        <v>5.964266011801285E-3</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>4.4693374249969511E-3</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>4.0986258331965611E-3</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="2"/>
+        <v>3.6033175900170452E-3</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="2"/>
+        <v>4.1140734975967028E-3</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="2"/>
+        <v>3.6555253188117797E-3</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="2"/>
+        <v>4.7195240367286255E-3</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="2"/>
+        <v>3.7393266159867484E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95">
+        <f>B94*1.96</f>
+        <v>5.7238943093955857E-3</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ref="C95:L95" si="3">C94*1.96</f>
+        <v>8.6998532204020131E-3</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>6.2195532946981808E-3</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="3"/>
+        <v>1.1689961383130519E-2</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="3"/>
+        <v>8.7599013529940234E-3</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>8.0333066330652587E-3</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="3"/>
+        <v>7.0625024764334084E-3</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="3"/>
+        <v>8.0635840552895372E-3</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="3"/>
+        <v>7.1648296248710882E-3</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="3"/>
+        <v>9.2502671119881058E-3</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="3"/>
+        <v>7.3290801673340268E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B94">
-        <f>B90+B93</f>
-        <v>3.1629005772123665E-2</v>
-      </c>
-      <c r="C94">
-        <f t="shared" ref="C94:L94" si="4">C90+C93</f>
-        <v>3.9487606004136006E-2</v>
-      </c>
-      <c r="D94">
+      <c r="B96">
+        <f>B92+B95</f>
+        <v>3.4581968598685023E-2</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ref="C96:L96" si="4">C92+C95</f>
+        <v>4.4927591060152594E-2</v>
+      </c>
+      <c r="D96">
         <f t="shared" si="4"/>
-        <v>3.4834277858225605E-2</v>
-      </c>
-      <c r="E94">
+        <v>3.8762459359218161E-2</v>
+      </c>
+      <c r="E96">
         <f t="shared" si="4"/>
-        <v>7.2625176673162234E-2</v>
-      </c>
-      <c r="F94">
+        <v>7.2891229428186891E-2</v>
+      </c>
+      <c r="F96">
         <f t="shared" si="4"/>
-        <v>4.5928521394388987E-2</v>
-      </c>
-      <c r="G94">
+        <v>4.368470880391126E-2</v>
+      </c>
+      <c r="G96">
         <f t="shared" si="4"/>
-        <v>6.5968406393116213E-2</v>
-      </c>
-      <c r="H94">
+        <v>5.974986541935378E-2</v>
+      </c>
+      <c r="H96">
         <f t="shared" si="4"/>
-        <v>4.2676549213356493E-2</v>
-      </c>
-      <c r="I94">
+        <v>3.7166071817952784E-2</v>
+      </c>
+      <c r="I96">
         <f t="shared" si="4"/>
-        <v>1.6406781451235825E-2</v>
-      </c>
-      <c r="J94">
+        <v>1.0445485441686804E-2</v>
+      </c>
+      <c r="J96">
         <f t="shared" si="4"/>
-        <v>1.3232428424810037E-2</v>
-      </c>
-      <c r="K94">
+        <v>4.7254929018704728E-3</v>
+      </c>
+      <c r="K96">
         <f t="shared" si="4"/>
-        <v>3.3649873227716447E-2</v>
-      </c>
-      <c r="L94">
+        <v>3.5526727706127227E-2</v>
+      </c>
+      <c r="L96">
         <f t="shared" si="4"/>
-        <v>2.964562484167722E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+        <v>2.8942069612103199E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B95">
-        <f>B90-B93</f>
-        <v>2.1393764817680488E-2</v>
-      </c>
-      <c r="C95">
-        <f t="shared" ref="C95:L95" si="5">C90-C93</f>
-        <v>2.5628608751494794E-2</v>
-      </c>
-      <c r="D95">
+      <c r="B97">
+        <f>B92-B95</f>
+        <v>2.3134179979893851E-2</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ref="C97:L97" si="5">C92-C95</f>
+        <v>2.7527884619348571E-2</v>
+      </c>
+      <c r="D97">
         <f t="shared" si="5"/>
-        <v>2.4235214814491826E-2</v>
-      </c>
-      <c r="E95">
+        <v>2.6323352769821801E-2</v>
+      </c>
+      <c r="E97">
         <f t="shared" si="5"/>
-        <v>4.7892962535143135E-2</v>
-      </c>
-      <c r="F95">
+        <v>4.9511306661925852E-2</v>
+      </c>
+      <c r="F97">
         <f t="shared" si="5"/>
-        <v>2.5055874666787555E-2</v>
-      </c>
-      <c r="G95">
+        <v>2.6164906097923213E-2</v>
+      </c>
+      <c r="G97">
         <f t="shared" si="5"/>
-        <v>4.4500120909986486E-2</v>
-      </c>
-      <c r="H95">
+        <v>4.3683252153223266E-2</v>
+      </c>
+      <c r="H97">
         <f t="shared" si="5"/>
-        <v>2.3060799891993639E-2</v>
-      </c>
-      <c r="I95">
+        <v>2.3041066865085971E-2</v>
+      </c>
+      <c r="I97">
         <f t="shared" si="5"/>
-        <v>-4.4918780627766922E-3</v>
-      </c>
-      <c r="J95">
+        <v>-5.6816826688922701E-3</v>
+      </c>
+      <c r="J97">
         <f t="shared" si="5"/>
-        <v>-6.5645719921773541E-3</v>
-      </c>
-      <c r="K95">
+        <v>-9.6041663478717045E-3</v>
+      </c>
+      <c r="K97">
         <f t="shared" si="5"/>
-        <v>1.5883869919412333E-2</v>
-      </c>
-      <c r="L95">
+        <v>1.7026193482151016E-2</v>
+      </c>
+      <c r="L97">
         <f t="shared" si="5"/>
-        <v>1.5085553356075348E-2</v>
+        <v>1.4283909277435145E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4635,11 +4705,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L95"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5608,610 +5678,610 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>679.17391304347802</v>
+        <v>838.71910112359501</v>
       </c>
       <c r="C26">
-        <v>677.65168539325805</v>
+        <v>1002.35897435897</v>
       </c>
       <c r="D26">
-        <v>678.41279921836804</v>
+        <v>920.53903774128503</v>
       </c>
       <c r="E26">
-        <v>1435.9423076923099</v>
+        <v>1335.25</v>
       </c>
       <c r="F26">
-        <v>1334.01818181818</v>
+        <v>1512.5471698113199</v>
       </c>
       <c r="G26">
-        <v>1622.13725490196</v>
+        <v>1385.91379310345</v>
       </c>
       <c r="H26">
-        <v>1288.27272727273</v>
+        <v>1406.74545454545</v>
       </c>
       <c r="I26">
-        <v>655.60538259981399</v>
+        <v>592.00813207003603</v>
       </c>
       <c r="J26">
-        <v>609.85992805435899</v>
+        <v>486.20641680416998</v>
       </c>
       <c r="K26">
-        <v>101.92412587412601</v>
+        <v>-177.297169811321</v>
       </c>
       <c r="L26">
-        <v>333.86452762923398</v>
+        <v>-20.831661442006201</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>549.505263157895</v>
+        <v>679.17391304347802</v>
       </c>
       <c r="C27">
-        <v>645.70967741935499</v>
+        <v>677.65168539325805</v>
       </c>
       <c r="D27">
-        <v>597.607470288625</v>
+        <v>678.41279921836804</v>
       </c>
       <c r="E27">
-        <v>1154.03636363636</v>
+        <v>1435.9423076923099</v>
       </c>
       <c r="F27">
-        <v>1139.0350877193</v>
+        <v>1334.01818181818</v>
       </c>
       <c r="G27">
-        <v>1255.8301886792501</v>
+        <v>1622.13725490196</v>
       </c>
       <c r="H27">
-        <v>1047.8888888888901</v>
+        <v>1288.27272727273</v>
       </c>
       <c r="I27">
-        <v>541.42761743067297</v>
+        <v>655.60538259981399</v>
       </c>
       <c r="J27">
-        <v>450.28141860026398</v>
+        <v>609.85992805435899</v>
       </c>
       <c r="K27">
-        <v>15.001275917065399</v>
+        <v>101.92412587412601</v>
       </c>
       <c r="L27">
-        <v>207.941299790356</v>
+        <v>333.86452762923398</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>646.81111111111102</v>
+        <v>549.505263157895</v>
       </c>
       <c r="C28">
-        <v>724.08888888888896</v>
+        <v>645.70967741935499</v>
       </c>
       <c r="D28">
-        <v>685.45</v>
+        <v>597.607470288625</v>
       </c>
       <c r="E28">
-        <v>1741.0370370370399</v>
+        <v>1154.03636363636</v>
       </c>
       <c r="F28">
-        <v>1838.8727272727299</v>
+        <v>1139.0350877193</v>
       </c>
       <c r="G28">
-        <v>2057.89655172414</v>
+        <v>1255.8301886792501</v>
       </c>
       <c r="H28">
-        <v>1949.6779661016899</v>
+        <v>1047.8888888888901</v>
       </c>
       <c r="I28">
-        <v>1153.4227272727301</v>
+        <v>541.42761743067297</v>
       </c>
       <c r="J28">
-        <v>1264.2279661016901</v>
+        <v>450.28141860026398</v>
       </c>
       <c r="K28">
-        <v>-97.835690235690194</v>
+        <v>15.001275917065399</v>
       </c>
       <c r="L28">
-        <v>108.218585622443</v>
+        <v>207.941299790356</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>628.09473684210502</v>
+        <v>646.81111111111102</v>
       </c>
       <c r="C29">
-        <v>636.31914893617</v>
+        <v>724.08888888888896</v>
       </c>
       <c r="D29">
-        <v>632.20694288913796</v>
+        <v>685.45</v>
       </c>
       <c r="E29">
-        <v>1412.0701754386</v>
+        <v>1741.0370370370399</v>
       </c>
       <c r="F29">
-        <v>1348</v>
+        <v>1838.8727272727299</v>
       </c>
       <c r="G29">
-        <v>1388.39655172414</v>
+        <v>2057.89655172414</v>
       </c>
       <c r="H29">
-        <v>1210.92857142857</v>
+        <v>1949.6779661016899</v>
       </c>
       <c r="I29">
-        <v>715.79305711086204</v>
+        <v>1153.4227272727301</v>
       </c>
       <c r="J29">
-        <v>578.72162853943405</v>
+        <v>1264.2279661016901</v>
       </c>
       <c r="K29">
-        <v>64.070175438596394</v>
+        <v>-97.835690235690194</v>
       </c>
       <c r="L29">
-        <v>177.467980295567</v>
+        <v>108.218585622443</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>603.96842105263204</v>
+        <v>628.09473684210502</v>
       </c>
       <c r="C30">
-        <v>667.70526315789505</v>
+        <v>636.31914893617</v>
       </c>
       <c r="D30">
-        <v>635.83684210526303</v>
+        <v>632.20694288913796</v>
       </c>
       <c r="E30">
-        <v>1355.1090909090899</v>
+        <v>1412.0701754386</v>
       </c>
       <c r="F30">
-        <v>1181.10344827586</v>
+        <v>1348</v>
       </c>
       <c r="G30">
-        <v>1461.0357142857099</v>
+        <v>1388.39655172414</v>
       </c>
       <c r="H30">
-        <v>1395.3859649122801</v>
+        <v>1210.92857142857</v>
       </c>
       <c r="I30">
-        <v>545.26660617059895</v>
+        <v>715.79305711086204</v>
       </c>
       <c r="J30">
-        <v>759.54912280701797</v>
+        <v>578.72162853943405</v>
       </c>
       <c r="K30">
-        <v>174.005642633229</v>
+        <v>64.070175438596394</v>
       </c>
       <c r="L30">
-        <v>65.649749373433494</v>
+        <v>177.467980295567</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>438.538461538462</v>
+        <v>603.96842105263204</v>
       </c>
       <c r="C31">
-        <v>414.95454545454498</v>
+        <v>667.70526315789505</v>
       </c>
       <c r="D31">
-        <v>426.74650349650301</v>
+        <v>635.83684210526303</v>
       </c>
       <c r="E31">
-        <v>1211.4150943396201</v>
+        <v>1355.1090909090899</v>
       </c>
       <c r="F31">
-        <v>1134.15789473684</v>
+        <v>1181.10344827586</v>
       </c>
       <c r="G31">
-        <v>1219.8644067796599</v>
+        <v>1461.0357142857099</v>
       </c>
       <c r="H31">
-        <v>1048.7857142857099</v>
+        <v>1395.3859649122801</v>
       </c>
       <c r="I31">
-        <v>707.41139124033896</v>
+        <v>545.26660617059895</v>
       </c>
       <c r="J31">
-        <v>622.03921078921098</v>
+        <v>759.54912280701797</v>
       </c>
       <c r="K31">
-        <v>77.257199602780503</v>
+        <v>174.005642633229</v>
       </c>
       <c r="L31">
-        <v>171.07869249394699</v>
+        <v>65.649749373433494</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>868.8</v>
+        <v>438.538461538462</v>
       </c>
       <c r="C32">
-        <v>1070.20930232558</v>
+        <v>414.95454545454498</v>
       </c>
       <c r="D32">
-        <v>969.50465116279099</v>
+        <v>426.74650349650301</v>
       </c>
       <c r="E32">
-        <v>1800.2962962962999</v>
+        <v>1211.4150943396201</v>
       </c>
       <c r="F32">
-        <v>2184.5333333333301</v>
+        <v>1134.15789473684</v>
       </c>
       <c r="G32">
-        <v>2133.2962962963002</v>
+        <v>1219.8644067796599</v>
       </c>
       <c r="H32">
-        <v>1718.12</v>
+        <v>1048.7857142857099</v>
       </c>
       <c r="I32">
-        <v>1215.0286821705399</v>
+        <v>707.41139124033896</v>
       </c>
       <c r="J32">
-        <v>748.61534883720901</v>
+        <v>622.03921078921098</v>
       </c>
       <c r="K32">
-        <v>-384.237037037037</v>
+        <v>77.257199602780503</v>
       </c>
       <c r="L32">
-        <v>415.17629629629602</v>
+        <v>171.07869249394699</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>550.34408602150495</v>
+        <v>868.8</v>
       </c>
       <c r="C33">
-        <v>571.01063829787199</v>
+        <v>1070.20930232558</v>
       </c>
       <c r="D33">
-        <v>560.67736215968898</v>
+        <v>969.50465116279099</v>
       </c>
       <c r="E33">
-        <v>1366</v>
+        <v>1800.2962962962999</v>
       </c>
       <c r="F33">
-        <v>1298.69642857143</v>
+        <v>2184.5333333333301</v>
       </c>
       <c r="G33">
-        <v>1318.3454545454499</v>
+        <v>2133.2962962963002</v>
       </c>
       <c r="H33">
-        <v>1107.55357142857</v>
+        <v>1718.12</v>
       </c>
       <c r="I33">
-        <v>738.01906641174003</v>
+        <v>1215.0286821705399</v>
       </c>
       <c r="J33">
-        <v>546.87620926888201</v>
+        <v>748.61534883720901</v>
       </c>
       <c r="K33">
-        <v>67.303571428571303</v>
+        <v>-384.237037037037</v>
       </c>
       <c r="L33">
-        <v>210.79188311688301</v>
+        <v>415.17629629629602</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>427.60465116279101</v>
+        <v>550.34408602150495</v>
       </c>
       <c r="C34">
-        <v>443.16666666666703</v>
+        <v>571.01063829787199</v>
       </c>
       <c r="D34">
-        <v>435.38565891472899</v>
+        <v>560.67736215968898</v>
       </c>
       <c r="E34">
-        <v>1158.9423076923099</v>
+        <v>1366</v>
       </c>
       <c r="F34">
-        <v>1058.2033898305101</v>
+        <v>1298.69642857143</v>
       </c>
       <c r="G34">
-        <v>1030.4181818181801</v>
+        <v>1318.3454545454499</v>
       </c>
       <c r="H34">
-        <v>954.54716981132106</v>
+        <v>1107.55357142857</v>
       </c>
       <c r="I34">
-        <v>622.81773091577998</v>
+        <v>738.01906641174003</v>
       </c>
       <c r="J34">
-        <v>519.16151089659195</v>
+        <v>546.87620926888201</v>
       </c>
       <c r="K34">
-        <v>100.738917861799</v>
+        <v>67.303571428571303</v>
       </c>
       <c r="L34">
-        <v>75.871012006861207</v>
+        <v>210.79188311688301</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>560.29999999999995</v>
+        <v>427.60465116279101</v>
       </c>
       <c r="C35">
-        <v>563.804347826087</v>
+        <v>443.16666666666703</v>
       </c>
       <c r="D35">
-        <v>562.05217391304302</v>
+        <v>435.38565891472899</v>
       </c>
       <c r="E35">
-        <v>1139.5357142857099</v>
+        <v>1158.9423076923099</v>
       </c>
       <c r="F35">
-        <v>1088.8571428571399</v>
+        <v>1058.2033898305101</v>
       </c>
       <c r="G35">
-        <v>1222.5</v>
+        <v>1030.4181818181801</v>
       </c>
       <c r="H35">
-        <v>1234.9814814814799</v>
+        <v>954.54716981132106</v>
       </c>
       <c r="I35">
-        <v>526.80496894409896</v>
+        <v>622.81773091577998</v>
       </c>
       <c r="J35">
-        <v>672.92930756843805</v>
+        <v>519.16151089659195</v>
       </c>
       <c r="K35">
-        <v>50.678571428571303</v>
+        <v>100.738917861799</v>
       </c>
       <c r="L35">
-        <v>-12.4814814814815</v>
+        <v>75.871012006861207</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>545.57446808510599</v>
+        <v>560.29999999999995</v>
       </c>
       <c r="C36">
-        <v>635.38461538461502</v>
+        <v>563.804347826087</v>
       </c>
       <c r="D36">
-        <v>590.47954173486096</v>
+        <v>562.05217391304302</v>
       </c>
       <c r="E36">
-        <v>1329.3508771929801</v>
+        <v>1139.5357142857099</v>
       </c>
       <c r="F36">
-        <v>1337.5964912280699</v>
+        <v>1088.8571428571399</v>
       </c>
       <c r="G36">
-        <v>1103.7857142857099</v>
+        <v>1222.5</v>
       </c>
       <c r="H36">
-        <v>966.77777777777806</v>
+        <v>1234.9814814814799</v>
       </c>
       <c r="I36">
-        <v>747.11694949320895</v>
+        <v>526.80496894409896</v>
       </c>
       <c r="J36">
-        <v>376.29823604291698</v>
+        <v>672.92930756843805</v>
       </c>
       <c r="K36">
-        <v>-8.2456140350877796</v>
+        <v>50.678571428571303</v>
       </c>
       <c r="L36">
-        <v>137.00793650793599</v>
+        <v>-12.4814814814815</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37">
-        <v>767.49462365591398</v>
+        <v>545.57446808510599</v>
       </c>
       <c r="C37">
-        <v>762.93478260869597</v>
+        <v>635.38461538461502</v>
       </c>
       <c r="D37">
-        <v>765.21470313230498</v>
+        <v>590.47954173486096</v>
       </c>
       <c r="E37">
-        <v>1561.05660377358</v>
+        <v>1329.3508771929801</v>
       </c>
       <c r="F37">
-        <v>1545.7291666666699</v>
+        <v>1337.5964912280699</v>
       </c>
       <c r="G37">
-        <v>1924.8</v>
+        <v>1103.7857142857099</v>
       </c>
       <c r="H37">
-        <v>1782.94545454545</v>
+        <v>966.77777777777806</v>
       </c>
       <c r="I37">
-        <v>780.51446353436199</v>
+        <v>747.11694949320895</v>
       </c>
       <c r="J37">
-        <v>1017.73075141315</v>
+        <v>376.29823604291698</v>
       </c>
       <c r="K37">
-        <v>15.327437106918101</v>
+        <v>-8.2456140350877796</v>
       </c>
       <c r="L37">
-        <v>141.85454545454499</v>
+        <v>137.00793650793599</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>543.33684210526303</v>
+        <v>767.49462365591398</v>
       </c>
       <c r="C38">
-        <v>565.59139784946206</v>
+        <v>762.93478260869597</v>
       </c>
       <c r="D38">
-        <v>554.464119977363</v>
+        <v>765.21470313230498</v>
       </c>
       <c r="E38">
-        <v>964.05357142857099</v>
+        <v>1561.05660377358</v>
       </c>
       <c r="F38">
-        <v>1000.25</v>
+        <v>1545.7291666666699</v>
       </c>
       <c r="G38">
-        <v>870.81034482758605</v>
+        <v>1924.8</v>
       </c>
       <c r="H38">
-        <v>884.07272727272698</v>
+        <v>1782.94545454545</v>
       </c>
       <c r="I38">
-        <v>445.785880022637</v>
+        <v>780.51446353436199</v>
       </c>
       <c r="J38">
-        <v>329.608607295365</v>
+        <v>1017.73075141315</v>
       </c>
       <c r="K38">
-        <v>-36.196428571428598</v>
+        <v>15.327437106918101</v>
       </c>
       <c r="L38">
-        <v>-13.262382445141199</v>
+        <v>141.85454545454499</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>624.175824175824</v>
+        <v>543.33684210526303</v>
       </c>
       <c r="C39">
-        <v>585.23595505618005</v>
+        <v>565.59139784946206</v>
       </c>
       <c r="D39">
-        <v>604.70588961600197</v>
+        <v>554.464119977363</v>
       </c>
       <c r="E39">
-        <v>1462.4081632653099</v>
+        <v>964.05357142857099</v>
       </c>
       <c r="F39">
-        <v>1440.2758620689699</v>
+        <v>1000.25</v>
       </c>
       <c r="G39">
-        <v>1400.7924528301901</v>
+        <v>870.81034482758605</v>
       </c>
       <c r="H39">
-        <v>1297.4629629629601</v>
+        <v>884.07272727272698</v>
       </c>
       <c r="I39">
-        <v>835.56997245296395</v>
+        <v>445.785880022637</v>
       </c>
       <c r="J39">
-        <v>692.75707334696096</v>
+        <v>329.608607295365</v>
       </c>
       <c r="K39">
-        <v>22.1323011963404</v>
+        <v>-36.196428571428598</v>
       </c>
       <c r="L39">
-        <v>103.329489867226</v>
+        <v>-13.262382445141199</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>666.712765957447</v>
+        <v>624.175824175824</v>
       </c>
       <c r="C40">
-        <v>701.56989247311799</v>
+        <v>585.23595505618005</v>
       </c>
       <c r="D40">
-        <v>684.14132921528301</v>
+        <v>604.70588961600197</v>
       </c>
       <c r="E40">
-        <v>1346.44642857143</v>
+        <v>1462.4081632653099</v>
       </c>
       <c r="F40">
-        <v>1389.1206896551701</v>
+        <v>1440.2758620689699</v>
       </c>
       <c r="G40">
-        <v>1223.03636363636</v>
+        <v>1400.7924528301901</v>
       </c>
       <c r="H40">
-        <v>1229.2</v>
+        <v>1297.4629629629601</v>
       </c>
       <c r="I40">
-        <v>704.97936043989</v>
+        <v>835.56997245296395</v>
       </c>
       <c r="J40">
-        <v>545.05867078471704</v>
+        <v>692.75707334696096</v>
       </c>
       <c r="K40">
-        <v>-42.674261083743701</v>
+        <v>22.1323011963404</v>
       </c>
       <c r="L40">
-        <v>-6.1636363636364404</v>
+        <v>103.329489867226</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>627.20000000000005</v>
+        <v>666.712765957447</v>
       </c>
       <c r="C41">
-        <v>644.34065934065904</v>
+        <v>701.56989247311799</v>
       </c>
       <c r="D41">
-        <v>635.77032967033006</v>
+        <v>684.14132921528301</v>
       </c>
       <c r="E41">
-        <v>802.05128205128199</v>
+        <v>1346.44642857143</v>
       </c>
       <c r="F41">
-        <v>712.72500000000002</v>
+        <v>1389.1206896551701</v>
       </c>
       <c r="G41">
-        <v>593.38095238095195</v>
+        <v>1223.03636363636</v>
       </c>
       <c r="H41">
-        <v>732.357142857143</v>
+        <v>1229.2</v>
       </c>
       <c r="I41">
-        <v>76.954670329670293</v>
+        <v>704.97936043989</v>
       </c>
       <c r="J41">
-        <v>96.586813186813202</v>
+        <v>545.05867078471704</v>
       </c>
       <c r="K41">
-        <v>89.326282051282107</v>
+        <v>-42.674261083743701</v>
       </c>
       <c r="L41">
-        <v>-138.97619047619</v>
+        <v>-6.1636363636364404</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -6292,306 +6362,306 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>515.88297872340399</v>
+        <v>493.10638297872299</v>
       </c>
       <c r="C44">
-        <v>618.32608695652198</v>
+        <v>542.82558139534899</v>
       </c>
       <c r="D44">
-        <v>567.10453283996299</v>
+        <v>517.96598218703605</v>
       </c>
       <c r="E44">
-        <v>1366.41860465116</v>
+        <v>1249.7058823529401</v>
       </c>
       <c r="F44">
-        <v>1305.9245283018899</v>
+        <v>1105.1186440678</v>
       </c>
       <c r="G44">
-        <v>569.04545454545496</v>
+        <v>1309.3157894736801</v>
       </c>
       <c r="H44">
-        <v>588.26666666666699</v>
+        <v>1194.0909090909099</v>
       </c>
       <c r="I44">
-        <v>738.81999546192401</v>
+        <v>587.15266188075998</v>
       </c>
       <c r="J44">
-        <v>21.162133826703698</v>
+        <v>676.12492690387296</v>
       </c>
       <c r="K44">
-        <v>60.4940763492759</v>
+        <v>144.58723828514499</v>
       </c>
       <c r="L44">
-        <v>-19.221212121212101</v>
+        <v>115.224880382775</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>493.10638297872299</v>
+        <v>578.875</v>
       </c>
       <c r="C45">
-        <v>542.82558139534899</v>
+        <v>548.91860465116304</v>
       </c>
       <c r="D45">
-        <v>517.96598218703605</v>
+        <v>563.89680232558101</v>
       </c>
       <c r="E45">
-        <v>1249.7058823529401</v>
+        <v>1245.4528301886801</v>
       </c>
       <c r="F45">
-        <v>1105.1186440678</v>
+        <v>1283.1568627450999</v>
       </c>
       <c r="G45">
-        <v>1309.3157894736801</v>
+        <v>1240.4912280701801</v>
       </c>
       <c r="H45">
-        <v>1194.0909090909099</v>
+        <v>1161.06896551724</v>
       </c>
       <c r="I45">
-        <v>587.15266188075998</v>
+        <v>719.260060419517</v>
       </c>
       <c r="J45">
-        <v>676.12492690387296</v>
+        <v>597.17216319166005</v>
       </c>
       <c r="K45">
-        <v>144.58723828514499</v>
+        <v>-37.704032556419001</v>
       </c>
       <c r="L45">
-        <v>115.224880382775</v>
+        <v>79.422262552933901</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>578.875</v>
+        <v>866.29032258064501</v>
       </c>
       <c r="C46">
-        <v>548.91860465116304</v>
+        <v>833.78651685393299</v>
       </c>
       <c r="D46">
-        <v>563.89680232558101</v>
+        <v>850.038419717289</v>
       </c>
       <c r="E46">
-        <v>1245.4528301886801</v>
+        <v>2390.7678571428601</v>
       </c>
       <c r="F46">
-        <v>1283.1568627450999</v>
+        <v>1953.7166666666701</v>
       </c>
       <c r="G46">
-        <v>1240.4912280701801</v>
+        <v>1973.7719298245599</v>
       </c>
       <c r="H46">
-        <v>1161.06896551724</v>
+        <v>1860.84210526316</v>
       </c>
       <c r="I46">
-        <v>719.260060419517</v>
+        <v>1103.6782469493801</v>
       </c>
       <c r="J46">
-        <v>597.17216319166005</v>
+        <v>1010.8036855458701</v>
       </c>
       <c r="K46">
-        <v>-37.704032556419001</v>
+        <v>437.05119047619098</v>
       </c>
       <c r="L46">
-        <v>79.422262552933901</v>
+        <v>112.929824561403</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>866.29032258064501</v>
+        <v>649.53333333333296</v>
       </c>
       <c r="C47">
-        <v>833.78651685393299</v>
+        <v>713.46739130434798</v>
       </c>
       <c r="D47">
-        <v>850.038419717289</v>
+        <v>681.50036231884098</v>
       </c>
       <c r="E47">
-        <v>2390.7678571428601</v>
+        <v>1430.5918367346901</v>
       </c>
       <c r="F47">
-        <v>1953.7166666666701</v>
+        <v>1603.25454545455</v>
       </c>
       <c r="G47">
-        <v>1973.7719298245599</v>
+        <v>1510.6140350877199</v>
       </c>
       <c r="H47">
-        <v>1860.84210526316</v>
+        <v>1278.15789473684</v>
       </c>
       <c r="I47">
-        <v>1103.6782469493801</v>
+        <v>921.75418313570503</v>
       </c>
       <c r="J47">
-        <v>1010.8036855458701</v>
+        <v>596.65753241800098</v>
       </c>
       <c r="K47">
-        <v>437.05119047619098</v>
+        <v>-172.662708719851</v>
       </c>
       <c r="L47">
-        <v>112.929824561403</v>
+        <v>232.45614035087701</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>649.53333333333296</v>
+        <v>417.25581395348797</v>
       </c>
       <c r="C48">
-        <v>713.46739130434798</v>
+        <v>562.65060240963896</v>
       </c>
       <c r="D48">
-        <v>681.50036231884098</v>
+        <v>489.95320818156301</v>
       </c>
       <c r="E48">
-        <v>1430.5918367346901</v>
+        <v>992.72222222222194</v>
       </c>
       <c r="F48">
-        <v>1603.25454545455</v>
+        <v>845.05454545454495</v>
       </c>
       <c r="G48">
-        <v>1510.6140350877199</v>
+        <v>913.327272727273</v>
       </c>
       <c r="H48">
-        <v>1278.15789473684</v>
+        <v>867.288461538462</v>
       </c>
       <c r="I48">
-        <v>921.75418313570503</v>
+        <v>355.10133727298199</v>
       </c>
       <c r="J48">
-        <v>596.65753241800098</v>
+        <v>377.33525335689802</v>
       </c>
       <c r="K48">
-        <v>-172.662708719851</v>
+        <v>147.66767676767699</v>
       </c>
       <c r="L48">
-        <v>232.45614035087701</v>
+        <v>46.038811188811202</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" s="3">
-        <v>417.25581395348797</v>
+        <v>848.97849462365605</v>
       </c>
       <c r="C49" s="3">
-        <v>562.65060240963896</v>
+        <v>959.12903225806497</v>
       </c>
       <c r="D49" s="3">
-        <v>489.95320818156301</v>
+        <v>904.05376344086005</v>
       </c>
       <c r="E49" s="3">
-        <v>992.72222222222194</v>
+        <v>2058.52</v>
       </c>
       <c r="F49" s="3">
-        <v>845.05454545454495</v>
+        <v>1343.2321428571399</v>
       </c>
       <c r="G49" s="3">
-        <v>913.327272727273</v>
+        <v>1750.7719298245599</v>
       </c>
       <c r="H49" s="3">
-        <v>867.288461538462</v>
+        <v>1415.3090909090899</v>
       </c>
       <c r="I49" s="3">
-        <v>355.10133727298199</v>
+        <v>439.17837941628301</v>
       </c>
       <c r="J49" s="3">
-        <v>377.33525335689802</v>
+        <v>511.25532746823097</v>
       </c>
       <c r="K49" s="3">
-        <v>147.66767676767699</v>
+        <v>715.28785714285698</v>
       </c>
       <c r="L49" s="3">
-        <v>46.038811188811202</v>
+        <v>335.46283891547</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>848.97849462365605</v>
+        <v>697.94680851063799</v>
       </c>
       <c r="C50">
-        <v>959.12903225806497</v>
+        <v>767.71739130434798</v>
       </c>
       <c r="D50">
-        <v>904.05376344086005</v>
+        <v>732.83209990749299</v>
       </c>
       <c r="E50">
-        <v>2058.52</v>
+        <v>1612.30612244898</v>
       </c>
       <c r="F50">
-        <v>1343.2321428571399</v>
+        <v>1273.06896551724</v>
       </c>
       <c r="G50">
-        <v>1750.7719298245599</v>
+        <v>1470.96551724138</v>
       </c>
       <c r="H50">
-        <v>1415.3090909090899</v>
+        <v>1388.3859649122801</v>
       </c>
       <c r="I50">
-        <v>439.17837941628301</v>
+        <v>540.23686560974795</v>
       </c>
       <c r="J50">
-        <v>511.25532746823097</v>
+        <v>655.55386500478801</v>
       </c>
       <c r="K50">
-        <v>715.28785714285698</v>
+        <v>339.23715693173801</v>
       </c>
       <c r="L50">
-        <v>335.46283891547</v>
+        <v>82.579552329098505</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>697.94680851063799</v>
+        <v>464.55813953488399</v>
       </c>
       <c r="C51">
-        <v>767.71739130434798</v>
+        <v>501</v>
       </c>
       <c r="D51">
-        <v>732.83209990749299</v>
+        <v>482.77906976744202</v>
       </c>
       <c r="E51">
-        <v>1612.30612244898</v>
+        <v>1229.3571428571399</v>
       </c>
       <c r="F51">
-        <v>1273.06896551724</v>
+        <v>1008.96153846154</v>
       </c>
       <c r="G51">
-        <v>1470.96551724138</v>
+        <v>1190.9411764705901</v>
       </c>
       <c r="H51">
-        <v>1388.3859649122801</v>
+        <v>1040.52</v>
       </c>
       <c r="I51">
-        <v>540.23686560974795</v>
+        <v>526.182468694097</v>
       </c>
       <c r="J51">
-        <v>655.55386500478801</v>
+        <v>557.74093023255796</v>
       </c>
       <c r="K51">
-        <v>339.23715693173801</v>
+        <v>220.39560439560401</v>
       </c>
       <c r="L51">
-        <v>82.579552329098505</v>
+        <v>150.42117647058799</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -7128,1170 +7198,1246 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>613.93548387096803</v>
+        <v>1263.1818181818201</v>
       </c>
       <c r="C66">
-        <v>675.70967741935499</v>
+        <v>1003.37837837838</v>
       </c>
       <c r="D66">
-        <v>644.822580645161</v>
+        <v>1133.2800982801</v>
       </c>
       <c r="E66">
-        <v>1528.2962962962999</v>
+        <v>1599.9</v>
       </c>
       <c r="F66">
-        <v>1508.3636363636399</v>
+        <v>1810.3125</v>
       </c>
       <c r="G66">
-        <v>1571.3859649122801</v>
+        <v>1809.9107142857099</v>
       </c>
       <c r="H66">
-        <v>1270.07407407407</v>
+        <v>1763.54</v>
       </c>
       <c r="I66">
-        <v>863.54105571847504</v>
+        <v>677.03240171990205</v>
       </c>
       <c r="J66">
-        <v>625.25149342891302</v>
+        <v>630.25990171990202</v>
       </c>
       <c r="K66">
-        <v>19.932659932659998</v>
+        <v>-210.41249999999999</v>
       </c>
       <c r="L66">
-        <v>301.31189083820698</v>
+        <v>46.3707142857143</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>675.45652173913004</v>
+        <v>613.93548387096803</v>
       </c>
       <c r="C67">
-        <v>691.83695652173901</v>
+        <v>675.70967741935499</v>
       </c>
       <c r="D67">
-        <v>683.64673913043498</v>
+        <v>644.822580645161</v>
       </c>
       <c r="E67">
-        <v>1589.6923076923099</v>
+        <v>1528.2962962962999</v>
       </c>
       <c r="F67">
-        <v>1138.94736842105</v>
+        <v>1508.3636363636399</v>
       </c>
       <c r="G67">
-        <v>1789.1525423728799</v>
+        <v>1571.3859649122801</v>
       </c>
       <c r="H67">
-        <v>1390.4814814814799</v>
+        <v>1270.07407407407</v>
       </c>
       <c r="I67">
-        <v>455.30062929061802</v>
+        <v>863.54105571847504</v>
       </c>
       <c r="J67">
-        <v>706.834742351047</v>
+        <v>625.25149342891302</v>
       </c>
       <c r="K67">
-        <v>450.74493927125502</v>
+        <v>19.932659932659998</v>
       </c>
       <c r="L67">
-        <v>398.67106089139997</v>
+        <v>301.31189083820698</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>783.52127659574501</v>
+        <v>675.45652173913004</v>
       </c>
       <c r="C68">
-        <v>929.97849462365605</v>
+        <v>691.83695652173901</v>
       </c>
       <c r="D68">
-        <v>856.74988560969996</v>
+        <v>683.64673913043498</v>
       </c>
       <c r="E68">
-        <v>1961.6666666666699</v>
+        <v>1589.6923076923099</v>
       </c>
       <c r="F68">
-        <v>2161.7966101694901</v>
+        <v>1138.94736842105</v>
       </c>
       <c r="G68">
-        <v>2210.8070175438602</v>
+        <v>1789.1525423728799</v>
       </c>
       <c r="H68">
-        <v>1805.27272727273</v>
+        <v>1390.4814814814799</v>
       </c>
       <c r="I68">
-        <v>1305.0467245597899</v>
+        <v>455.30062929061802</v>
       </c>
       <c r="J68">
-        <v>948.52284166302695</v>
+        <v>706.834742351047</v>
       </c>
       <c r="K68">
-        <v>-200.129943502825</v>
+        <v>450.74493927125502</v>
       </c>
       <c r="L68">
-        <v>405.53429027113202</v>
+        <v>398.67106089139997</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69">
-        <v>736.33333333333303</v>
+        <v>783.52127659574501</v>
       </c>
       <c r="C69">
-        <v>746.63157894736798</v>
+        <v>929.97849462365605</v>
       </c>
       <c r="D69">
-        <v>741.48245614035102</v>
+        <v>856.74988560969996</v>
       </c>
       <c r="E69">
-        <v>1465.35849056604</v>
+        <v>1961.6666666666699</v>
       </c>
       <c r="F69">
-        <v>1350.5593220338999</v>
+        <v>2161.7966101694901</v>
       </c>
       <c r="G69">
-        <v>1343.94915254237</v>
+        <v>2210.8070175438602</v>
       </c>
       <c r="H69">
-        <v>1117.01754385965</v>
+        <v>1805.27272727273</v>
       </c>
       <c r="I69">
-        <v>609.07686589354705</v>
+        <v>1305.0467245597899</v>
       </c>
       <c r="J69">
-        <v>375.53508771929802</v>
+        <v>948.52284166302695</v>
       </c>
       <c r="K69">
-        <v>114.79916853213901</v>
+        <v>-200.129943502825</v>
       </c>
       <c r="L69">
-        <v>226.931608682724</v>
+        <v>405.53429027113202</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B70">
-        <v>541.84782608695696</v>
+        <v>736.33333333333303</v>
       </c>
       <c r="C70">
-        <v>686.57303370786497</v>
+        <v>746.63157894736798</v>
       </c>
       <c r="D70">
-        <v>614.21042989741102</v>
+        <v>741.48245614035102</v>
       </c>
       <c r="E70">
-        <v>1490.3392857142901</v>
+        <v>1465.35849056604</v>
       </c>
       <c r="F70">
-        <v>1147.31666666667</v>
+        <v>1350.5593220338999</v>
       </c>
       <c r="G70">
-        <v>1696.1454545454501</v>
+        <v>1343.94915254237</v>
       </c>
       <c r="H70">
-        <v>1165.75925925926</v>
+        <v>1117.01754385965</v>
       </c>
       <c r="I70">
-        <v>533.10623676925604</v>
+        <v>609.07686589354705</v>
       </c>
       <c r="J70">
-        <v>551.54882936184799</v>
+        <v>375.53508771929802</v>
       </c>
       <c r="K70">
-        <v>343.022619047619</v>
+        <v>114.79916853213901</v>
       </c>
       <c r="L70">
-        <v>530.38619528619495</v>
+        <v>226.931608682724</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71">
-        <v>586.15053763440903</v>
+        <v>541.84782608695696</v>
       </c>
       <c r="C71">
-        <v>627.05319148936201</v>
+        <v>686.57303370786497</v>
       </c>
       <c r="D71">
-        <v>606.60186456188501</v>
+        <v>614.21042989741102</v>
       </c>
       <c r="E71">
-        <v>1394.9107142857099</v>
+        <v>1490.3392857142901</v>
       </c>
       <c r="F71">
-        <v>1383.4181818181801</v>
+        <v>1147.31666666667</v>
       </c>
       <c r="G71">
-        <v>1313.57627118644</v>
+        <v>1696.1454545454501</v>
       </c>
       <c r="H71">
-        <v>1133.4629629629601</v>
+        <v>1165.75925925926</v>
       </c>
       <c r="I71">
-        <v>776.816317256297</v>
+        <v>533.10623676925604</v>
       </c>
       <c r="J71">
-        <v>526.86109840107804</v>
+        <v>551.54882936184799</v>
       </c>
       <c r="K71">
-        <v>11.4925324675323</v>
+        <v>343.022619047619</v>
       </c>
       <c r="L71">
-        <v>180.11330822347799</v>
+        <v>530.38619528619495</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72">
-        <v>720.04255319148899</v>
+        <v>586.15053763440903</v>
       </c>
       <c r="C72">
-        <v>697.86315789473701</v>
+        <v>627.05319148936201</v>
       </c>
       <c r="D72">
-        <v>708.95285554311295</v>
+        <v>606.60186456188501</v>
       </c>
       <c r="E72">
-        <v>1317.46551724138</v>
+        <v>1394.9107142857099</v>
       </c>
       <c r="F72">
-        <v>1063.2033898305101</v>
+        <v>1383.4181818181801</v>
       </c>
       <c r="G72">
-        <v>1562.74545454545</v>
+        <v>1313.57627118644</v>
       </c>
       <c r="H72">
-        <v>1222.75</v>
+        <v>1133.4629629629601</v>
       </c>
       <c r="I72">
-        <v>354.250534287395</v>
+        <v>776.816317256297</v>
       </c>
       <c r="J72">
-        <v>513.79714445688705</v>
+        <v>526.86109840107804</v>
       </c>
       <c r="K72">
-        <v>254.26212741087099</v>
+        <v>11.4925324675323</v>
       </c>
       <c r="L72">
-        <v>339.995454545455</v>
+        <v>180.11330822347799</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B73">
-        <v>718.41489361702099</v>
+        <v>720.04255319148899</v>
       </c>
       <c r="C73">
-        <v>965.244680851064</v>
+        <v>697.86315789473701</v>
       </c>
       <c r="D73">
-        <v>841.82978723404199</v>
+        <v>708.95285554311295</v>
       </c>
       <c r="E73">
-        <v>1979.46551724138</v>
+        <v>1317.46551724138</v>
       </c>
       <c r="F73">
-        <v>2012.8275862068999</v>
+        <v>1063.2033898305101</v>
       </c>
       <c r="G73">
-        <v>1631.5818181818199</v>
+        <v>1562.74545454545</v>
       </c>
       <c r="H73">
-        <v>1352.9090909090901</v>
+        <v>1222.75</v>
       </c>
       <c r="I73">
-        <v>1170.99779897285</v>
+        <v>354.250534287395</v>
       </c>
       <c r="J73">
-        <v>511.079303675049</v>
+        <v>513.79714445688705</v>
       </c>
       <c r="K73">
-        <v>-33.362068965517203</v>
+        <v>254.26212741087099</v>
       </c>
       <c r="L73">
-        <v>278.672727272727</v>
+        <v>339.995454545455</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B74">
-        <v>668.563829787234</v>
+        <v>718.41489361702099</v>
       </c>
       <c r="C74">
-        <v>688.91397849462396</v>
+        <v>965.244680851064</v>
       </c>
       <c r="D74">
-        <v>678.73890414092898</v>
+        <v>841.82978723404199</v>
       </c>
       <c r="E74">
-        <v>1462.56896551724</v>
+        <v>1979.46551724138</v>
       </c>
       <c r="F74">
-        <v>1336.30357142857</v>
+        <v>2012.8275862068999</v>
       </c>
       <c r="G74">
-        <v>1673.4912280701801</v>
+        <v>1631.5818181818199</v>
       </c>
       <c r="H74">
-        <v>1353.9649122807</v>
+        <v>1352.9090909090901</v>
       </c>
       <c r="I74">
-        <v>657.56466728764303</v>
+        <v>1170.99779897285</v>
       </c>
       <c r="J74">
-        <v>675.22600813977294</v>
+        <v>511.079303675049</v>
       </c>
       <c r="K74">
-        <v>126.26539408867001</v>
+        <v>-33.362068965517203</v>
       </c>
       <c r="L74">
-        <v>319.52631578947398</v>
+        <v>278.672727272727</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B75">
-        <v>610.45833333333303</v>
+        <v>668.563829787234</v>
       </c>
       <c r="C75">
-        <v>639.01063829787199</v>
+        <v>688.91397849462396</v>
       </c>
       <c r="D75">
-        <v>624.73448581560297</v>
+        <v>678.73890414092898</v>
       </c>
       <c r="E75">
-        <v>1321.0357142857099</v>
+        <v>1462.56896551724</v>
       </c>
       <c r="F75">
-        <v>1274.1803278688501</v>
+        <v>1336.30357142857</v>
       </c>
       <c r="G75">
-        <v>1174.8727272727299</v>
+        <v>1673.4912280701801</v>
       </c>
       <c r="H75">
-        <v>1203.6071428571399</v>
+        <v>1353.9649122807</v>
       </c>
       <c r="I75">
-        <v>649.44584205324998</v>
+        <v>657.56466728764303</v>
       </c>
       <c r="J75">
-        <v>578.87265704154004</v>
+        <v>675.22600813977294</v>
       </c>
       <c r="K75">
-        <v>46.855386416861798</v>
+        <v>126.26539408867001</v>
       </c>
       <c r="L75">
-        <v>-28.7344155844157</v>
+        <v>319.52631578947398</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B76">
-        <v>604.59375</v>
+        <v>610.45833333333303</v>
       </c>
       <c r="C76">
-        <v>829.01086956521704</v>
+        <v>639.01063829787199</v>
       </c>
       <c r="D76">
-        <v>716.80230978260897</v>
+        <v>624.73448581560297</v>
       </c>
       <c r="E76">
-        <v>1728.75</v>
+        <v>1321.0357142857099</v>
       </c>
       <c r="F76">
-        <v>1284.8181818181799</v>
+        <v>1274.1803278688501</v>
       </c>
       <c r="G76">
-        <v>1979.03773584906</v>
+        <v>1174.8727272727299</v>
       </c>
       <c r="H76">
-        <v>1430.0909090909099</v>
+        <v>1203.6071428571399</v>
       </c>
       <c r="I76">
-        <v>568.01587203557301</v>
+        <v>649.44584205324998</v>
       </c>
       <c r="J76">
-        <v>713.28859930830004</v>
+        <v>578.87265704154004</v>
       </c>
       <c r="K76">
-        <v>443.93181818181802</v>
+        <v>46.855386416861798</v>
       </c>
       <c r="L76">
-        <v>548.94682675814795</v>
+        <v>-28.7344155844157</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B77">
-        <v>598.95744680851101</v>
+        <v>604.59375</v>
       </c>
       <c r="C77">
-        <v>671.43478260869597</v>
+        <v>829.01086956521704</v>
       </c>
       <c r="D77">
-        <v>635.19611470860298</v>
+        <v>716.80230978260897</v>
       </c>
       <c r="E77">
-        <v>1351.70909090909</v>
+        <v>1728.75</v>
       </c>
       <c r="F77">
-        <v>1328.9814814814799</v>
+        <v>1284.8181818181799</v>
       </c>
       <c r="G77">
-        <v>1347.07142857143</v>
+        <v>1979.03773584906</v>
       </c>
       <c r="H77">
-        <v>1146.72727272727</v>
+        <v>1430.0909090909099</v>
       </c>
       <c r="I77">
-        <v>693.78536677287798</v>
+        <v>568.01587203557301</v>
       </c>
       <c r="J77">
-        <v>511.53115801867</v>
+        <v>713.28859930830004</v>
       </c>
       <c r="K77">
-        <v>22.727609427609401</v>
+        <v>443.93181818181802</v>
       </c>
       <c r="L77">
-        <v>200.34415584415601</v>
+        <v>548.94682675814795</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78">
-        <v>587.91208791208805</v>
+        <v>598.95744680851101</v>
       </c>
       <c r="C78">
-        <v>605.18478260869597</v>
+        <v>671.43478260869597</v>
       </c>
       <c r="D78">
-        <v>596.54843526039201</v>
+        <v>635.19611470860298</v>
       </c>
       <c r="E78">
-        <v>1152.75925925926</v>
+        <v>1351.70909090909</v>
       </c>
       <c r="F78">
-        <v>786.76363636363601</v>
+        <v>1328.9814814814799</v>
       </c>
       <c r="G78">
-        <v>1297.82142857143</v>
+        <v>1347.07142857143</v>
       </c>
       <c r="H78">
-        <v>1063.93103448276</v>
+        <v>1146.72727272727</v>
       </c>
       <c r="I78">
-        <v>190.21520110324499</v>
+        <v>693.78536677287798</v>
       </c>
       <c r="J78">
-        <v>467.38259922236699</v>
+        <v>511.53115801867</v>
       </c>
       <c r="K78">
-        <v>365.995622895623</v>
+        <v>22.727609427609401</v>
       </c>
       <c r="L78">
-        <v>233.89039408867001</v>
+        <v>200.34415584415601</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B79">
-        <v>472.94791666666703</v>
+        <v>587.91208791208805</v>
       </c>
       <c r="C79">
-        <v>590.67021276595699</v>
+        <v>605.18478260869597</v>
       </c>
       <c r="D79">
-        <v>531.80906471631204</v>
+        <v>596.54843526039201</v>
       </c>
       <c r="E79">
-        <v>1403.5178571428601</v>
+        <v>1152.75925925926</v>
       </c>
       <c r="F79">
-        <v>1321.3220338983101</v>
+        <v>786.76363636363601</v>
       </c>
       <c r="G79">
-        <v>1234.9666666666701</v>
+        <v>1297.82142857143</v>
       </c>
       <c r="H79">
-        <v>1170.3392857142901</v>
+        <v>1063.93103448276</v>
       </c>
       <c r="I79">
-        <v>789.51296918199296</v>
+        <v>190.21520110324499</v>
       </c>
       <c r="J79">
-        <v>638.53022099797397</v>
+        <v>467.38259922236699</v>
       </c>
       <c r="K79">
-        <v>82.195823244552003</v>
+        <v>365.995622895623</v>
       </c>
       <c r="L79">
-        <v>64.627380952380904</v>
+        <v>233.89039408867001</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B80">
-        <v>521.78888888888901</v>
+        <v>472.94791666666703</v>
       </c>
       <c r="C80">
-        <v>520.35869565217399</v>
+        <v>590.67021276595699</v>
       </c>
       <c r="D80">
-        <v>521.07379227053104</v>
+        <v>531.80906471631204</v>
       </c>
       <c r="E80">
-        <v>1110.7719298245599</v>
+        <v>1403.5178571428601</v>
       </c>
       <c r="F80">
-        <v>948.23728813559296</v>
+        <v>1321.3220338983101</v>
       </c>
       <c r="G80">
-        <v>1125.03636363636</v>
+        <v>1234.9666666666701</v>
       </c>
       <c r="H80">
-        <v>961.79661016949103</v>
+        <v>1170.3392857142901</v>
       </c>
       <c r="I80">
-        <v>427.16349586506198</v>
+        <v>789.51296918199296</v>
       </c>
       <c r="J80">
-        <v>440.72281789895999</v>
+        <v>638.53022099797397</v>
       </c>
       <c r="K80">
-        <v>162.53464168896801</v>
+        <v>82.195823244552003</v>
       </c>
       <c r="L80">
-        <v>163.239753466872</v>
+        <v>64.627380952380904</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B81">
-        <v>522.659574468085</v>
+        <v>521.78888888888901</v>
       </c>
       <c r="C81">
-        <v>584.48936170212801</v>
+        <v>520.35869565217399</v>
       </c>
       <c r="D81">
-        <v>553.57446808510599</v>
+        <v>521.07379227053104</v>
       </c>
       <c r="E81">
-        <v>1022.07142857143</v>
+        <v>1110.7719298245599</v>
       </c>
       <c r="F81">
-        <v>987.41379310344803</v>
+        <v>948.23728813559296</v>
       </c>
       <c r="G81">
-        <v>1008.68421052632</v>
+        <v>1125.03636363636</v>
       </c>
       <c r="H81">
-        <v>1005.33333333333</v>
+        <v>961.79661016949103</v>
       </c>
       <c r="I81">
-        <v>433.83932501834198</v>
+        <v>427.16349586506198</v>
       </c>
       <c r="J81">
-        <v>451.75886524822698</v>
+        <v>440.72281789895999</v>
       </c>
       <c r="K81">
-        <v>34.657635467980299</v>
+        <v>162.53464168896801</v>
       </c>
       <c r="L81">
-        <v>3.3508771929824701</v>
+        <v>163.239753466872</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B82">
-        <v>891.29787234042601</v>
+        <v>522.659574468085</v>
       </c>
       <c r="C82">
-        <v>1024.36263736264</v>
+        <v>584.48936170212801</v>
       </c>
       <c r="D82">
-        <v>957.83025485153098</v>
+        <v>553.57446808510599</v>
       </c>
       <c r="E82">
-        <v>1354.44642857143</v>
+        <v>1022.07142857143</v>
       </c>
       <c r="F82">
-        <v>1500.08620689655</v>
+        <v>987.41379310344803</v>
       </c>
       <c r="G82">
-        <v>1450.14754098361</v>
+        <v>1008.68421052632</v>
       </c>
       <c r="H82">
-        <v>1387.12280701754</v>
+        <v>1005.33333333333</v>
       </c>
       <c r="I82">
-        <v>542.25595204501997</v>
+        <v>433.83932501834198</v>
       </c>
       <c r="J82">
-        <v>429.292552166012</v>
+        <v>451.75886524822698</v>
       </c>
       <c r="K82">
-        <v>-145.63977832512299</v>
+        <v>34.657635467980299</v>
       </c>
       <c r="L82">
-        <v>63.024733966062698</v>
+        <v>3.3508771929824701</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B83">
-        <v>443.78494623655899</v>
+        <v>891.29787234042601</v>
       </c>
       <c r="C83">
-        <v>484.64516129032302</v>
+        <v>1024.36263736264</v>
       </c>
       <c r="D83">
-        <v>464.21505376344101</v>
+        <v>957.83025485153098</v>
       </c>
       <c r="E83">
-        <v>1173.5818181818199</v>
+        <v>1354.44642857143</v>
       </c>
       <c r="F83">
-        <v>1220.5084745762699</v>
+        <v>1500.08620689655</v>
       </c>
       <c r="G83">
-        <v>1262.18644067797</v>
+        <v>1450.14754098361</v>
       </c>
       <c r="H83">
-        <v>1175.6206896551701</v>
+        <v>1387.12280701754</v>
       </c>
       <c r="I83">
-        <v>756.29342081283005</v>
+        <v>542.25595204501997</v>
       </c>
       <c r="J83">
-        <v>711.40563589173098</v>
+        <v>429.292552166012</v>
       </c>
       <c r="K83">
-        <v>-46.926656394453197</v>
+        <v>-145.63977832512299</v>
       </c>
       <c r="L83">
-        <v>86.565751022793805</v>
+        <v>63.024733966062698</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B84">
-        <v>639.462365591398</v>
+        <v>606.67441860465101</v>
       </c>
       <c r="C84">
-        <v>620.26595744680901</v>
+        <v>555.38043478260897</v>
       </c>
       <c r="D84">
-        <v>629.86416151910305</v>
+        <v>581.02742669362999</v>
       </c>
       <c r="E84">
-        <v>1016.53703703704</v>
+        <v>1425.52173913043</v>
       </c>
       <c r="F84">
-        <v>916.42857142857099</v>
+        <v>1340.12962962963</v>
       </c>
       <c r="G84">
-        <v>1149.08771929825</v>
+        <v>1314.2075471698099</v>
       </c>
       <c r="H84">
-        <v>949.625</v>
+        <v>1118.75</v>
       </c>
       <c r="I84">
-        <v>286.564409909468</v>
+        <v>759.10220293600003</v>
       </c>
       <c r="J84">
-        <v>319.76083848089701</v>
+        <v>537.72257330637001</v>
       </c>
       <c r="K84">
-        <v>100.10846560846601</v>
+        <v>85.392109500805205</v>
       </c>
       <c r="L84">
-        <v>199.46271929824599</v>
+        <v>195.45754716981099</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B85">
-        <v>868.04301075268802</v>
+        <v>443.78494623655899</v>
       </c>
       <c r="C85">
-        <v>874.95744680851101</v>
+        <v>484.64516129032302</v>
       </c>
       <c r="D85">
-        <v>871.50022878059895</v>
+        <v>464.21505376344101</v>
       </c>
       <c r="E85">
-        <v>1757.6896551724101</v>
+        <v>1173.5818181818199</v>
       </c>
       <c r="F85">
-        <v>1373.9152542372899</v>
+        <v>1220.5084745762699</v>
       </c>
       <c r="G85">
-        <v>1819</v>
+        <v>1262.18644067797</v>
       </c>
       <c r="H85">
-        <v>1360.44642857143</v>
+        <v>1175.6206896551701</v>
       </c>
       <c r="I85">
-        <v>502.41502545668902</v>
+        <v>756.29342081283005</v>
       </c>
       <c r="J85">
-        <v>488.94619979082898</v>
+        <v>711.40563589173098</v>
       </c>
       <c r="K85">
-        <v>383.77440093512598</v>
+        <v>-46.926656394453197</v>
       </c>
       <c r="L85">
-        <v>458.55357142857099</v>
+        <v>86.565751022793805</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B86">
-        <v>531.51578947368398</v>
+        <v>639.462365591398</v>
       </c>
       <c r="C86">
-        <v>557.18279569892502</v>
+        <v>620.26595744680901</v>
       </c>
       <c r="D86">
-        <v>544.34929258630495</v>
+        <v>629.86416151910305</v>
       </c>
       <c r="E86">
-        <v>1107.7037037037001</v>
+        <v>1016.53703703704</v>
       </c>
       <c r="F86">
-        <v>1005.25862068966</v>
+        <v>916.42857142857099</v>
       </c>
       <c r="G86">
-        <v>1267.2678571428601</v>
+        <v>1149.08771929825</v>
       </c>
       <c r="H86">
-        <v>958.55172413793105</v>
+        <v>949.625</v>
       </c>
       <c r="I86">
-        <v>460.90932810335102</v>
+        <v>286.564409909468</v>
       </c>
       <c r="J86">
-        <v>414.202431551627</v>
+        <v>319.76083848089701</v>
       </c>
       <c r="K86">
-        <v>102.445083014049</v>
+        <v>100.10846560846601</v>
       </c>
       <c r="L86">
-        <v>308.71613300492601</v>
+        <v>199.46271929824599</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B87">
-        <v>706.468085106383</v>
+        <v>868.04301075268802</v>
       </c>
       <c r="C87">
-        <v>895.07608695652198</v>
+        <v>874.95744680851101</v>
       </c>
       <c r="D87">
-        <v>800.77208603145198</v>
+        <v>871.50022878059895</v>
       </c>
       <c r="E87">
-        <v>1283.5</v>
+        <v>1757.6896551724101</v>
       </c>
       <c r="F87">
-        <v>1172.42857142857</v>
+        <v>1373.9152542372899</v>
       </c>
       <c r="G87">
-        <v>1221.8620689655199</v>
+        <v>1819</v>
       </c>
       <c r="H87">
-        <v>1201.2777777777801</v>
+        <v>1360.44642857143</v>
       </c>
       <c r="I87">
-        <v>371.65648539711901</v>
+        <v>502.41502545668902</v>
       </c>
       <c r="J87">
-        <v>400.50569174632602</v>
+        <v>488.94619979082898</v>
       </c>
       <c r="K87">
-        <v>111.071428571429</v>
+        <v>383.77440093512598</v>
       </c>
       <c r="L87">
-        <v>20.584291187739399</v>
+        <v>458.55357142857099</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
+        <v>100</v>
+      </c>
+      <c r="B88">
+        <v>531.51578947368398</v>
+      </c>
+      <c r="C88">
+        <v>557.18279569892502</v>
+      </c>
+      <c r="D88">
+        <v>544.34929258630495</v>
+      </c>
+      <c r="E88">
+        <v>1107.7037037037001</v>
+      </c>
+      <c r="F88">
+        <v>1005.25862068966</v>
+      </c>
+      <c r="G88">
+        <v>1267.2678571428601</v>
+      </c>
+      <c r="H88">
+        <v>958.55172413793105</v>
+      </c>
+      <c r="I88">
+        <v>460.90932810335102</v>
+      </c>
+      <c r="J88">
+        <v>414.202431551627</v>
+      </c>
+      <c r="K88">
+        <v>102.445083014049</v>
+      </c>
+      <c r="L88">
+        <v>308.71613300492601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>101</v>
+      </c>
+      <c r="B89">
+        <v>706.468085106383</v>
+      </c>
+      <c r="C89">
+        <v>895.07608695652198</v>
+      </c>
+      <c r="D89">
+        <v>800.77208603145198</v>
+      </c>
+      <c r="E89">
+        <v>1283.5</v>
+      </c>
+      <c r="F89">
+        <v>1172.42857142857</v>
+      </c>
+      <c r="G89">
+        <v>1221.8620689655199</v>
+      </c>
+      <c r="H89">
+        <v>1201.2777777777801</v>
+      </c>
+      <c r="I89">
+        <v>371.65648539711901</v>
+      </c>
+      <c r="J89">
+        <v>400.50569174632602</v>
+      </c>
+      <c r="K89">
+        <v>111.071428571429</v>
+      </c>
+      <c r="L89">
+        <v>20.584291187739399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>102</v>
       </c>
-      <c r="B88">
+      <c r="B90">
         <v>567.01086956521704</v>
       </c>
-      <c r="C88">
+      <c r="C90">
         <v>605.58947368421002</v>
       </c>
-      <c r="D88">
+      <c r="D90">
         <v>586.30017162471404</v>
       </c>
-      <c r="E88">
+      <c r="E90">
         <v>1293.0204081632701</v>
       </c>
-      <c r="F88">
+      <c r="F90">
         <v>1448.05660377358</v>
       </c>
-      <c r="G88">
+      <c r="G90">
         <v>1304.25925925926</v>
       </c>
-      <c r="H88">
+      <c r="H90">
         <v>1360.8235294117601</v>
       </c>
-      <c r="I88">
+      <c r="I90">
         <v>861.756432148871</v>
       </c>
-      <c r="J88">
+      <c r="J90">
         <v>774.52335778705105</v>
       </c>
-      <c r="K88">
+      <c r="K90">
         <v>-155.03619561031999</v>
       </c>
-      <c r="L88">
+      <c r="L90">
         <v>-56.564270152505301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B90">
-        <f t="shared" ref="B90:L90" si="0">AVERAGE(B2:B88)</f>
-        <v>635.22952775412637</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="0"/>
-        <v>706.28465117548058</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="0"/>
-        <v>670.75708946480302</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="0"/>
-        <v>1407.6774261581318</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="0"/>
-        <v>1316.8144125848148</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="0"/>
-        <v>1431.731230866304</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="0"/>
-        <v>1242.7551207654251</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="0"/>
-        <v>646.05732312001203</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="0"/>
-        <v>571.99803130062151</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="0"/>
-        <v>90.86301357331655</v>
-      </c>
-      <c r="L90">
-        <f t="shared" si="0"/>
-        <v>188.97611010087908</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91">
-        <f t="shared" ref="B91:L91" si="1">STDEV(B2:B88)</f>
-        <v>131.23489638003937</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="1"/>
-        <v>185.32084086978651</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="1"/>
-        <v>150.0072670653575</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="1"/>
-        <v>345.77497021170581</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="1"/>
-        <v>361.3776527974253</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="1"/>
-        <v>420.41075422565137</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="1"/>
-        <v>336.87174719526564</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="1"/>
-        <v>276.16655140210037</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="1"/>
-        <v>247.2616102738171</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="1"/>
-        <v>170.37317981451875</v>
-      </c>
-      <c r="L91">
-        <f t="shared" si="1"/>
-        <v>154.91182604714908</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B92">
-        <f>B91/(SQRT(80))</f>
-        <v>14.672507466295455</v>
+        <f>AVERAGE(B2:B90)</f>
+        <v>643.76426307112979</v>
       </c>
       <c r="C92">
-        <f t="shared" ref="C92:L92" si="2">C91/(SQRT(80))</f>
-        <v>20.719499891613193</v>
+        <f t="shared" ref="C92:L92" si="0">AVERAGE(C2:C90)</f>
+        <v>710.63163700550115</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
-        <v>16.771322313855237</v>
+        <f t="shared" si="0"/>
+        <v>677.19795003831507</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
-        <v>38.658816915566952</v>
+        <f t="shared" si="0"/>
+        <v>1414.4887086634003</v>
       </c>
       <c r="F92">
-        <f t="shared" si="2"/>
-        <v>40.403249860217997</v>
+        <f t="shared" si="0"/>
+        <v>1328.2714067919046</v>
       </c>
       <c r="G92">
-        <f t="shared" si="2"/>
-        <v>47.003351246025666</v>
+        <f t="shared" si="0"/>
+        <v>1450.5524034772088</v>
       </c>
       <c r="H92">
-        <f t="shared" si="2"/>
-        <v>37.663406321386901</v>
+        <f t="shared" si="0"/>
+        <v>1259.8722151866698</v>
       </c>
       <c r="I92">
-        <f t="shared" si="2"/>
-        <v>30.876359102339311</v>
+        <f t="shared" si="0"/>
+        <v>651.07345675358965</v>
       </c>
       <c r="J92">
-        <f t="shared" si="2"/>
-        <v>27.644688439915768</v>
+        <f t="shared" si="0"/>
+        <v>582.67426514835449</v>
       </c>
       <c r="K92">
-        <f t="shared" si="2"/>
-        <v>19.048300580402945</v>
+        <f t="shared" si="0"/>
+        <v>86.217301871495152</v>
       </c>
       <c r="L92">
-        <f t="shared" si="2"/>
-        <v>17.319668678002394</v>
+        <f t="shared" si="0"/>
+        <v>190.68018829053926</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B93">
-        <f>B92*1.96</f>
-        <v>28.758114633939091</v>
+        <f>STDEV(B2:B90)</f>
+        <v>147.94150598285998</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:L93" si="3">C92*1.96</f>
-        <v>40.61021978756186</v>
+        <f t="shared" ref="C93:L93" si="1">STDEV(C2:C90)</f>
+        <v>190.13007003470781</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
-        <v>32.871791735156265</v>
+        <f t="shared" si="1"/>
+        <v>159.51749461096054</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
-        <v>75.771281154511229</v>
+        <f t="shared" si="1"/>
+        <v>336.82821745638807</v>
       </c>
       <c r="F93">
-        <f t="shared" si="3"/>
-        <v>79.190369726027271</v>
+        <f t="shared" si="1"/>
+        <v>357.25454318664885</v>
       </c>
       <c r="G93">
-        <f t="shared" si="3"/>
-        <v>92.126568442210299</v>
+        <f t="shared" si="1"/>
+        <v>397.98373983004029</v>
       </c>
       <c r="H93">
-        <f t="shared" si="3"/>
-        <v>73.82027638991832</v>
+        <f t="shared" si="1"/>
+        <v>326.81224841213225</v>
       </c>
       <c r="I93">
-        <f t="shared" si="3"/>
-        <v>60.517663840585051</v>
+        <f t="shared" si="1"/>
+        <v>266.61499064826359</v>
       </c>
       <c r="J93">
-        <f t="shared" si="3"/>
-        <v>54.183589342234903</v>
+        <f t="shared" si="1"/>
+        <v>231.85140342594147</v>
       </c>
       <c r="K93">
-        <f t="shared" si="3"/>
-        <v>37.334669137589771</v>
+        <f t="shared" si="1"/>
+        <v>174.28306741520942</v>
       </c>
       <c r="L93">
-        <f t="shared" si="3"/>
-        <v>33.946550608884692</v>
+        <f t="shared" si="1"/>
+        <v>149.94418510471144</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B94">
-        <f>B90+B93</f>
-        <v>663.98764238806541</v>
+        <f>B93/(SQRT(80))</f>
+        <v>16.540363203568337</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:L94" si="4">C90+C93</f>
-        <v>746.89487096304242</v>
+        <f t="shared" ref="C94:L94" si="2">C93/(SQRT(80))</f>
+        <v>21.257188058220123</v>
       </c>
       <c r="D94">
-        <f t="shared" si="4"/>
-        <v>703.62888119995932</v>
+        <f t="shared" si="2"/>
+        <v>17.834598077528206</v>
       </c>
       <c r="E94">
-        <f t="shared" si="4"/>
-        <v>1483.4487073126429</v>
+        <f t="shared" si="2"/>
+        <v>37.658539548628248</v>
       </c>
       <c r="F94">
-        <f t="shared" si="4"/>
-        <v>1396.0047823108421</v>
+        <f t="shared" si="2"/>
+        <v>39.942272191799056</v>
       </c>
       <c r="G94">
-        <f t="shared" si="4"/>
-        <v>1523.8577993085144</v>
+        <f t="shared" si="2"/>
+        <v>44.495934809978031</v>
       </c>
       <c r="H94">
-        <f t="shared" si="4"/>
-        <v>1316.5753971553434</v>
+        <f t="shared" si="2"/>
+        <v>36.538720166453771</v>
       </c>
       <c r="I94">
-        <f t="shared" si="4"/>
-        <v>706.57498696059713</v>
+        <f t="shared" si="2"/>
+        <v>29.808462145499405</v>
       </c>
       <c r="J94">
-        <f t="shared" si="4"/>
-        <v>626.18162064285639</v>
+        <f t="shared" si="2"/>
+        <v>25.921774936956638</v>
       </c>
       <c r="K94">
-        <f t="shared" si="4"/>
-        <v>128.19768271090632</v>
+        <f t="shared" si="2"/>
+        <v>19.485439303379341</v>
       </c>
       <c r="L94">
-        <f t="shared" si="4"/>
-        <v>222.92266070976376</v>
+        <f t="shared" si="2"/>
+        <v>16.764269536247308</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95">
+        <f>B94*1.96</f>
+        <v>32.419111878993938</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ref="C95:L95" si="3">C94*1.96</f>
+        <v>41.664088594111441</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>34.955812231955285</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="3"/>
+        <v>73.810737515311359</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="3"/>
+        <v>78.286853495926152</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>87.212032227556946</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="3"/>
+        <v>71.615891526249385</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="3"/>
+        <v>58.424585805178836</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="3"/>
+        <v>50.806678876435008</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="3"/>
+        <v>38.191461034623508</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="3"/>
+        <v>32.85796829104472</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <f>B92+B95</f>
+        <v>676.18337495012372</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ref="C96:L96" si="4">C92+C95</f>
+        <v>752.29572559961264</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="4"/>
+        <v>712.15376227027036</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="4"/>
+        <v>1488.2994461787116</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="4"/>
+        <v>1406.5582602878308</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="4"/>
+        <v>1537.7644357047657</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="4"/>
+        <v>1331.4881067129193</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="4"/>
+        <v>709.49804255876847</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="4"/>
+        <v>633.48094402478955</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="4"/>
+        <v>124.40876290611865</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="4"/>
+        <v>223.53815658158399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B95">
-        <f>B90-B93</f>
-        <v>606.47141312018732</v>
-      </c>
-      <c r="C95">
-        <f t="shared" ref="C95:L95" si="5">C90-C93</f>
-        <v>665.67443138791873</v>
-      </c>
-      <c r="D95">
+      <c r="B97">
+        <f>B92-B95</f>
+        <v>611.34515119213586</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ref="C97:L97" si="5">C92-C95</f>
+        <v>668.96754841138966</v>
+      </c>
+      <c r="D97">
         <f t="shared" si="5"/>
-        <v>637.88529772964671</v>
-      </c>
-      <c r="E95">
+        <v>642.24213780635978</v>
+      </c>
+      <c r="E97">
         <f t="shared" si="5"/>
-        <v>1331.9061450036206</v>
-      </c>
-      <c r="F95">
+        <v>1340.677971148089</v>
+      </c>
+      <c r="F97">
         <f t="shared" si="5"/>
-        <v>1237.6240428587876</v>
-      </c>
-      <c r="G95">
+        <v>1249.9845532959785</v>
+      </c>
+      <c r="G97">
         <f t="shared" si="5"/>
-        <v>1339.6046624240937</v>
-      </c>
-      <c r="H95">
+        <v>1363.340371249652</v>
+      </c>
+      <c r="H97">
         <f t="shared" si="5"/>
-        <v>1168.9348443755068</v>
-      </c>
-      <c r="I95">
+        <v>1188.2563236604203</v>
+      </c>
+      <c r="I97">
         <f t="shared" si="5"/>
-        <v>585.53965927942693</v>
-      </c>
-      <c r="J95">
+        <v>592.64887094841083</v>
+      </c>
+      <c r="J97">
         <f t="shared" si="5"/>
-        <v>517.81444195838662</v>
-      </c>
-      <c r="K95">
+        <v>531.86758627191944</v>
+      </c>
+      <c r="K97">
         <f t="shared" si="5"/>
-        <v>53.52834443572678</v>
-      </c>
-      <c r="L95">
+        <v>48.025840836871645</v>
+      </c>
+      <c r="L97">
         <f t="shared" si="5"/>
-        <v>155.02955949199441</v>
+        <v>157.82221999949454</v>
       </c>
     </row>
   </sheetData>

--- a/1 YA/2 Analyses/1 ANOVAs/YA Output 10_14.xlsx
+++ b/1 YA/2 Analyses/1 ANOVAs/YA Output 10_14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmaxwell\Documents\GitHub\CVOE-2021\1 YA\2 Analyses\1 ANOVAs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\OneDrive\Documents\GitHub\CVOE-2021\1 YA\2 Analyses\1 ANOVAs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5007F4BC-9BD4-49F7-9191-4F62AEC88F1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B64E4A-9BAE-4B49-9F31-B36872B68FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORS" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>subID</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>local_switch_cost_rand_RT</t>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
 </sst>
 </file>
@@ -602,11 +605,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -666,9 +668,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -706,7 +708,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -812,7 +814,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -954,7 +956,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -969,21 +971,21 @@
       <selection pane="bottomLeft" activeCell="P91" sqref="P91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1059,7 +1061,7 @@
         <v>-1.75438596491229E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1097,7 +1099,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>0.13030303030303</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1173,7 +1175,7 @@
         <v>3.2786885245901697E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1211,7 +1213,7 @@
         <v>1.51650312221231E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1249,7 +1251,7 @@
         <v>-1.72413793103449E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1287,7 +1289,7 @@
         <v>-1.18941421349983E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1325,7 +1327,7 @@
         <v>-1.75438596491229E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1363,7 +1365,7 @@
         <v>3.2786885245901697E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1401,7 +1403,7 @@
         <v>1.72413793103449E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1439,7 +1441,7 @@
         <v>-1.72413793103449E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1477,7 +1479,7 @@
         <v>5.1724137931034503E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1515,7 +1517,7 @@
         <v>1.63934426229508E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1553,7 +1555,7 @@
         <v>3.1323185011709602E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>0.10344827586206901</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>19</v>
       </c>
@@ -1667,7 +1669,7 @@
         <v>7.7365545010066206E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>20</v>
       </c>
@@ -1705,7 +1707,7 @@
         <v>-1.9298245614035099E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>21</v>
       </c>
@@ -1743,7 +1745,7 @@
         <v>1.69388989715668E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>22</v>
       </c>
@@ -1781,7 +1783,7 @@
         <v>5.1724137931034503E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>23</v>
       </c>
@@ -1819,7 +1821,7 @@
         <v>-0.105144149236857</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>24</v>
       </c>
@@ -1857,7 +1859,7 @@
         <v>1.5759738328873001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>25</v>
       </c>
@@ -1895,7 +1897,7 @@
         <v>4.91803278688525E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>26</v>
       </c>
@@ -1933,7 +1935,7 @@
         <v>1.6354445435622901E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>27</v>
       </c>
@@ -1971,7 +1973,7 @@
         <v>1.6949152542372801E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>28</v>
       </c>
@@ -2009,7 +2011,7 @@
         <v>5.2893045002922197E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>29</v>
       </c>
@@ -2047,7 +2049,7 @@
         <v>6.80250783699059E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>30</v>
       </c>
@@ -2085,7 +2087,7 @@
         <v>3.3333333333333298E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>31</v>
       </c>
@@ -2123,7 +2125,7 @@
         <v>-1.75438596491229E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>34</v>
       </c>
@@ -2161,7 +2163,7 @@
         <v>8.1967213114754106E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>35</v>
       </c>
@@ -2199,7 +2201,7 @@
         <v>1.6666666666666701E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>37</v>
       </c>
@@ -2237,7 +2239,7 @@
         <v>3.0503978779840901E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>38</v>
       </c>
@@ -2275,7 +2277,7 @@
         <v>3.3313851548802002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>39</v>
       </c>
@@ -2313,7 +2315,7 @@
         <v>1.4225181598063E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>40</v>
       </c>
@@ -2351,7 +2353,7 @@
         <v>3.2665639445300397E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>43</v>
       </c>
@@ -2389,7 +2391,7 @@
         <v>3.0952380952380999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>44</v>
       </c>
@@ -2427,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>45</v>
       </c>
@@ -2465,7 +2467,7 @@
         <v>-1.7543859649122901E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>46</v>
       </c>
@@ -2503,7 +2505,7 @@
         <v>3.2729398012857902E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>47</v>
       </c>
@@ -2541,7 +2543,7 @@
         <v>3.3866995073891598E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>50</v>
       </c>
@@ -2579,7 +2581,7 @@
         <v>-3.5057471264367798E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>51</v>
       </c>
@@ -2617,7 +2619,7 @@
         <v>4.91803278688525E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>53</v>
       </c>
@@ -2655,7 +2657,7 @@
         <v>-1.72413793103443E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>54</v>
       </c>
@@ -2693,7 +2695,7 @@
         <v>4.8624617949430397E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>55</v>
       </c>
@@ -2731,7 +2733,7 @@
         <v>3.3898305084745797E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>56</v>
       </c>
@@ -2769,7 +2771,7 @@
         <v>3.1675465407057499E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>57</v>
       </c>
@@ -2807,45 +2809,45 @@
         <v>1.0641357492090799E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>58</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>3.125E-2</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49">
         <v>2.1052631578947299E-2</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49">
         <v>2.61513157894737E-2</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49">
         <v>0.107142857142857</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49">
         <v>5.0847457627118599E-2</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49">
         <v>0.05</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49">
         <v>1.7857142857142901E-2</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49">
         <v>2.4696141837645E-2</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49">
         <v>-8.2941729323307602E-3</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49">
         <v>5.6295399515738503E-2</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49">
         <v>3.2142857142857098E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>59</v>
       </c>
@@ -2883,7 +2885,7 @@
         <v>4.91803278688525E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>60</v>
       </c>
@@ -2921,7 +2923,7 @@
         <v>2.60033917467495E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>61</v>
       </c>
@@ -2959,7 +2961,7 @@
         <v>1.6666666666666701E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>62</v>
       </c>
@@ -2997,7 +2999,7 @@
         <v>-8.4793668739402395E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>63</v>
       </c>
@@ -3035,7 +3037,7 @@
         <v>3.4482758620689599E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>64</v>
       </c>
@@ -3073,7 +3075,7 @@
         <v>3.3898305084745797E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>65</v>
       </c>
@@ -3111,7 +3113,7 @@
         <v>1.2280701754385901E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>66</v>
       </c>
@@ -3149,7 +3151,7 @@
         <v>9.6428571428571405E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>67</v>
       </c>
@@ -3187,7 +3189,7 @@
         <v>1.6364699006429E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>69</v>
       </c>
@@ -3225,7 +3227,7 @@
         <v>-1.72316384180791E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>70</v>
       </c>
@@ -3263,7 +3265,7 @@
         <v>-4.5399515738499003E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>71</v>
       </c>
@@ -3301,7 +3303,7 @@
         <v>3.2786885245901697E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>72</v>
       </c>
@@ -3339,7 +3341,7 @@
         <v>5.0555230859146698E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>73</v>
       </c>
@@ -3377,7 +3379,7 @@
         <v>-5.55709919421998E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>74</v>
       </c>
@@ -3415,7 +3417,7 @@
         <v>3.6340852130325799E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>75</v>
       </c>
@@ -3453,7 +3455,7 @@
         <v>1.4225181598063E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>76</v>
       </c>
@@ -3491,7 +3493,7 @@
         <v>-4.0476190476190402E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>77</v>
       </c>
@@ -3529,7 +3531,7 @@
         <v>4.7391952309985101E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>78</v>
       </c>
@@ -3567,7 +3569,7 @@
         <v>-1.9844693701466801E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>80</v>
       </c>
@@ -3605,7 +3607,7 @@
         <v>3.3898305084745797E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>81</v>
       </c>
@@ -3643,7 +3645,7 @@
         <v>-5.74712643678144E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>82</v>
       </c>
@@ -3681,7 +3683,7 @@
         <v>4.96147919876734E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>83</v>
       </c>
@@ -3719,7 +3721,7 @@
         <v>-1.9844693701466801E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>84</v>
       </c>
@@ -3757,7 +3759,7 @@
         <v>1.7857142857142901E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>85</v>
       </c>
@@ -3795,7 +3797,7 @@
         <v>1.72305764411027E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>86</v>
       </c>
@@ -3833,7 +3835,7 @@
         <v>1.72413793103449E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>87</v>
       </c>
@@ -3871,7 +3873,7 @@
         <v>5.0252750520368698E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>88</v>
       </c>
@@ -3909,7 +3911,7 @@
         <v>6.8349753694581197E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>89</v>
       </c>
@@ -3947,7 +3949,7 @@
         <v>3.02430751837196E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>90</v>
       </c>
@@ -3985,7 +3987,7 @@
         <v>4.9717514124293802E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>91</v>
       </c>
@@ -4023,7 +4025,7 @@
         <v>-1.15041702617202E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>92</v>
       </c>
@@ -4061,7 +4063,7 @@
         <v>5.1724137931034503E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>93</v>
       </c>
@@ -4099,7 +4101,7 @@
         <v>-1.89655172413793E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>94</v>
       </c>
@@ -4137,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>95</v>
       </c>
@@ -4175,7 +4177,7 @@
         <v>2.89473684210526E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>97</v>
       </c>
@@ -4213,7 +4215,7 @@
         <v>1.6666666666666701E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>98</v>
       </c>
@@ -4251,7 +4253,7 @@
         <v>-1.75438596491229E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>99</v>
       </c>
@@ -4289,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>100</v>
       </c>
@@ -4327,7 +4329,7 @@
         <v>3.3898305084745797E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>101</v>
       </c>
@@ -4365,7 +4367,7 @@
         <v>-1.9298245614035099E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>102</v>
       </c>
@@ -4403,7 +4405,7 @@
         <v>1.0714285714285701E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
@@ -4452,7 +4454,7 @@
         <v>2.1612989444769172E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
@@ -4501,7 +4503,7 @@
         <v>3.3445554013682488E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>14</v>
       </c>
@@ -4550,7 +4552,7 @@
         <v>3.7393266159867484E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>17</v>
       </c>
@@ -4599,7 +4601,7 @@
         <v>7.3290801673340268E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>15</v>
       </c>
@@ -4648,7 +4650,7 @@
         <v>2.8942069612103199E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>16</v>
       </c>
@@ -4705,28 +4707,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N86" sqref="N86"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="6" max="7" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.7265625" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4763,8 +4765,11 @@
       <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4801,8 +4806,11 @@
       <c r="L2">
         <v>91.075108853410697</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4839,8 +4847,11 @@
       <c r="L3">
         <v>121.45614035087701</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4877,8 +4888,11 @@
       <c r="L4">
         <v>244.172830188679</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4915,8 +4929,11 @@
       <c r="L5">
         <v>147.957334891876</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4953,8 +4970,11 @@
       <c r="L6">
         <v>113.455892255892</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4991,8 +5011,11 @@
       <c r="L7">
         <v>546.19768170426096</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5029,8 +5052,11 @@
       <c r="L8">
         <v>333.81307814991999</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5067,8 +5093,11 @@
       <c r="L9">
         <v>134.04237288135599</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5105,8 +5134,11 @@
       <c r="L10">
         <v>38.135300993570901</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5143,8 +5175,11 @@
       <c r="L11">
         <v>466.15789473684202</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5181,8 +5216,11 @@
       <c r="L12">
         <v>84.021570319240695</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5219,8 +5257,11 @@
       <c r="L13">
         <v>165.398376623377</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5257,8 +5298,11 @@
       <c r="L14">
         <v>235.60833333333301</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5295,8 +5339,11 @@
       <c r="L15">
         <v>173.90658307210001</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>
@@ -5333,8 +5380,11 @@
       <c r="L16">
         <v>553.82277728218901</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -5371,8 +5421,11 @@
       <c r="L17">
         <v>604.46888111888097</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>19</v>
       </c>
@@ -5409,8 +5462,11 @@
       <c r="L18">
         <v>66.892235123367101</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>20</v>
       </c>
@@ -5447,8 +5503,11 @@
       <c r="L19">
         <v>166.55938697318001</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>21</v>
       </c>
@@ -5485,8 +5544,11 @@
       <c r="L20">
         <v>80.732142857142904</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>22</v>
       </c>
@@ -5523,8 +5585,11 @@
       <c r="L21">
         <v>256.37448165869199</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>23</v>
       </c>
@@ -5561,8 +5626,11 @@
       <c r="L22">
         <v>214.80169491525399</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>24</v>
       </c>
@@ -5599,8 +5667,11 @@
       <c r="L23">
         <v>194.575649350649</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>25</v>
       </c>
@@ -5637,8 +5708,11 @@
       <c r="L24">
         <v>55.6034482758621</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>26</v>
       </c>
@@ -5675,8 +5749,11 @@
       <c r="L25">
         <v>377.06453634085199</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>27</v>
       </c>
@@ -5713,8 +5790,11 @@
       <c r="L26">
         <v>-20.831661442006201</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>28</v>
       </c>
@@ -5751,8 +5831,11 @@
       <c r="L27">
         <v>333.86452762923398</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>29</v>
       </c>
@@ -5789,8 +5872,11 @@
       <c r="L28">
         <v>207.941299790356</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>30</v>
       </c>
@@ -5827,8 +5913,11 @@
       <c r="L29">
         <v>108.218585622443</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>31</v>
       </c>
@@ -5865,8 +5954,11 @@
       <c r="L30">
         <v>177.467980295567</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>34</v>
       </c>
@@ -5903,8 +5995,11 @@
       <c r="L31">
         <v>65.649749373433494</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>35</v>
       </c>
@@ -5941,8 +6036,11 @@
       <c r="L32">
         <v>171.07869249394699</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>37</v>
       </c>
@@ -5979,8 +6077,11 @@
       <c r="L33">
         <v>415.17629629629602</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>38</v>
       </c>
@@ -6017,8 +6118,11 @@
       <c r="L34">
         <v>210.79188311688301</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>39</v>
       </c>
@@ -6055,8 +6159,11 @@
       <c r="L35">
         <v>75.871012006861207</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>40</v>
       </c>
@@ -6093,8 +6200,11 @@
       <c r="L36">
         <v>-12.4814814814815</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>43</v>
       </c>
@@ -6131,8 +6241,11 @@
       <c r="L37">
         <v>137.00793650793599</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>44</v>
       </c>
@@ -6169,8 +6282,11 @@
       <c r="L38">
         <v>141.85454545454499</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>45</v>
       </c>
@@ -6207,8 +6323,11 @@
       <c r="L39">
         <v>-13.262382445141199</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>46</v>
       </c>
@@ -6245,8 +6364,11 @@
       <c r="L40">
         <v>103.329489867226</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>47</v>
       </c>
@@ -6283,8 +6405,11 @@
       <c r="L41">
         <v>-6.1636363636364404</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>50</v>
       </c>
@@ -6321,8 +6446,11 @@
       <c r="L42">
         <v>-2.0687211093990099</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>51</v>
       </c>
@@ -6359,8 +6487,11 @@
       <c r="L43">
         <v>304.30611010284298</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>53</v>
       </c>
@@ -6397,8 +6528,11 @@
       <c r="L44">
         <v>115.224880382775</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>54</v>
       </c>
@@ -6435,8 +6569,11 @@
       <c r="L45">
         <v>79.422262552933901</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>55</v>
       </c>
@@ -6473,8 +6610,11 @@
       <c r="L46">
         <v>112.929824561403</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>56</v>
       </c>
@@ -6511,8 +6651,11 @@
       <c r="L47">
         <v>232.45614035087701</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>57</v>
       </c>
@@ -6549,46 +6692,52 @@
       <c r="L48">
         <v>46.038811188811202</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>58</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>848.97849462365605</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49">
         <v>959.12903225806497</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49">
         <v>904.05376344086005</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49">
         <v>2058.52</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49">
         <v>1343.2321428571399</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49">
         <v>1750.7719298245599</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49">
         <v>1415.3090909090899</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49">
         <v>439.17837941628301</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49">
         <v>511.25532746823097</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49">
         <v>715.28785714285698</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49">
         <v>335.46283891547</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>59</v>
       </c>
@@ -6625,8 +6774,11 @@
       <c r="L50">
         <v>82.579552329098505</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>60</v>
       </c>
@@ -6663,8 +6815,11 @@
       <c r="L51">
         <v>150.42117647058799</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>61</v>
       </c>
@@ -6701,8 +6856,11 @@
       <c r="L52">
         <v>95.044418468731806</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>62</v>
       </c>
@@ -6739,8 +6897,11 @@
       <c r="L53">
         <v>52.968421052631598</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>63</v>
       </c>
@@ -6777,8 +6938,11 @@
       <c r="L54">
         <v>136.562662337662</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>64</v>
       </c>
@@ -6815,8 +6979,11 @@
       <c r="L55">
         <v>163.18481548699299</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>65</v>
       </c>
@@ -6853,8 +7020,11 @@
       <c r="L56">
         <v>289.77279202279198</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>66</v>
       </c>
@@ -6891,8 +7061,11 @@
       <c r="L57">
         <v>269.97188309286003</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>67</v>
       </c>
@@ -6929,8 +7102,11 @@
       <c r="L58">
         <v>119.821428571429</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>69</v>
       </c>
@@ -6967,8 +7143,11 @@
       <c r="L59">
         <v>-10.963425512934901</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>70</v>
       </c>
@@ -7005,8 +7184,11 @@
       <c r="L60">
         <v>295.506535947712</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>71</v>
       </c>
@@ -7043,8 +7225,11 @@
       <c r="L61">
         <v>367.56117103235698</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>72</v>
       </c>
@@ -7081,8 +7266,11 @@
       <c r="L62">
         <v>190.81754385964899</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>73</v>
       </c>
@@ -7119,8 +7307,11 @@
       <c r="L63">
         <v>70.270689655172404</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>74</v>
       </c>
@@ -7157,8 +7348,11 @@
       <c r="L64">
         <v>289.16433566433602</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>75</v>
       </c>
@@ -7195,8 +7389,11 @@
       <c r="L65">
         <v>133.29502572898801</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>76</v>
       </c>
@@ -7233,8 +7430,11 @@
       <c r="L66">
         <v>46.3707142857143</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>77</v>
       </c>
@@ -7271,8 +7471,11 @@
       <c r="L67">
         <v>301.31189083820698</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>78</v>
       </c>
@@ -7309,8 +7512,11 @@
       <c r="L68">
         <v>398.67106089139997</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>80</v>
       </c>
@@ -7347,8 +7553,11 @@
       <c r="L69">
         <v>405.53429027113202</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>81</v>
       </c>
@@ -7385,8 +7594,11 @@
       <c r="L70">
         <v>226.931608682724</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>82</v>
       </c>
@@ -7423,8 +7635,11 @@
       <c r="L71">
         <v>530.38619528619495</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>83</v>
       </c>
@@ -7461,8 +7676,11 @@
       <c r="L72">
         <v>180.11330822347799</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>84</v>
       </c>
@@ -7499,8 +7717,11 @@
       <c r="L73">
         <v>339.995454545455</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>85</v>
       </c>
@@ -7537,8 +7758,11 @@
       <c r="L74">
         <v>278.672727272727</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>86</v>
       </c>
@@ -7575,8 +7799,11 @@
       <c r="L75">
         <v>319.52631578947398</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>87</v>
       </c>
@@ -7613,8 +7840,11 @@
       <c r="L76">
         <v>-28.7344155844157</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>88</v>
       </c>
@@ -7651,8 +7881,11 @@
       <c r="L77">
         <v>548.94682675814795</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>89</v>
       </c>
@@ -7689,8 +7922,11 @@
       <c r="L78">
         <v>200.34415584415601</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>90</v>
       </c>
@@ -7727,8 +7963,11 @@
       <c r="L79">
         <v>233.89039408867001</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>91</v>
       </c>
@@ -7765,8 +8004,11 @@
       <c r="L80">
         <v>64.627380952380904</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>92</v>
       </c>
@@ -7803,8 +8045,11 @@
       <c r="L81">
         <v>163.239753466872</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>93</v>
       </c>
@@ -7841,8 +8086,11 @@
       <c r="L82">
         <v>3.3508771929824701</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>94</v>
       </c>
@@ -7879,8 +8127,11 @@
       <c r="L83">
         <v>63.024733966062698</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>95</v>
       </c>
@@ -7917,8 +8168,11 @@
       <c r="L84">
         <v>195.45754716981099</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>97</v>
       </c>
@@ -7955,8 +8209,11 @@
       <c r="L85">
         <v>86.565751022793805</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>98</v>
       </c>
@@ -7993,8 +8250,11 @@
       <c r="L86">
         <v>199.46271929824599</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>99</v>
       </c>
@@ -8031,8 +8291,11 @@
       <c r="L87">
         <v>458.55357142857099</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>100</v>
       </c>
@@ -8069,8 +8332,11 @@
       <c r="L88">
         <v>308.71613300492601</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>101</v>
       </c>
@@ -8107,8 +8373,11 @@
       <c r="L89">
         <v>20.584291187739399</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>102</v>
       </c>
@@ -8145,8 +8414,11 @@
       <c r="L90">
         <v>-56.564270152505301</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
@@ -8195,7 +8467,7 @@
         <v>190.68018829053926</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
@@ -8244,7 +8516,7 @@
         <v>149.94418510471144</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>14</v>
       </c>
@@ -8293,7 +8565,7 @@
         <v>16.764269536247308</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>17</v>
       </c>
@@ -8342,7 +8614,7 @@
         <v>32.85796829104472</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>15</v>
       </c>
@@ -8391,7 +8663,7 @@
         <v>223.53815658158399</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>16</v>
       </c>
